--- a/src/lib/scripts/seed-data/data/angels-bulk.xlsx
+++ b/src/lib/scripts/seed-data/data/angels-bulk.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X101"/>
+  <dimension ref="A1:Y101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -405,14 +405,14 @@
     <col min="1" max="1" width="12.83203125" customWidth="1"/>
     <col min="2" max="2" width="11.83203125" customWidth="1"/>
     <col min="3" max="3" width="29.83203125" customWidth="1"/>
-    <col min="4" max="4" width="41.83203125" customWidth="1"/>
-    <col min="5" max="5" width="38.83203125" customWidth="1"/>
-    <col min="6" max="6" width="33.83203125" customWidth="1"/>
+    <col min="4" max="4" width="42.83203125" customWidth="1"/>
+    <col min="5" max="5" width="39.83203125" customWidth="1"/>
+    <col min="6" max="6" width="34.83203125" customWidth="1"/>
     <col min="7" max="7" width="19.83203125" customWidth="1"/>
     <col min="8" max="8" width="50.83203125" customWidth="1"/>
     <col min="9" max="9" width="12.83203125" customWidth="1"/>
     <col min="10" max="10" width="19.83203125" customWidth="1"/>
-    <col min="11" max="11" width="30.83203125" customWidth="1"/>
+    <col min="11" max="11" width="28.83203125" customWidth="1"/>
     <col min="12" max="12" width="15.83203125" customWidth="1"/>
     <col min="13" max="13" width="21.83203125" customWidth="1"/>
     <col min="14" max="14" width="31.83203125" customWidth="1"/>
@@ -426,6 +426,7 @@
     <col min="22" max="22" width="27.83203125" customWidth="1"/>
     <col min="23" max="23" width="11.83203125" customWidth="1"/>
     <col min="24" max="24" width="35.83203125" customWidth="1"/>
+    <col min="25" max="25" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -501,55 +502,58 @@
       <c r="X1" t="str">
         <v>notes</v>
       </c>
+      <c r="Y1" t="str">
+        <v>visibility_level</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Logan</v>
+        <v>Storm</v>
       </c>
       <c r="B2" t="str">
-        <v>Lee</v>
+        <v>Martinez</v>
       </c>
       <c r="C2" t="str">
-        <v>logan.lee@test.com</v>
+        <v>storm.martinez@demo.com</v>
       </c>
       <c r="D2" t="str">
-        <v>https://linkedin.com/in/loganlee</v>
+        <v>https://linkedin.com/in/stormmartinez</v>
       </c>
       <c r="E2" t="str">
-        <v>https://twitter.com/logan_lee</v>
+        <v>https://twitter.com/storm_martinez</v>
       </c>
       <c r="F2" t="str">
         <v/>
       </c>
       <c r="G2" t="str">
-        <v>San Francisco, CA</v>
+        <v>Austin, TX</v>
       </c>
       <c r="H2" t="str">
-        <v>Experienced investor and former founder with expertise in AI/ML</v>
+        <v>Experienced investor and former founder with expertise in Healthtech</v>
       </c>
       <c r="I2" t="str">
         <v>10K-25K</v>
       </c>
       <c r="J2" t="str">
-        <v>Seed,Pre-seed</v>
+        <v>Series A,Seed</v>
       </c>
       <c r="K2" t="str">
-        <v>Consumer,Marketplace</v>
+        <v>Deep tech,B2B SaaS</v>
       </c>
       <c r="L2" t="str">
-        <v>North America</v>
+        <v>Asia</v>
       </c>
       <c r="M2" t="str">
-        <v>passive</v>
+        <v>hands-on</v>
       </c>
       <c r="N2" t="str">
         <v>ExampleCorp 1,StartupCo 2</v>
       </c>
       <c r="O2" t="str">
-        <v>Product,Marketing</v>
+        <v>Marketing,Product</v>
       </c>
       <c r="P2" t="str">
-        <v>1 week</v>
+        <v>1-3 days</v>
       </c>
       <c r="Q2" t="str">
         <v>email</v>
@@ -558,7 +562,7 @@
         <v/>
       </c>
       <c r="S2" t="str">
-        <v>logan.lee@test.com</v>
+        <v>storm.martinez@demo.com</v>
       </c>
       <c r="T2" t="str">
         <v>simple</v>
@@ -575,55 +579,58 @@
       <c r="X2" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y2" t="str">
+        <v>FREE</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Reese</v>
+        <v>Storm</v>
       </c>
       <c r="B3" t="str">
-        <v>Harris</v>
+        <v>Clark</v>
       </c>
       <c r="C3" t="str">
-        <v>reese.harris@gmail.com</v>
+        <v>storm.clark@example.com</v>
       </c>
       <c r="D3" t="str">
-        <v>https://linkedin.com/in/reeseharris</v>
+        <v>https://linkedin.com/in/stormclark</v>
       </c>
       <c r="E3" t="str">
-        <v>https://twitter.com/reese_harris</v>
+        <v>https://twitter.com/storm_clark</v>
       </c>
       <c r="F3" t="str">
         <v/>
       </c>
       <c r="G3" t="str">
-        <v>Berlin, Germany</v>
+        <v>Seattle, WA</v>
       </c>
       <c r="H3" t="str">
-        <v>Experienced investor and former founder with expertise in Deep tech</v>
+        <v>Experienced investor and former founder with expertise in B2B SaaS</v>
       </c>
       <c r="I3" t="str">
-        <v>25K-50K</v>
+        <v>100K-250K</v>
       </c>
       <c r="J3" t="str">
-        <v>Pre-seed,Seed</v>
+        <v>Series A,Seed</v>
       </c>
       <c r="K3" t="str">
-        <v>B2B SaaS,AI/ML</v>
+        <v>Healthtech,AI/ML</v>
       </c>
       <c r="L3" t="str">
         <v>Global</v>
       </c>
       <c r="M3" t="str">
-        <v>hands-on</v>
+        <v>advisory</v>
       </c>
       <c r="N3" t="str">
         <v>ExampleCorp 2,StartupCo 3</v>
       </c>
       <c r="O3" t="str">
-        <v>Engineering,Sales</v>
+        <v>Operations,Engineering</v>
       </c>
       <c r="P3" t="str">
-        <v>2 weeks</v>
+        <v>1 month</v>
       </c>
       <c r="Q3" t="str">
         <v>email</v>
@@ -632,7 +639,7 @@
         <v/>
       </c>
       <c r="S3" t="str">
-        <v>reese.harris@gmail.com</v>
+        <v>storm.clark@example.com</v>
       </c>
       <c r="T3" t="str">
         <v>simple</v>
@@ -649,55 +656,58 @@
       <c r="X3" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y3" t="str">
+        <v>FREE</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Sloan</v>
+        <v>Taylor</v>
       </c>
       <c r="B4" t="str">
-        <v>Harris</v>
+        <v>Anderson</v>
       </c>
       <c r="C4" t="str">
-        <v>sloan.harris@test.com</v>
+        <v>taylor.anderson@example.com</v>
       </c>
       <c r="D4" t="str">
-        <v>https://linkedin.com/in/sloanharris</v>
+        <v>https://linkedin.com/in/tayloranderson</v>
       </c>
       <c r="E4" t="str">
         <v/>
       </c>
       <c r="F4" t="str">
-        <v/>
+        <v>https://tayloranderson.capital</v>
       </c>
       <c r="G4" t="str">
-        <v>Singapore</v>
+        <v>Boston, MA</v>
       </c>
       <c r="H4" t="str">
-        <v>Experienced investor and former founder with expertise in E-commerce</v>
+        <v>Experienced investor and former founder with expertise in B2B SaaS</v>
       </c>
       <c r="I4" t="str">
         <v>50K-100K</v>
       </c>
       <c r="J4" t="str">
-        <v>Pre-seed,Series B</v>
+        <v>Series A,Series B</v>
       </c>
       <c r="K4" t="str">
-        <v>Web3,Fintech</v>
+        <v>B2B SaaS,AI/ML</v>
       </c>
       <c r="L4" t="str">
         <v>Asia</v>
       </c>
       <c r="M4" t="str">
-        <v>network-focused</v>
+        <v>passive</v>
       </c>
       <c r="N4" t="str">
         <v>ExampleCorp 3,StartupCo 4</v>
       </c>
       <c r="O4" t="str">
-        <v>Marketing,Engineering</v>
+        <v>Product,Operations</v>
       </c>
       <c r="P4" t="str">
-        <v>1 week</v>
+        <v>1-3 days</v>
       </c>
       <c r="Q4" t="str">
         <v>email</v>
@@ -706,7 +716,7 @@
         <v/>
       </c>
       <c r="S4" t="str">
-        <v>sloan.harris@test.com</v>
+        <v>taylor.anderson@example.com</v>
       </c>
       <c r="T4" t="str">
         <v>simple</v>
@@ -723,28 +733,31 @@
       <c r="X4" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y4" t="str">
+        <v>FREE</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Avery</v>
+        <v>Finley</v>
       </c>
       <c r="B5" t="str">
-        <v>Williams</v>
+        <v>Clark</v>
       </c>
       <c r="C5" t="str">
-        <v>avery.williams@gmail.com</v>
+        <v>finley.clark@gmail.com</v>
       </c>
       <c r="D5" t="str">
-        <v>https://linkedin.com/in/averywilliams</v>
+        <v>https://linkedin.com/in/finleyclark</v>
       </c>
       <c r="E5" t="str">
-        <v/>
+        <v>https://twitter.com/finley_clark</v>
       </c>
       <c r="F5" t="str">
-        <v>https://averywilliams.com</v>
+        <v>https://finleyclark.co</v>
       </c>
       <c r="G5" t="str">
-        <v>Singapore</v>
+        <v>New York, NY</v>
       </c>
       <c r="H5" t="str">
         <v>Experienced investor and former founder with expertise in Marketplace</v>
@@ -753,10 +766,10 @@
         <v>50K-100K</v>
       </c>
       <c r="J5" t="str">
-        <v>Pre-seed,Seed</v>
+        <v>Seed,Series B</v>
       </c>
       <c r="K5" t="str">
-        <v>Web3,B2B SaaS</v>
+        <v>B2B SaaS,Climate tech</v>
       </c>
       <c r="L5" t="str">
         <v>Asia</v>
@@ -768,10 +781,10 @@
         <v>ExampleCorp 4,StartupCo 5</v>
       </c>
       <c r="O5" t="str">
-        <v>Product,Sales</v>
+        <v>Marketing,Sales</v>
       </c>
       <c r="P5" t="str">
-        <v>1 week</v>
+        <v>1 month</v>
       </c>
       <c r="Q5" t="str">
         <v>email</v>
@@ -780,7 +793,7 @@
         <v/>
       </c>
       <c r="S5" t="str">
-        <v>avery.williams@gmail.com</v>
+        <v>finley.clark@gmail.com</v>
       </c>
       <c r="T5" t="str">
         <v>simple</v>
@@ -797,28 +810,31 @@
       <c r="X5" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y5" t="str">
+        <v>FREE</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Parker</v>
+        <v>Remy</v>
       </c>
       <c r="B6" t="str">
-        <v>Rodriguez</v>
+        <v>Gonzalez</v>
       </c>
       <c r="C6" t="str">
-        <v>parker.rodriguez@email.com</v>
+        <v>remy.gonzalez@test.com</v>
       </c>
       <c r="D6" t="str">
-        <v>https://linkedin.com/in/parkerrodriguez</v>
+        <v>https://linkedin.com/in/remygonzalez</v>
       </c>
       <c r="E6" t="str">
-        <v>https://twitter.com/parker_rodriguez</v>
+        <v>https://twitter.com/remy_gonzalez</v>
       </c>
       <c r="F6" t="str">
-        <v/>
+        <v>https://remygonzalez.vc</v>
       </c>
       <c r="G6" t="str">
-        <v>Berlin, Germany</v>
+        <v>London, UK</v>
       </c>
       <c r="H6" t="str">
         <v>Experienced investor and former founder with expertise in Developer tools</v>
@@ -827,22 +843,22 @@
         <v>100K-250K</v>
       </c>
       <c r="J6" t="str">
-        <v>Pre-seed,Series A</v>
+        <v>Seed,Series C</v>
       </c>
       <c r="K6" t="str">
-        <v>Deep tech,Web3</v>
+        <v>B2B SaaS,Web3</v>
       </c>
       <c r="L6" t="str">
-        <v>North America</v>
+        <v>Europe</v>
       </c>
       <c r="M6" t="str">
-        <v>advisory</v>
+        <v>network-focused</v>
       </c>
       <c r="N6" t="str">
         <v>ExampleCorp 5,StartupCo 6</v>
       </c>
       <c r="O6" t="str">
-        <v>Engineering,Marketing</v>
+        <v>Operations,Marketing</v>
       </c>
       <c r="P6" t="str">
         <v>1-3 days</v>
@@ -854,7 +870,7 @@
         <v/>
       </c>
       <c r="S6" t="str">
-        <v>parker.rodriguez@email.com</v>
+        <v>remy.gonzalez@test.com</v>
       </c>
       <c r="T6" t="str">
         <v>simple</v>
@@ -871,40 +887,43 @@
       <c r="X6" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y6" t="str">
+        <v>FREE</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Reese</v>
+        <v>Storm</v>
       </c>
       <c r="B7" t="str">
-        <v>Williams</v>
+        <v>Perez</v>
       </c>
       <c r="C7" t="str">
-        <v>reese.williams@demo.com</v>
+        <v>storm.perez@email.com</v>
       </c>
       <c r="D7" t="str">
-        <v>https://linkedin.com/in/reesewilliams</v>
+        <v>https://linkedin.com/in/stormperez</v>
       </c>
       <c r="E7" t="str">
         <v/>
       </c>
       <c r="F7" t="str">
-        <v>https://reesewilliams.io</v>
+        <v/>
       </c>
       <c r="G7" t="str">
-        <v>Berlin, Germany</v>
+        <v>Seattle, WA</v>
       </c>
       <c r="H7" t="str">
-        <v>Experienced investor and former founder with expertise in AI/ML</v>
+        <v>Experienced investor and former founder with expertise in Gaming</v>
       </c>
       <c r="I7" t="str">
-        <v>1K-10K</v>
+        <v>10K-25K</v>
       </c>
       <c r="J7" t="str">
-        <v>Seed,Series B</v>
+        <v>Series A,Pre-seed</v>
       </c>
       <c r="K7" t="str">
-        <v>Consumer,Healthtech</v>
+        <v>Deep tech,Climate tech</v>
       </c>
       <c r="L7" t="str">
         <v>North America</v>
@@ -916,10 +935,10 @@
         <v>ExampleCorp 6,StartupCo 7</v>
       </c>
       <c r="O7" t="str">
-        <v>Sales,Engineering</v>
+        <v>Engineering,Sales</v>
       </c>
       <c r="P7" t="str">
-        <v>1 month</v>
+        <v>1 week</v>
       </c>
       <c r="Q7" t="str">
         <v>email</v>
@@ -928,7 +947,7 @@
         <v/>
       </c>
       <c r="S7" t="str">
-        <v>reese.williams@demo.com</v>
+        <v>storm.perez@email.com</v>
       </c>
       <c r="T7" t="str">
         <v>simple</v>
@@ -945,52 +964,55 @@
       <c r="X7" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y7" t="str">
+        <v>FREE</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Sage</v>
+        <v>Cameron</v>
       </c>
       <c r="B8" t="str">
-        <v>Brown</v>
+        <v>Miller</v>
       </c>
       <c r="C8" t="str">
-        <v>sage.brown@example.com</v>
+        <v>cameron.miller@example.com</v>
       </c>
       <c r="D8" t="str">
-        <v>https://linkedin.com/in/sagebrown</v>
+        <v>https://linkedin.com/in/cameronmiller</v>
       </c>
       <c r="E8" t="str">
-        <v/>
+        <v>https://twitter.com/cameron_miller</v>
       </c>
       <c r="F8" t="str">
         <v/>
       </c>
       <c r="G8" t="str">
-        <v>Singapore</v>
+        <v>San Francisco, CA</v>
       </c>
       <c r="H8" t="str">
-        <v>Experienced investor and former founder with expertise in Developer tools</v>
+        <v>Experienced investor and former founder with expertise in Consumer</v>
       </c>
       <c r="I8" t="str">
-        <v>25K-50K</v>
+        <v>10K-25K</v>
       </c>
       <c r="J8" t="str">
-        <v>Series C,Seed</v>
+        <v>Seed,Series A</v>
       </c>
       <c r="K8" t="str">
-        <v>B2B SaaS,Fintech</v>
+        <v>Climate tech,Marketplace</v>
       </c>
       <c r="L8" t="str">
-        <v>Europe</v>
+        <v>Global</v>
       </c>
       <c r="M8" t="str">
-        <v>network-focused</v>
+        <v>hands-on</v>
       </c>
       <c r="N8" t="str">
         <v>ExampleCorp 7,StartupCo 8</v>
       </c>
       <c r="O8" t="str">
-        <v>Engineering,Product</v>
+        <v>Sales,Engineering</v>
       </c>
       <c r="P8" t="str">
         <v>1 month</v>
@@ -1002,7 +1024,7 @@
         <v/>
       </c>
       <c r="S8" t="str">
-        <v>sage.brown@example.com</v>
+        <v>cameron.miller@example.com</v>
       </c>
       <c r="T8" t="str">
         <v>simple</v>
@@ -1019,43 +1041,46 @@
       <c r="X8" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y8" t="str">
+        <v>FREE</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Quinn</v>
+        <v>Remy</v>
       </c>
       <c r="B9" t="str">
-        <v>Jackson</v>
+        <v>Taylor</v>
       </c>
       <c r="C9" t="str">
-        <v>quinn.jackson@example.com</v>
+        <v>remy.taylor@demo.com</v>
       </c>
       <c r="D9" t="str">
-        <v>https://linkedin.com/in/quinnjackson</v>
+        <v>https://linkedin.com/in/remytaylor</v>
       </c>
       <c r="E9" t="str">
-        <v/>
+        <v>https://twitter.com/remy_taylor</v>
       </c>
       <c r="F9" t="str">
         <v/>
       </c>
       <c r="G9" t="str">
-        <v>San Francisco, CA</v>
+        <v>New York, NY</v>
       </c>
       <c r="H9" t="str">
-        <v>Experienced investor and former founder with expertise in Fintech</v>
+        <v>Experienced investor and former founder with expertise in Marketplace</v>
       </c>
       <c r="I9" t="str">
-        <v>50K-100K</v>
+        <v>10K-25K</v>
       </c>
       <c r="J9" t="str">
-        <v>Seed,Series B</v>
+        <v>Seed,Series A</v>
       </c>
       <c r="K9" t="str">
-        <v>Consumer,Fintech</v>
+        <v>Deep tech,E-commerce</v>
       </c>
       <c r="L9" t="str">
-        <v>Asia</v>
+        <v>EMEA</v>
       </c>
       <c r="M9" t="str">
         <v>advisory</v>
@@ -1064,10 +1089,10 @@
         <v>ExampleCorp 8,StartupCo 9</v>
       </c>
       <c r="O9" t="str">
-        <v>Engineering,Product</v>
+        <v>Engineering,Operations</v>
       </c>
       <c r="P9" t="str">
-        <v>1 week</v>
+        <v>1-3 days</v>
       </c>
       <c r="Q9" t="str">
         <v>email</v>
@@ -1076,7 +1101,7 @@
         <v/>
       </c>
       <c r="S9" t="str">
-        <v>quinn.jackson@example.com</v>
+        <v>remy.taylor@demo.com</v>
       </c>
       <c r="T9" t="str">
         <v>simple</v>
@@ -1093,19 +1118,22 @@
       <c r="X9" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y9" t="str">
+        <v>FREE</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Riley</v>
+        <v>Rowan</v>
       </c>
       <c r="B10" t="str">
-        <v>Lopez</v>
+        <v>Rodriguez</v>
       </c>
       <c r="C10" t="str">
-        <v>riley.lopez@test.com</v>
+        <v>rowan.rodriguez@email.com</v>
       </c>
       <c r="D10" t="str">
-        <v>https://linkedin.com/in/rileylopez</v>
+        <v>https://linkedin.com/in/rowanrodriguez</v>
       </c>
       <c r="E10" t="str">
         <v/>
@@ -1114,22 +1142,22 @@
         <v/>
       </c>
       <c r="G10" t="str">
-        <v>Singapore</v>
+        <v>San Francisco, CA</v>
       </c>
       <c r="H10" t="str">
-        <v>Experienced investor and former founder with expertise in Healthtech</v>
+        <v>Experienced investor and former founder with expertise in B2B SaaS</v>
       </c>
       <c r="I10" t="str">
-        <v>10K-25K</v>
+        <v>50K-100K</v>
       </c>
       <c r="J10" t="str">
-        <v>Series A,Series B</v>
+        <v>Series B,Series A</v>
       </c>
       <c r="K10" t="str">
-        <v>Web3,Developer tools</v>
+        <v>E-commerce,B2B SaaS</v>
       </c>
       <c r="L10" t="str">
-        <v>Europe</v>
+        <v>Global</v>
       </c>
       <c r="M10" t="str">
         <v>hands-on</v>
@@ -1138,10 +1166,10 @@
         <v>ExampleCorp 9,StartupCo 10</v>
       </c>
       <c r="O10" t="str">
-        <v>Marketing,Sales</v>
+        <v>Engineering,Product</v>
       </c>
       <c r="P10" t="str">
-        <v>2 weeks</v>
+        <v>1 month</v>
       </c>
       <c r="Q10" t="str">
         <v>email</v>
@@ -1150,7 +1178,7 @@
         <v/>
       </c>
       <c r="S10" t="str">
-        <v>riley.lopez@test.com</v>
+        <v>rowan.rodriguez@email.com</v>
       </c>
       <c r="T10" t="str">
         <v>simple</v>
@@ -1167,52 +1195,55 @@
       <c r="X10" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y10" t="str">
+        <v>FREE</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Storm</v>
+        <v>Morgan</v>
       </c>
       <c r="B11" t="str">
-        <v>Jackson</v>
+        <v>Davis</v>
       </c>
       <c r="C11" t="str">
-        <v>storm.jackson@test.com</v>
+        <v>morgan.davis@email.com</v>
       </c>
       <c r="D11" t="str">
-        <v>https://linkedin.com/in/stormjackson</v>
+        <v>https://linkedin.com/in/morgandavis</v>
       </c>
       <c r="E11" t="str">
-        <v/>
+        <v>https://twitter.com/morgan_davis</v>
       </c>
       <c r="F11" t="str">
-        <v>https://stormjackson.vc</v>
+        <v>https://morgandavis.vc</v>
       </c>
       <c r="G11" t="str">
-        <v>Seattle, WA</v>
+        <v>New York, NY</v>
       </c>
       <c r="H11" t="str">
-        <v>Experienced investor and former founder with expertise in Climate tech</v>
+        <v>Experienced investor and former founder with expertise in AI/ML</v>
       </c>
       <c r="I11" t="str">
-        <v>50K-100K</v>
+        <v>10K-25K</v>
       </c>
       <c r="J11" t="str">
-        <v>Series C,Seed</v>
+        <v>Series C,Pre-seed</v>
       </c>
       <c r="K11" t="str">
-        <v>Climate tech,E-commerce</v>
+        <v>E-commerce,B2B SaaS</v>
       </c>
       <c r="L11" t="str">
         <v>EMEA</v>
       </c>
       <c r="M11" t="str">
-        <v>advisory</v>
+        <v>hands-on</v>
       </c>
       <c r="N11" t="str">
         <v>ExampleCorp 10,StartupCo 11</v>
       </c>
       <c r="O11" t="str">
-        <v>Marketing,Product</v>
+        <v>Sales,Product</v>
       </c>
       <c r="P11" t="str">
         <v>1-3 days</v>
@@ -1224,7 +1255,7 @@
         <v/>
       </c>
       <c r="S11" t="str">
-        <v>storm.jackson@test.com</v>
+        <v>morgan.davis@email.com</v>
       </c>
       <c r="T11" t="str">
         <v>simple</v>
@@ -1241,40 +1272,43 @@
       <c r="X11" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y11" t="str">
+        <v>FREE</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Finley</v>
+        <v>Rowan</v>
       </c>
       <c r="B12" t="str">
-        <v>Martinez</v>
+        <v>Hernandez</v>
       </c>
       <c r="C12" t="str">
-        <v>finley.martinez@test.com</v>
+        <v>rowan.hernandez@demo.com</v>
       </c>
       <c r="D12" t="str">
-        <v>https://linkedin.com/in/finleymartinez</v>
+        <v>https://linkedin.com/in/rowanhernandez</v>
       </c>
       <c r="E12" t="str">
-        <v>https://twitter.com/finley_martinez</v>
+        <v>https://twitter.com/rowan_hernandez</v>
       </c>
       <c r="F12" t="str">
-        <v>https://finleymartinez.capital</v>
+        <v/>
       </c>
       <c r="G12" t="str">
-        <v>Austin, TX</v>
+        <v>Seattle, WA</v>
       </c>
       <c r="H12" t="str">
-        <v>Experienced investor and former founder with expertise in Fintech</v>
+        <v>Experienced investor and former founder with expertise in Deep tech</v>
       </c>
       <c r="I12" t="str">
-        <v>25K-50K</v>
+        <v>10K-25K</v>
       </c>
       <c r="J12" t="str">
         <v>Series B,Seed</v>
       </c>
       <c r="K12" t="str">
-        <v>B2B SaaS,Fintech</v>
+        <v>Consumer,Gaming</v>
       </c>
       <c r="L12" t="str">
         <v>North America</v>
@@ -1286,7 +1320,7 @@
         <v>ExampleCorp 11,StartupCo 12</v>
       </c>
       <c r="O12" t="str">
-        <v>Engineering,Sales</v>
+        <v>Sales,Product</v>
       </c>
       <c r="P12" t="str">
         <v>1 month</v>
@@ -1298,7 +1332,7 @@
         <v/>
       </c>
       <c r="S12" t="str">
-        <v>finley.martinez@test.com</v>
+        <v>rowan.hernandez@demo.com</v>
       </c>
       <c r="T12" t="str">
         <v>simple</v>
@@ -1315,52 +1349,55 @@
       <c r="X12" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y12" t="str">
+        <v>FREE</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Remy</v>
+        <v>Rowan</v>
       </c>
       <c r="B13" t="str">
-        <v>Smith</v>
+        <v>White</v>
       </c>
       <c r="C13" t="str">
-        <v>remy.smith@test.com</v>
+        <v>rowan.white@gmail.com</v>
       </c>
       <c r="D13" t="str">
-        <v>https://linkedin.com/in/remysmith</v>
+        <v>https://linkedin.com/in/rowanwhite</v>
       </c>
       <c r="E13" t="str">
-        <v/>
+        <v>https://twitter.com/rowan_white</v>
       </c>
       <c r="F13" t="str">
-        <v/>
+        <v>https://rowanwhite.co</v>
       </c>
       <c r="G13" t="str">
-        <v>New York, NY</v>
+        <v>London, UK</v>
       </c>
       <c r="H13" t="str">
-        <v>Experienced investor and former founder with expertise in Climate tech</v>
+        <v>Experienced investor and former founder with expertise in AI/ML</v>
       </c>
       <c r="I13" t="str">
-        <v>1K-10K</v>
+        <v>50K-100K</v>
       </c>
       <c r="J13" t="str">
-        <v>Pre-seed,Series B</v>
+        <v>Series C,Series A</v>
       </c>
       <c r="K13" t="str">
-        <v>Healthtech,Deep tech</v>
+        <v>Gaming,Healthtech</v>
       </c>
       <c r="L13" t="str">
         <v>Global</v>
       </c>
       <c r="M13" t="str">
-        <v>passive</v>
+        <v>advisory</v>
       </c>
       <c r="N13" t="str">
         <v>ExampleCorp 12,StartupCo 13</v>
       </c>
       <c r="O13" t="str">
-        <v>Product,Operations</v>
+        <v>Engineering,Product</v>
       </c>
       <c r="P13" t="str">
         <v>1 week</v>
@@ -1372,7 +1409,7 @@
         <v/>
       </c>
       <c r="S13" t="str">
-        <v>remy.smith@test.com</v>
+        <v>rowan.white@gmail.com</v>
       </c>
       <c r="T13" t="str">
         <v>simple</v>
@@ -1389,52 +1426,55 @@
       <c r="X13" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y13" t="str">
+        <v>FREE</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Kendall</v>
+        <v>River</v>
       </c>
       <c r="B14" t="str">
-        <v>Ramirez</v>
+        <v>Smith</v>
       </c>
       <c r="C14" t="str">
-        <v>kendall.ramirez@gmail.com</v>
+        <v>river.smith@email.com</v>
       </c>
       <c r="D14" t="str">
-        <v>https://linkedin.com/in/kendallramirez</v>
+        <v>https://linkedin.com/in/riversmith</v>
       </c>
       <c r="E14" t="str">
-        <v>https://twitter.com/kendall_ramirez</v>
+        <v/>
       </c>
       <c r="F14" t="str">
-        <v/>
+        <v>https://riversmith.vc</v>
       </c>
       <c r="G14" t="str">
-        <v>Austin, TX</v>
+        <v>London, UK</v>
       </c>
       <c r="H14" t="str">
         <v>Experienced investor and former founder with expertise in Marketplace</v>
       </c>
       <c r="I14" t="str">
-        <v>25K-50K</v>
+        <v>50K-100K</v>
       </c>
       <c r="J14" t="str">
-        <v>Pre-seed,Series B</v>
+        <v>Seed,Series A</v>
       </c>
       <c r="K14" t="str">
-        <v>AI/ML,Gaming</v>
+        <v>AI/ML,Deep tech</v>
       </c>
       <c r="L14" t="str">
         <v>Europe</v>
       </c>
       <c r="M14" t="str">
-        <v>advisory</v>
+        <v>hands-on</v>
       </c>
       <c r="N14" t="str">
         <v>ExampleCorp 13,StartupCo 14</v>
       </c>
       <c r="O14" t="str">
-        <v>Sales,Product</v>
+        <v>Engineering,Operations</v>
       </c>
       <c r="P14" t="str">
         <v>1-3 days</v>
@@ -1446,7 +1486,7 @@
         <v/>
       </c>
       <c r="S14" t="str">
-        <v>kendall.ramirez@gmail.com</v>
+        <v>river.smith@email.com</v>
       </c>
       <c r="T14" t="str">
         <v>simple</v>
@@ -1463,19 +1503,22 @@
       <c r="X14" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y14" t="str">
+        <v>FREE</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Sloan</v>
+        <v>Alex</v>
       </c>
       <c r="B15" t="str">
-        <v>Robinson</v>
+        <v>Taylor</v>
       </c>
       <c r="C15" t="str">
-        <v>sloan.robinson@test.com</v>
+        <v>alex.taylor@email.com</v>
       </c>
       <c r="D15" t="str">
-        <v>https://linkedin.com/in/sloanrobinson</v>
+        <v>https://linkedin.com/in/alextaylor</v>
       </c>
       <c r="E15" t="str">
         <v/>
@@ -1484,34 +1527,34 @@
         <v/>
       </c>
       <c r="G15" t="str">
-        <v>Boston, MA</v>
+        <v>London, UK</v>
       </c>
       <c r="H15" t="str">
-        <v>Experienced investor and former founder with expertise in Fintech</v>
+        <v>Experienced investor and former founder with expertise in Developer tools</v>
       </c>
       <c r="I15" t="str">
-        <v>10K-25K</v>
+        <v>50K-100K</v>
       </c>
       <c r="J15" t="str">
-        <v>Series B,Series C</v>
+        <v>Series B,Series A</v>
       </c>
       <c r="K15" t="str">
-        <v>Deep tech,Fintech</v>
+        <v>Web3,B2B SaaS</v>
       </c>
       <c r="L15" t="str">
-        <v>Global</v>
+        <v>Asia</v>
       </c>
       <c r="M15" t="str">
-        <v>passive</v>
+        <v>network-focused</v>
       </c>
       <c r="N15" t="str">
         <v>ExampleCorp 14,StartupCo 15</v>
       </c>
       <c r="O15" t="str">
-        <v>Product,Marketing</v>
+        <v>Sales,Operations</v>
       </c>
       <c r="P15" t="str">
-        <v>1 month</v>
+        <v>2 weeks</v>
       </c>
       <c r="Q15" t="str">
         <v>email</v>
@@ -1520,7 +1563,7 @@
         <v/>
       </c>
       <c r="S15" t="str">
-        <v>sloan.robinson@test.com</v>
+        <v>alex.taylor@email.com</v>
       </c>
       <c r="T15" t="str">
         <v>simple</v>
@@ -1537,55 +1580,58 @@
       <c r="X15" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y15" t="str">
+        <v>FREE</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Kendall</v>
+        <v>Finley</v>
       </c>
       <c r="B16" t="str">
-        <v>Miller</v>
+        <v>Lopez</v>
       </c>
       <c r="C16" t="str">
-        <v>kendall.miller@gmail.com</v>
+        <v>finley.lopez@email.com</v>
       </c>
       <c r="D16" t="str">
-        <v>https://linkedin.com/in/kendallmiller</v>
+        <v>https://linkedin.com/in/finleylopez</v>
       </c>
       <c r="E16" t="str">
-        <v/>
+        <v>https://twitter.com/finley_lopez</v>
       </c>
       <c r="F16" t="str">
         <v/>
       </c>
       <c r="G16" t="str">
-        <v>Berlin, Germany</v>
+        <v>Singapore</v>
       </c>
       <c r="H16" t="str">
-        <v>Experienced investor and former founder with expertise in Gaming</v>
+        <v>Experienced investor and former founder with expertise in B2B SaaS</v>
       </c>
       <c r="I16" t="str">
         <v>50K-100K</v>
       </c>
       <c r="J16" t="str">
-        <v>Series B,Series A</v>
+        <v>Series B,Seed</v>
       </c>
       <c r="K16" t="str">
-        <v>Developer tools,B2B SaaS</v>
+        <v>B2B SaaS,Fintech</v>
       </c>
       <c r="L16" t="str">
-        <v>North America</v>
+        <v>EMEA</v>
       </c>
       <c r="M16" t="str">
-        <v>hands-on</v>
+        <v>passive</v>
       </c>
       <c r="N16" t="str">
         <v>ExampleCorp 15,StartupCo 16</v>
       </c>
       <c r="O16" t="str">
-        <v>Sales,Marketing</v>
+        <v>Marketing,Operations</v>
       </c>
       <c r="P16" t="str">
-        <v>1 month</v>
+        <v>2 weeks</v>
       </c>
       <c r="Q16" t="str">
         <v>email</v>
@@ -1594,7 +1640,7 @@
         <v/>
       </c>
       <c r="S16" t="str">
-        <v>kendall.miller@gmail.com</v>
+        <v>finley.lopez@email.com</v>
       </c>
       <c r="T16" t="str">
         <v>simple</v>
@@ -1610,6 +1656,9 @@
       </c>
       <c r="X16" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="Y16" t="str">
+        <v>FREE</v>
       </c>
     </row>
     <row r="17">
@@ -1617,49 +1666,49 @@
         <v>Morgan</v>
       </c>
       <c r="B17" t="str">
-        <v>Martinez</v>
+        <v>Clark</v>
       </c>
       <c r="C17" t="str">
-        <v>morgan.martinez@test.com</v>
+        <v>morgan.clark@test.com</v>
       </c>
       <c r="D17" t="str">
-        <v>https://linkedin.com/in/morganmartinez</v>
+        <v>https://linkedin.com/in/morganclark</v>
       </c>
       <c r="E17" t="str">
-        <v>https://twitter.com/morgan_martinez</v>
+        <v/>
       </c>
       <c r="F17" t="str">
         <v/>
       </c>
       <c r="G17" t="str">
-        <v>San Francisco, CA</v>
+        <v>London, UK</v>
       </c>
       <c r="H17" t="str">
-        <v>Experienced investor and former founder with expertise in Consumer</v>
+        <v>Experienced investor and former founder with expertise in AI/ML</v>
       </c>
       <c r="I17" t="str">
-        <v>100K-250K</v>
+        <v>10K-25K</v>
       </c>
       <c r="J17" t="str">
-        <v>Seed,Pre-seed</v>
+        <v>Series B,Seed</v>
       </c>
       <c r="K17" t="str">
-        <v>Consumer,Marketplace</v>
+        <v>Gaming,Developer tools</v>
       </c>
       <c r="L17" t="str">
-        <v>Europe</v>
+        <v>North America</v>
       </c>
       <c r="M17" t="str">
-        <v>advisory</v>
+        <v>hands-on</v>
       </c>
       <c r="N17" t="str">
         <v>ExampleCorp 16,StartupCo 17</v>
       </c>
       <c r="O17" t="str">
-        <v>Operations,Engineering</v>
+        <v>Engineering,Product</v>
       </c>
       <c r="P17" t="str">
-        <v>1 week</v>
+        <v>2 weeks</v>
       </c>
       <c r="Q17" t="str">
         <v>email</v>
@@ -1668,7 +1717,7 @@
         <v/>
       </c>
       <c r="S17" t="str">
-        <v>morgan.martinez@test.com</v>
+        <v>morgan.clark@test.com</v>
       </c>
       <c r="T17" t="str">
         <v>simple</v>
@@ -1685,46 +1734,49 @@
       <c r="X17" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y17" t="str">
+        <v>FREE</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Cameron</v>
+        <v>Kendall</v>
       </c>
       <c r="B18" t="str">
-        <v>Brown</v>
+        <v>Lopez</v>
       </c>
       <c r="C18" t="str">
-        <v>cameron.brown@test.com</v>
+        <v>kendall.lopez@example.com</v>
       </c>
       <c r="D18" t="str">
-        <v>https://linkedin.com/in/cameronbrown</v>
+        <v>https://linkedin.com/in/kendalllopez</v>
       </c>
       <c r="E18" t="str">
-        <v>https://twitter.com/cameron_brown</v>
+        <v/>
       </c>
       <c r="F18" t="str">
-        <v>https://cameronbrown.io</v>
+        <v>https://kendalllopez.com</v>
       </c>
       <c r="G18" t="str">
-        <v>New York, NY</v>
+        <v>Austin, TX</v>
       </c>
       <c r="H18" t="str">
-        <v>Experienced investor and former founder with expertise in Marketplace</v>
+        <v>Experienced investor and former founder with expertise in Healthtech</v>
       </c>
       <c r="I18" t="str">
-        <v>10K-25K</v>
+        <v>25K-50K</v>
       </c>
       <c r="J18" t="str">
         <v>Series A,Series B</v>
       </c>
       <c r="K18" t="str">
-        <v>Fintech,Developer tools</v>
+        <v>Developer tools,Deep tech</v>
       </c>
       <c r="L18" t="str">
-        <v>Global</v>
+        <v>EMEA</v>
       </c>
       <c r="M18" t="str">
-        <v>passive</v>
+        <v>network-focused</v>
       </c>
       <c r="N18" t="str">
         <v>ExampleCorp 17,StartupCo 18</v>
@@ -1733,7 +1785,7 @@
         <v>Marketing,Engineering</v>
       </c>
       <c r="P18" t="str">
-        <v>1 week</v>
+        <v>1 month</v>
       </c>
       <c r="Q18" t="str">
         <v>email</v>
@@ -1742,7 +1794,7 @@
         <v/>
       </c>
       <c r="S18" t="str">
-        <v>cameron.brown@test.com</v>
+        <v>kendall.lopez@example.com</v>
       </c>
       <c r="T18" t="str">
         <v>simple</v>
@@ -1759,52 +1811,55 @@
       <c r="X18" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y18" t="str">
+        <v>FREE</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Wren</v>
+        <v>Emery</v>
       </c>
       <c r="B19" t="str">
-        <v>Garcia</v>
+        <v>Sanchez</v>
       </c>
       <c r="C19" t="str">
-        <v>wren.garcia@example.com</v>
+        <v>emery.sanchez@test.com</v>
       </c>
       <c r="D19" t="str">
-        <v>https://linkedin.com/in/wrengarcia</v>
+        <v>https://linkedin.com/in/emerysanchez</v>
       </c>
       <c r="E19" t="str">
-        <v>https://twitter.com/wren_garcia</v>
+        <v>https://twitter.com/emery_sanchez</v>
       </c>
       <c r="F19" t="str">
-        <v/>
+        <v>https://emerysanchez.co</v>
       </c>
       <c r="G19" t="str">
-        <v>Austin, TX</v>
+        <v>Singapore</v>
       </c>
       <c r="H19" t="str">
-        <v>Experienced investor and former founder with expertise in Consumer</v>
+        <v>Experienced investor and former founder with expertise in AI/ML</v>
       </c>
       <c r="I19" t="str">
-        <v>25K-50K</v>
+        <v>10K-25K</v>
       </c>
       <c r="J19" t="str">
-        <v>Series A,Pre-seed</v>
+        <v>Series C,Series B</v>
       </c>
       <c r="K19" t="str">
-        <v>B2B SaaS,Web3</v>
+        <v>Consumer,Climate tech</v>
       </c>
       <c r="L19" t="str">
-        <v>Europe</v>
+        <v>North America</v>
       </c>
       <c r="M19" t="str">
-        <v>hands-on</v>
+        <v>advisory</v>
       </c>
       <c r="N19" t="str">
         <v>ExampleCorp 18,StartupCo 19</v>
       </c>
       <c r="O19" t="str">
-        <v>Engineering,Operations</v>
+        <v>Product,Operations</v>
       </c>
       <c r="P19" t="str">
         <v>2 weeks</v>
@@ -1816,7 +1871,7 @@
         <v/>
       </c>
       <c r="S19" t="str">
-        <v>wren.garcia@example.com</v>
+        <v>emery.sanchez@test.com</v>
       </c>
       <c r="T19" t="str">
         <v>simple</v>
@@ -1833,22 +1888,25 @@
       <c r="X19" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y19" t="str">
+        <v>FREE</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Skylar</v>
+        <v>Finley</v>
       </c>
       <c r="B20" t="str">
-        <v>Smith</v>
+        <v>Wilson</v>
       </c>
       <c r="C20" t="str">
-        <v>skylar.smith@example.com</v>
+        <v>finley.wilson@demo.com</v>
       </c>
       <c r="D20" t="str">
-        <v>https://linkedin.com/in/skylarsmith</v>
+        <v>https://linkedin.com/in/finleywilson</v>
       </c>
       <c r="E20" t="str">
-        <v>https://twitter.com/skylar_smith</v>
+        <v>https://twitter.com/finley_wilson</v>
       </c>
       <c r="F20" t="str">
         <v/>
@@ -1857,31 +1915,31 @@
         <v>San Francisco, CA</v>
       </c>
       <c r="H20" t="str">
-        <v>Experienced investor and former founder with expertise in E-commerce</v>
+        <v>Experienced investor and former founder with expertise in Gaming</v>
       </c>
       <c r="I20" t="str">
-        <v>50K-100K</v>
+        <v>1K-10K</v>
       </c>
       <c r="J20" t="str">
-        <v>Pre-seed,Series C</v>
+        <v>Pre-seed,Series B</v>
       </c>
       <c r="K20" t="str">
-        <v>Gaming,Deep tech</v>
+        <v>Web3,E-commerce</v>
       </c>
       <c r="L20" t="str">
-        <v>Global</v>
+        <v>Asia</v>
       </c>
       <c r="M20" t="str">
-        <v>advisory</v>
+        <v>passive</v>
       </c>
       <c r="N20" t="str">
         <v>ExampleCorp 19,StartupCo 20</v>
       </c>
       <c r="O20" t="str">
-        <v>Operations,Product</v>
+        <v>Marketing,Sales</v>
       </c>
       <c r="P20" t="str">
-        <v>1 week</v>
+        <v>1-3 days</v>
       </c>
       <c r="Q20" t="str">
         <v>email</v>
@@ -1890,7 +1948,7 @@
         <v/>
       </c>
       <c r="S20" t="str">
-        <v>skylar.smith@example.com</v>
+        <v>finley.wilson@demo.com</v>
       </c>
       <c r="T20" t="str">
         <v>simple</v>
@@ -1907,40 +1965,43 @@
       <c r="X20" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y20" t="str">
+        <v>FREE</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Drew</v>
+        <v>Reagan</v>
       </c>
       <c r="B21" t="str">
-        <v>Lewis</v>
+        <v>Wilson</v>
       </c>
       <c r="C21" t="str">
-        <v>drew.lewis@example.com</v>
+        <v>reagan.wilson@test.com</v>
       </c>
       <c r="D21" t="str">
-        <v>https://linkedin.com/in/drewlewis</v>
+        <v>https://linkedin.com/in/reaganwilson</v>
       </c>
       <c r="E21" t="str">
-        <v>https://twitter.com/drew_lewis</v>
+        <v>https://twitter.com/reagan_wilson</v>
       </c>
       <c r="F21" t="str">
-        <v>https://drewlewis.vc</v>
+        <v/>
       </c>
       <c r="G21" t="str">
-        <v>New York, NY</v>
+        <v>Singapore</v>
       </c>
       <c r="H21" t="str">
-        <v>Experienced investor and former founder with expertise in B2B SaaS</v>
+        <v>Experienced investor and former founder with expertise in AI/ML</v>
       </c>
       <c r="I21" t="str">
-        <v>50K-100K</v>
+        <v>100K-250K</v>
       </c>
       <c r="J21" t="str">
-        <v>Series B,Series A</v>
+        <v>Series A,Seed</v>
       </c>
       <c r="K21" t="str">
-        <v>Climate tech,Developer tools</v>
+        <v>Healthtech,Consumer</v>
       </c>
       <c r="L21" t="str">
         <v>North America</v>
@@ -1952,10 +2013,10 @@
         <v>ExampleCorp 20,StartupCo 21</v>
       </c>
       <c r="O21" t="str">
-        <v>Product,Sales</v>
+        <v>Product,Marketing</v>
       </c>
       <c r="P21" t="str">
-        <v>1-3 days</v>
+        <v>2 weeks</v>
       </c>
       <c r="Q21" t="str">
         <v>email</v>
@@ -1964,7 +2025,7 @@
         <v/>
       </c>
       <c r="S21" t="str">
-        <v>drew.lewis@example.com</v>
+        <v>reagan.wilson@test.com</v>
       </c>
       <c r="T21" t="str">
         <v>simple</v>
@@ -1981,55 +2042,58 @@
       <c r="X21" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y21" t="str">
+        <v>FREE</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Tatum</v>
+        <v>Alex</v>
       </c>
       <c r="B22" t="str">
-        <v>Harris</v>
+        <v>Ramirez</v>
       </c>
       <c r="C22" t="str">
-        <v>tatum.harris@example.com</v>
+        <v>alex.ramirez@test.com</v>
       </c>
       <c r="D22" t="str">
-        <v>https://linkedin.com/in/tatumharris</v>
+        <v>https://linkedin.com/in/alexramirez</v>
       </c>
       <c r="E22" t="str">
-        <v/>
+        <v>https://twitter.com/alex_ramirez</v>
       </c>
       <c r="F22" t="str">
-        <v/>
+        <v>https://alexramirez.io</v>
       </c>
       <c r="G22" t="str">
-        <v>San Francisco, CA</v>
+        <v>Boston, MA</v>
       </c>
       <c r="H22" t="str">
         <v>Experienced investor and former founder with expertise in Web3</v>
       </c>
       <c r="I22" t="str">
-        <v>10K-25K</v>
+        <v>25K-50K</v>
       </c>
       <c r="J22" t="str">
-        <v>Series C,Seed</v>
+        <v>Pre-seed,Series A</v>
       </c>
       <c r="K22" t="str">
-        <v>Climate tech,Gaming</v>
+        <v>Climate tech,Web3</v>
       </c>
       <c r="L22" t="str">
-        <v>EMEA</v>
+        <v>Asia</v>
       </c>
       <c r="M22" t="str">
-        <v>advisory</v>
+        <v>passive</v>
       </c>
       <c r="N22" t="str">
         <v>ExampleCorp 21,StartupCo 22</v>
       </c>
       <c r="O22" t="str">
-        <v>Sales,Marketing</v>
+        <v>Product,Sales</v>
       </c>
       <c r="P22" t="str">
-        <v>1 month</v>
+        <v>2 weeks</v>
       </c>
       <c r="Q22" t="str">
         <v>email</v>
@@ -2038,7 +2102,7 @@
         <v/>
       </c>
       <c r="S22" t="str">
-        <v>tatum.harris@example.com</v>
+        <v>alex.ramirez@test.com</v>
       </c>
       <c r="T22" t="str">
         <v>simple</v>
@@ -2055,55 +2119,58 @@
       <c r="X22" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y22" t="str">
+        <v>FREE</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Sawyer</v>
+        <v>Casey</v>
       </c>
       <c r="B23" t="str">
-        <v>Jones</v>
+        <v>Williams</v>
       </c>
       <c r="C23" t="str">
-        <v>sawyer.jones@demo.com</v>
+        <v>casey.williams@test.com</v>
       </c>
       <c r="D23" t="str">
-        <v>https://linkedin.com/in/sawyerjones</v>
+        <v>https://linkedin.com/in/caseywilliams</v>
       </c>
       <c r="E23" t="str">
-        <v/>
+        <v>https://twitter.com/casey_williams</v>
       </c>
       <c r="F23" t="str">
-        <v>https://sawyerjones.vc</v>
+        <v/>
       </c>
       <c r="G23" t="str">
-        <v>Singapore</v>
+        <v>London, UK</v>
       </c>
       <c r="H23" t="str">
-        <v>Experienced investor and former founder with expertise in B2B SaaS</v>
+        <v>Experienced investor and former founder with expertise in Deep tech</v>
       </c>
       <c r="I23" t="str">
-        <v>100K-250K</v>
+        <v>50K-100K</v>
       </c>
       <c r="J23" t="str">
-        <v>Series A,Pre-seed</v>
+        <v>Seed,Series A</v>
       </c>
       <c r="K23" t="str">
-        <v>B2B SaaS,Climate tech</v>
+        <v>AI/ML,Web3</v>
       </c>
       <c r="L23" t="str">
         <v>North America</v>
       </c>
       <c r="M23" t="str">
-        <v>advisory</v>
+        <v>network-focused</v>
       </c>
       <c r="N23" t="str">
         <v>ExampleCorp 22,StartupCo 23</v>
       </c>
       <c r="O23" t="str">
-        <v>Sales,Operations</v>
+        <v>Sales,Marketing</v>
       </c>
       <c r="P23" t="str">
-        <v>2 weeks</v>
+        <v>1-3 days</v>
       </c>
       <c r="Q23" t="str">
         <v>email</v>
@@ -2112,7 +2179,7 @@
         <v/>
       </c>
       <c r="S23" t="str">
-        <v>sawyer.jones@demo.com</v>
+        <v>casey.williams@test.com</v>
       </c>
       <c r="T23" t="str">
         <v>simple</v>
@@ -2129,46 +2196,49 @@
       <c r="X23" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y23" t="str">
+        <v>FREE</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Taylor</v>
+        <v>Casey</v>
       </c>
       <c r="B24" t="str">
-        <v>Thompson</v>
+        <v>Rodriguez</v>
       </c>
       <c r="C24" t="str">
-        <v>taylor.thompson@demo.com</v>
+        <v>casey.rodriguez@demo.com</v>
       </c>
       <c r="D24" t="str">
-        <v>https://linkedin.com/in/taylorthompson</v>
+        <v>https://linkedin.com/in/caseyrodriguez</v>
       </c>
       <c r="E24" t="str">
-        <v>https://twitter.com/taylor_thompson</v>
+        <v>https://twitter.com/casey_rodriguez</v>
       </c>
       <c r="F24" t="str">
-        <v>https://taylorthompson.capital</v>
+        <v/>
       </c>
       <c r="G24" t="str">
-        <v>Berlin, Germany</v>
+        <v>San Francisco, CA</v>
       </c>
       <c r="H24" t="str">
-        <v>Experienced investor and former founder with expertise in Consumer</v>
+        <v>Experienced investor and former founder with expertise in Deep tech</v>
       </c>
       <c r="I24" t="str">
-        <v>100K-250K</v>
+        <v>25K-50K</v>
       </c>
       <c r="J24" t="str">
-        <v>Pre-seed,Series C</v>
+        <v>Series B,Pre-seed</v>
       </c>
       <c r="K24" t="str">
-        <v>E-commerce,Deep tech</v>
+        <v>Marketplace,B2B SaaS</v>
       </c>
       <c r="L24" t="str">
-        <v>Global</v>
+        <v>EMEA</v>
       </c>
       <c r="M24" t="str">
-        <v>advisory</v>
+        <v>passive</v>
       </c>
       <c r="N24" t="str">
         <v>ExampleCorp 23,StartupCo 24</v>
@@ -2177,7 +2247,7 @@
         <v>Product,Engineering</v>
       </c>
       <c r="P24" t="str">
-        <v>1 month</v>
+        <v>2 weeks</v>
       </c>
       <c r="Q24" t="str">
         <v>email</v>
@@ -2186,7 +2256,7 @@
         <v/>
       </c>
       <c r="S24" t="str">
-        <v>taylor.thompson@demo.com</v>
+        <v>casey.rodriguez@demo.com</v>
       </c>
       <c r="T24" t="str">
         <v>simple</v>
@@ -2202,6 +2272,9 @@
       </c>
       <c r="X24" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="Y24" t="str">
+        <v>FREE</v>
       </c>
     </row>
     <row r="25">
@@ -2209,49 +2282,49 @@
         <v>Kendall</v>
       </c>
       <c r="B25" t="str">
-        <v>Gonzalez</v>
+        <v>Martin</v>
       </c>
       <c r="C25" t="str">
-        <v>kendall.gonzalez@test.com</v>
+        <v>kendall.martin@demo.com</v>
       </c>
       <c r="D25" t="str">
-        <v>https://linkedin.com/in/kendallgonzalez</v>
+        <v>https://linkedin.com/in/kendallmartin</v>
       </c>
       <c r="E25" t="str">
-        <v/>
+        <v>https://twitter.com/kendall_martin</v>
       </c>
       <c r="F25" t="str">
         <v/>
       </c>
       <c r="G25" t="str">
-        <v>Seattle, WA</v>
+        <v>Berlin, Germany</v>
       </c>
       <c r="H25" t="str">
-        <v>Experienced investor and former founder with expertise in Web3</v>
+        <v>Experienced investor and former founder with expertise in Deep tech</v>
       </c>
       <c r="I25" t="str">
         <v>25K-50K</v>
       </c>
       <c r="J25" t="str">
-        <v>Series A,Pre-seed</v>
+        <v>Series B,Series A</v>
       </c>
       <c r="K25" t="str">
-        <v>Consumer,AI/ML</v>
+        <v>Healthtech,Consumer</v>
       </c>
       <c r="L25" t="str">
-        <v>EMEA</v>
+        <v>North America</v>
       </c>
       <c r="M25" t="str">
-        <v>passive</v>
+        <v>network-focused</v>
       </c>
       <c r="N25" t="str">
         <v>ExampleCorp 24,StartupCo 25</v>
       </c>
       <c r="O25" t="str">
-        <v>Operations,Product</v>
+        <v>Product,Engineering</v>
       </c>
       <c r="P25" t="str">
-        <v>1 week</v>
+        <v>2 weeks</v>
       </c>
       <c r="Q25" t="str">
         <v>email</v>
@@ -2260,7 +2333,7 @@
         <v/>
       </c>
       <c r="S25" t="str">
-        <v>kendall.gonzalez@test.com</v>
+        <v>kendall.martin@demo.com</v>
       </c>
       <c r="T25" t="str">
         <v>simple</v>
@@ -2277,55 +2350,58 @@
       <c r="X25" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y25" t="str">
+        <v>FREE</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Jordan</v>
+        <v>Storm</v>
       </c>
       <c r="B26" t="str">
-        <v>Rodriguez</v>
+        <v>Ramirez</v>
       </c>
       <c r="C26" t="str">
-        <v>jordan.rodriguez@gmail.com</v>
+        <v>storm.ramirez@test.com</v>
       </c>
       <c r="D26" t="str">
-        <v>https://linkedin.com/in/jordanrodriguez</v>
+        <v>https://linkedin.com/in/stormramirez</v>
       </c>
       <c r="E26" t="str">
         <v/>
       </c>
       <c r="F26" t="str">
-        <v>https://jordanrodriguez.io</v>
+        <v>https://stormramirez.com</v>
       </c>
       <c r="G26" t="str">
         <v>Seattle, WA</v>
       </c>
       <c r="H26" t="str">
-        <v>Experienced investor and former founder with expertise in Marketplace</v>
+        <v>Experienced investor and former founder with expertise in Consumer</v>
       </c>
       <c r="I26" t="str">
-        <v>1K-10K</v>
+        <v>100K-250K</v>
       </c>
       <c r="J26" t="str">
-        <v>Seed,Series B</v>
+        <v>Series C,Seed</v>
       </c>
       <c r="K26" t="str">
         <v>E-commerce,B2B SaaS</v>
       </c>
       <c r="L26" t="str">
-        <v>North America</v>
+        <v>Global</v>
       </c>
       <c r="M26" t="str">
-        <v>advisory</v>
+        <v>hands-on</v>
       </c>
       <c r="N26" t="str">
         <v>ExampleCorp 25,StartupCo 26</v>
       </c>
       <c r="O26" t="str">
-        <v>Engineering,Operations</v>
+        <v>Engineering,Marketing</v>
       </c>
       <c r="P26" t="str">
-        <v>1-3 days</v>
+        <v>1 week</v>
       </c>
       <c r="Q26" t="str">
         <v>email</v>
@@ -2334,7 +2410,7 @@
         <v/>
       </c>
       <c r="S26" t="str">
-        <v>jordan.rodriguez@gmail.com</v>
+        <v>storm.ramirez@test.com</v>
       </c>
       <c r="T26" t="str">
         <v>simple</v>
@@ -2351,55 +2427,58 @@
       <c r="X26" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y26" t="str">
+        <v>FREE</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Finley</v>
+        <v>Tatum</v>
       </c>
       <c r="B27" t="str">
-        <v>Garcia</v>
+        <v>Robinson</v>
       </c>
       <c r="C27" t="str">
-        <v>finley.garcia@example.com</v>
+        <v>tatum.robinson@demo.com</v>
       </c>
       <c r="D27" t="str">
-        <v>https://linkedin.com/in/finleygarcia</v>
+        <v>https://linkedin.com/in/tatumrobinson</v>
       </c>
       <c r="E27" t="str">
-        <v/>
+        <v>https://twitter.com/tatum_robinson</v>
       </c>
       <c r="F27" t="str">
-        <v>https://finleygarcia.vc</v>
+        <v/>
       </c>
       <c r="G27" t="str">
         <v>Boston, MA</v>
       </c>
       <c r="H27" t="str">
-        <v>Experienced investor and former founder with expertise in Deep tech</v>
+        <v>Experienced investor and former founder with expertise in Fintech</v>
       </c>
       <c r="I27" t="str">
-        <v>100K-250K</v>
+        <v>1K-10K</v>
       </c>
       <c r="J27" t="str">
-        <v>Series B,Seed</v>
+        <v>Pre-seed,Seed</v>
       </c>
       <c r="K27" t="str">
-        <v>Web3,Fintech</v>
+        <v>Deep tech,Gaming</v>
       </c>
       <c r="L27" t="str">
-        <v>EMEA</v>
+        <v>North America</v>
       </c>
       <c r="M27" t="str">
-        <v>hands-on</v>
+        <v>network-focused</v>
       </c>
       <c r="N27" t="str">
         <v>ExampleCorp 26,StartupCo 27</v>
       </c>
       <c r="O27" t="str">
-        <v>Product,Engineering</v>
+        <v>Operations,Engineering</v>
       </c>
       <c r="P27" t="str">
-        <v>1-3 days</v>
+        <v>2 weeks</v>
       </c>
       <c r="Q27" t="str">
         <v>email</v>
@@ -2408,7 +2487,7 @@
         <v/>
       </c>
       <c r="S27" t="str">
-        <v>finley.garcia@example.com</v>
+        <v>tatum.robinson@demo.com</v>
       </c>
       <c r="T27" t="str">
         <v>simple</v>
@@ -2425,31 +2504,34 @@
       <c r="X27" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y27" t="str">
+        <v>FREE</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Reagan</v>
+        <v>Drew</v>
       </c>
       <c r="B28" t="str">
-        <v>Johnson</v>
+        <v>Clark</v>
       </c>
       <c r="C28" t="str">
-        <v>reagan.johnson@test.com</v>
+        <v>drew.clark@demo.com</v>
       </c>
       <c r="D28" t="str">
-        <v>https://linkedin.com/in/reaganjohnson</v>
+        <v>https://linkedin.com/in/drewclark</v>
       </c>
       <c r="E28" t="str">
-        <v/>
+        <v>https://twitter.com/drew_clark</v>
       </c>
       <c r="F28" t="str">
-        <v>https://reaganjohnson.vc</v>
+        <v/>
       </c>
       <c r="G28" t="str">
-        <v>Seattle, WA</v>
+        <v>San Francisco, CA</v>
       </c>
       <c r="H28" t="str">
-        <v>Experienced investor and former founder with expertise in AI/ML</v>
+        <v>Experienced investor and former founder with expertise in Marketplace</v>
       </c>
       <c r="I28" t="str">
         <v>25K-50K</v>
@@ -2458,10 +2540,10 @@
         <v>Series A,Pre-seed</v>
       </c>
       <c r="K28" t="str">
-        <v>Marketplace,AI/ML</v>
+        <v>B2B SaaS,Fintech</v>
       </c>
       <c r="L28" t="str">
-        <v>Europe</v>
+        <v>North America</v>
       </c>
       <c r="M28" t="str">
         <v>hands-on</v>
@@ -2470,10 +2552,10 @@
         <v>ExampleCorp 27,StartupCo 28</v>
       </c>
       <c r="O28" t="str">
-        <v>Marketing,Sales</v>
+        <v>Marketing,Operations</v>
       </c>
       <c r="P28" t="str">
-        <v>2 weeks</v>
+        <v>1 month</v>
       </c>
       <c r="Q28" t="str">
         <v>email</v>
@@ -2482,7 +2564,7 @@
         <v/>
       </c>
       <c r="S28" t="str">
-        <v>reagan.johnson@test.com</v>
+        <v>drew.clark@demo.com</v>
       </c>
       <c r="T28" t="str">
         <v>simple</v>
@@ -2499,28 +2581,31 @@
       <c r="X28" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y28" t="str">
+        <v>FREE</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Skylar</v>
+        <v>Sawyer</v>
       </c>
       <c r="B29" t="str">
-        <v>Garcia</v>
+        <v>Ramirez</v>
       </c>
       <c r="C29" t="str">
-        <v>skylar.garcia@example.com</v>
+        <v>sawyer.ramirez@test.com</v>
       </c>
       <c r="D29" t="str">
-        <v>https://linkedin.com/in/skylargarcia</v>
+        <v>https://linkedin.com/in/sawyerramirez</v>
       </c>
       <c r="E29" t="str">
         <v/>
       </c>
       <c r="F29" t="str">
-        <v/>
+        <v>https://sawyerramirez.co</v>
       </c>
       <c r="G29" t="str">
-        <v>Austin, TX</v>
+        <v>Berlin, Germany</v>
       </c>
       <c r="H29" t="str">
         <v>Experienced investor and former founder with expertise in Marketplace</v>
@@ -2529,10 +2614,10 @@
         <v>10K-25K</v>
       </c>
       <c r="J29" t="str">
-        <v>Series B,Series A</v>
+        <v>Series A,Seed</v>
       </c>
       <c r="K29" t="str">
-        <v>B2B SaaS,Climate tech</v>
+        <v>Developer tools,AI/ML</v>
       </c>
       <c r="L29" t="str">
         <v>Europe</v>
@@ -2544,7 +2629,7 @@
         <v>ExampleCorp 28,StartupCo 29</v>
       </c>
       <c r="O29" t="str">
-        <v>Product,Marketing</v>
+        <v>Product,Engineering</v>
       </c>
       <c r="P29" t="str">
         <v>1 week</v>
@@ -2556,7 +2641,7 @@
         <v/>
       </c>
       <c r="S29" t="str">
-        <v>skylar.garcia@example.com</v>
+        <v>sawyer.ramirez@test.com</v>
       </c>
       <c r="T29" t="str">
         <v>simple</v>
@@ -2573,46 +2658,49 @@
       <c r="X29" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y29" t="str">
+        <v>FREE</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Quinn</v>
+        <v>Parker</v>
       </c>
       <c r="B30" t="str">
-        <v>Johnson</v>
+        <v>Gonzalez</v>
       </c>
       <c r="C30" t="str">
-        <v>quinn.johnson@email.com</v>
+        <v>parker.gonzalez@email.com</v>
       </c>
       <c r="D30" t="str">
-        <v>https://linkedin.com/in/quinnjohnson</v>
+        <v>https://linkedin.com/in/parkergonzalez</v>
       </c>
       <c r="E30" t="str">
-        <v>https://twitter.com/quinn_johnson</v>
+        <v/>
       </c>
       <c r="F30" t="str">
-        <v>https://quinnjohnson.vc</v>
+        <v/>
       </c>
       <c r="G30" t="str">
         <v>Seattle, WA</v>
       </c>
       <c r="H30" t="str">
-        <v>Experienced investor and former founder with expertise in B2B SaaS</v>
+        <v>Experienced investor and former founder with expertise in Web3</v>
       </c>
       <c r="I30" t="str">
-        <v>10K-25K</v>
+        <v>50K-100K</v>
       </c>
       <c r="J30" t="str">
-        <v>Seed,Pre-seed</v>
+        <v>Series A,Series B</v>
       </c>
       <c r="K30" t="str">
-        <v>Gaming,B2B SaaS</v>
+        <v>Fintech,AI/ML</v>
       </c>
       <c r="L30" t="str">
-        <v>EMEA</v>
+        <v>Europe</v>
       </c>
       <c r="M30" t="str">
-        <v>passive</v>
+        <v>network-focused</v>
       </c>
       <c r="N30" t="str">
         <v>ExampleCorp 29,StartupCo 30</v>
@@ -2621,7 +2709,7 @@
         <v>Product,Operations</v>
       </c>
       <c r="P30" t="str">
-        <v>1-3 days</v>
+        <v>2 weeks</v>
       </c>
       <c r="Q30" t="str">
         <v>email</v>
@@ -2630,7 +2718,7 @@
         <v/>
       </c>
       <c r="S30" t="str">
-        <v>quinn.johnson@email.com</v>
+        <v>parker.gonzalez@email.com</v>
       </c>
       <c r="T30" t="str">
         <v>simple</v>
@@ -2647,55 +2735,58 @@
       <c r="X30" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y30" t="str">
+        <v>FREE</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Logan</v>
+        <v>Finley</v>
       </c>
       <c r="B31" t="str">
-        <v>Jones</v>
+        <v>Rodriguez</v>
       </c>
       <c r="C31" t="str">
-        <v>logan.jones@example.com</v>
+        <v>finley.rodriguez@gmail.com</v>
       </c>
       <c r="D31" t="str">
-        <v>https://linkedin.com/in/loganjones</v>
+        <v>https://linkedin.com/in/finleyrodriguez</v>
       </c>
       <c r="E31" t="str">
-        <v>https://twitter.com/logan_jones</v>
+        <v/>
       </c>
       <c r="F31" t="str">
-        <v>https://loganjones.vc</v>
+        <v/>
       </c>
       <c r="G31" t="str">
-        <v>New York, NY</v>
+        <v>Austin, TX</v>
       </c>
       <c r="H31" t="str">
-        <v>Experienced investor and former founder with expertise in Fintech</v>
+        <v>Experienced investor and former founder with expertise in Consumer</v>
       </c>
       <c r="I31" t="str">
-        <v>50K-100K</v>
+        <v>1K-10K</v>
       </c>
       <c r="J31" t="str">
-        <v>Series B,Pre-seed</v>
+        <v>Seed,Series B</v>
       </c>
       <c r="K31" t="str">
-        <v>Healthtech,Climate tech</v>
+        <v>Developer tools,B2B SaaS</v>
       </c>
       <c r="L31" t="str">
-        <v>Europe</v>
+        <v>Global</v>
       </c>
       <c r="M31" t="str">
-        <v>hands-on</v>
+        <v>network-focused</v>
       </c>
       <c r="N31" t="str">
         <v>ExampleCorp 30,StartupCo 31</v>
       </c>
       <c r="O31" t="str">
-        <v>Operations,Product</v>
+        <v>Operations,Marketing</v>
       </c>
       <c r="P31" t="str">
-        <v>1 month</v>
+        <v>1 week</v>
       </c>
       <c r="Q31" t="str">
         <v>email</v>
@@ -2704,7 +2795,7 @@
         <v/>
       </c>
       <c r="S31" t="str">
-        <v>logan.jones@example.com</v>
+        <v>finley.rodriguez@gmail.com</v>
       </c>
       <c r="T31" t="str">
         <v>simple</v>
@@ -2721,40 +2812,43 @@
       <c r="X31" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y31" t="str">
+        <v>FREE</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Rowan</v>
+        <v>Riley</v>
       </c>
       <c r="B32" t="str">
-        <v>Williams</v>
+        <v>Ramirez</v>
       </c>
       <c r="C32" t="str">
-        <v>rowan.williams@test.com</v>
+        <v>riley.ramirez@demo.com</v>
       </c>
       <c r="D32" t="str">
-        <v>https://linkedin.com/in/rowanwilliams</v>
+        <v>https://linkedin.com/in/rileyramirez</v>
       </c>
       <c r="E32" t="str">
-        <v>https://twitter.com/rowan_williams</v>
+        <v/>
       </c>
       <c r="F32" t="str">
-        <v/>
+        <v>https://rileyramirez.io</v>
       </c>
       <c r="G32" t="str">
-        <v>Seattle, WA</v>
+        <v>Austin, TX</v>
       </c>
       <c r="H32" t="str">
-        <v>Experienced investor and former founder with expertise in Fintech</v>
+        <v>Experienced investor and former founder with expertise in Developer tools</v>
       </c>
       <c r="I32" t="str">
         <v>10K-25K</v>
       </c>
       <c r="J32" t="str">
-        <v>Series C,Seed</v>
+        <v>Pre-seed,Series C</v>
       </c>
       <c r="K32" t="str">
-        <v>E-commerce,Marketplace</v>
+        <v>B2B SaaS,Fintech</v>
       </c>
       <c r="L32" t="str">
         <v>Global</v>
@@ -2766,10 +2860,10 @@
         <v>ExampleCorp 31,StartupCo 32</v>
       </c>
       <c r="O32" t="str">
-        <v>Sales,Engineering</v>
+        <v>Product,Sales</v>
       </c>
       <c r="P32" t="str">
-        <v>1 month</v>
+        <v>1-3 days</v>
       </c>
       <c r="Q32" t="str">
         <v>email</v>
@@ -2778,7 +2872,7 @@
         <v/>
       </c>
       <c r="S32" t="str">
-        <v>rowan.williams@test.com</v>
+        <v>riley.ramirez@demo.com</v>
       </c>
       <c r="T32" t="str">
         <v>simple</v>
@@ -2795,55 +2889,58 @@
       <c r="X32" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y32" t="str">
+        <v>PRO</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Cameron</v>
+        <v>Finley</v>
       </c>
       <c r="B33" t="str">
-        <v>Williams</v>
+        <v>Brown</v>
       </c>
       <c r="C33" t="str">
-        <v>cameron.williams@demo.com</v>
+        <v>finley.brown@demo.com</v>
       </c>
       <c r="D33" t="str">
-        <v>https://linkedin.com/in/cameronwilliams</v>
+        <v>https://linkedin.com/in/finleybrown</v>
       </c>
       <c r="E33" t="str">
         <v/>
       </c>
       <c r="F33" t="str">
-        <v>https://cameronwilliams.capital</v>
+        <v/>
       </c>
       <c r="G33" t="str">
-        <v>New York, NY</v>
+        <v>Berlin, Germany</v>
       </c>
       <c r="H33" t="str">
-        <v>Experienced investor and former founder with expertise in Developer tools</v>
+        <v>Experienced investor and former founder with expertise in Web3</v>
       </c>
       <c r="I33" t="str">
-        <v>25K-50K</v>
+        <v>1K-10K</v>
       </c>
       <c r="J33" t="str">
         <v>Pre-seed,Seed</v>
       </c>
       <c r="K33" t="str">
-        <v>Web3,Gaming</v>
+        <v>Web3,B2B SaaS</v>
       </c>
       <c r="L33" t="str">
-        <v>Asia</v>
+        <v>Europe</v>
       </c>
       <c r="M33" t="str">
-        <v>network-focused</v>
+        <v>passive</v>
       </c>
       <c r="N33" t="str">
         <v>ExampleCorp 32,StartupCo 33</v>
       </c>
       <c r="O33" t="str">
-        <v>Sales,Marketing</v>
+        <v>Marketing,Sales</v>
       </c>
       <c r="P33" t="str">
-        <v>1-3 days</v>
+        <v>1 week</v>
       </c>
       <c r="Q33" t="str">
         <v>email</v>
@@ -2852,7 +2949,7 @@
         <v/>
       </c>
       <c r="S33" t="str">
-        <v>cameron.williams@demo.com</v>
+        <v>finley.brown@demo.com</v>
       </c>
       <c r="T33" t="str">
         <v>simple</v>
@@ -2869,52 +2966,55 @@
       <c r="X33" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y33" t="str">
+        <v>PRO</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Finley</v>
+        <v>Skylar</v>
       </c>
       <c r="B34" t="str">
-        <v>Hernandez</v>
+        <v>Miller</v>
       </c>
       <c r="C34" t="str">
-        <v>finley.hernandez@gmail.com</v>
+        <v>skylar.miller@gmail.com</v>
       </c>
       <c r="D34" t="str">
-        <v>https://linkedin.com/in/finleyhernandez</v>
+        <v>https://linkedin.com/in/skylarmiller</v>
       </c>
       <c r="E34" t="str">
         <v/>
       </c>
       <c r="F34" t="str">
-        <v>https://finleyhernandez.io</v>
+        <v/>
       </c>
       <c r="G34" t="str">
-        <v>Boston, MA</v>
+        <v>Seattle, WA</v>
       </c>
       <c r="H34" t="str">
-        <v>Experienced investor and former founder with expertise in Gaming</v>
+        <v>Experienced investor and former founder with expertise in Consumer</v>
       </c>
       <c r="I34" t="str">
-        <v>25K-50K</v>
+        <v>10K-25K</v>
       </c>
       <c r="J34" t="str">
         <v>Pre-seed,Series C</v>
       </c>
       <c r="K34" t="str">
-        <v>Marketplace,Fintech</v>
+        <v>B2B SaaS,E-commerce</v>
       </c>
       <c r="L34" t="str">
-        <v>North America</v>
+        <v>Asia</v>
       </c>
       <c r="M34" t="str">
-        <v>advisory</v>
+        <v>passive</v>
       </c>
       <c r="N34" t="str">
         <v>ExampleCorp 33,StartupCo 34</v>
       </c>
       <c r="O34" t="str">
-        <v>Sales,Marketing</v>
+        <v>Engineering,Operations</v>
       </c>
       <c r="P34" t="str">
         <v>1 week</v>
@@ -2926,7 +3026,7 @@
         <v/>
       </c>
       <c r="S34" t="str">
-        <v>finley.hernandez@gmail.com</v>
+        <v>skylar.miller@gmail.com</v>
       </c>
       <c r="T34" t="str">
         <v>simple</v>
@@ -2943,55 +3043,58 @@
       <c r="X34" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y34" t="str">
+        <v>PRO</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Tatum</v>
+        <v>Quinn</v>
       </c>
       <c r="B35" t="str">
-        <v>Johnson</v>
+        <v>Rodriguez</v>
       </c>
       <c r="C35" t="str">
-        <v>tatum.johnson@test.com</v>
+        <v>quinn.rodriguez@example.com</v>
       </c>
       <c r="D35" t="str">
-        <v>https://linkedin.com/in/tatumjohnson</v>
+        <v>https://linkedin.com/in/quinnrodriguez</v>
       </c>
       <c r="E35" t="str">
         <v/>
       </c>
       <c r="F35" t="str">
-        <v/>
+        <v>https://quinnrodriguez.com</v>
       </c>
       <c r="G35" t="str">
-        <v>Austin, TX</v>
+        <v>London, UK</v>
       </c>
       <c r="H35" t="str">
-        <v>Experienced investor and former founder with expertise in Marketplace</v>
+        <v>Experienced investor and former founder with expertise in Consumer</v>
       </c>
       <c r="I35" t="str">
-        <v>50K-100K</v>
+        <v>1K-10K</v>
       </c>
       <c r="J35" t="str">
-        <v>Series C,Series A</v>
+        <v>Series C,Seed</v>
       </c>
       <c r="K35" t="str">
-        <v>B2B SaaS,E-commerce</v>
+        <v>Developer tools,B2B SaaS</v>
       </c>
       <c r="L35" t="str">
         <v>Europe</v>
       </c>
       <c r="M35" t="str">
-        <v>passive</v>
+        <v>hands-on</v>
       </c>
       <c r="N35" t="str">
         <v>ExampleCorp 34,StartupCo 35</v>
       </c>
       <c r="O35" t="str">
-        <v>Operations,Engineering</v>
+        <v>Sales,Product</v>
       </c>
       <c r="P35" t="str">
-        <v>2 weeks</v>
+        <v>1-3 days</v>
       </c>
       <c r="Q35" t="str">
         <v>email</v>
@@ -3000,7 +3103,7 @@
         <v/>
       </c>
       <c r="S35" t="str">
-        <v>tatum.johnson@test.com</v>
+        <v>quinn.rodriguez@example.com</v>
       </c>
       <c r="T35" t="str">
         <v>simple</v>
@@ -3017,43 +3120,46 @@
       <c r="X35" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y35" t="str">
+        <v>PRO</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Blake</v>
+        <v>Morgan</v>
       </c>
       <c r="B36" t="str">
-        <v>Jackson</v>
+        <v>Martin</v>
       </c>
       <c r="C36" t="str">
-        <v>blake.jackson@demo.com</v>
+        <v>morgan.martin@email.com</v>
       </c>
       <c r="D36" t="str">
-        <v>https://linkedin.com/in/blakejackson</v>
+        <v>https://linkedin.com/in/morganmartin</v>
       </c>
       <c r="E36" t="str">
-        <v>https://twitter.com/blake_jackson</v>
+        <v/>
       </c>
       <c r="F36" t="str">
-        <v>https://blakejackson.com</v>
+        <v/>
       </c>
       <c r="G36" t="str">
-        <v>New York, NY</v>
+        <v>Berlin, Germany</v>
       </c>
       <c r="H36" t="str">
-        <v>Experienced investor and former founder with expertise in Gaming</v>
+        <v>Experienced investor and former founder with expertise in Deep tech</v>
       </c>
       <c r="I36" t="str">
-        <v>25K-50K</v>
+        <v>100K-250K</v>
       </c>
       <c r="J36" t="str">
-        <v>Series A,Seed</v>
+        <v>Seed,Pre-seed</v>
       </c>
       <c r="K36" t="str">
-        <v>B2B SaaS,Developer tools</v>
+        <v>E-commerce,Healthtech</v>
       </c>
       <c r="L36" t="str">
-        <v>Europe</v>
+        <v>Global</v>
       </c>
       <c r="M36" t="str">
         <v>passive</v>
@@ -3062,10 +3168,10 @@
         <v>ExampleCorp 35,StartupCo 36</v>
       </c>
       <c r="O36" t="str">
-        <v>Product,Engineering</v>
+        <v>Operations,Engineering</v>
       </c>
       <c r="P36" t="str">
-        <v>1 week</v>
+        <v>2 weeks</v>
       </c>
       <c r="Q36" t="str">
         <v>email</v>
@@ -3074,7 +3180,7 @@
         <v/>
       </c>
       <c r="S36" t="str">
-        <v>blake.jackson@demo.com</v>
+        <v>morgan.martin@email.com</v>
       </c>
       <c r="T36" t="str">
         <v>simple</v>
@@ -3091,55 +3197,58 @@
       <c r="X36" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y36" t="str">
+        <v>PRO</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Alex</v>
+        <v>Reese</v>
       </c>
       <c r="B37" t="str">
-        <v>Ramirez</v>
+        <v>Miller</v>
       </c>
       <c r="C37" t="str">
-        <v>alex.ramirez@example.com</v>
+        <v>reese.miller@example.com</v>
       </c>
       <c r="D37" t="str">
-        <v>https://linkedin.com/in/alexramirez</v>
+        <v>https://linkedin.com/in/reesemiller</v>
       </c>
       <c r="E37" t="str">
         <v/>
       </c>
       <c r="F37" t="str">
-        <v>https://alexramirez.io</v>
+        <v/>
       </c>
       <c r="G37" t="str">
-        <v>Boston, MA</v>
+        <v>New York, NY</v>
       </c>
       <c r="H37" t="str">
-        <v>Experienced investor and former founder with expertise in Deep tech</v>
+        <v>Experienced investor and former founder with expertise in Developer tools</v>
       </c>
       <c r="I37" t="str">
-        <v>1K-10K</v>
+        <v>50K-100K</v>
       </c>
       <c r="J37" t="str">
-        <v>Series A,Pre-seed</v>
+        <v>Seed,Series A</v>
       </c>
       <c r="K37" t="str">
-        <v>Healthtech,AI/ML</v>
+        <v>Consumer,AI/ML</v>
       </c>
       <c r="L37" t="str">
         <v>Europe</v>
       </c>
       <c r="M37" t="str">
-        <v>passive</v>
+        <v>hands-on</v>
       </c>
       <c r="N37" t="str">
         <v>ExampleCorp 36,StartupCo 37</v>
       </c>
       <c r="O37" t="str">
-        <v>Product,Engineering</v>
+        <v>Product,Marketing</v>
       </c>
       <c r="P37" t="str">
-        <v>1 week</v>
+        <v>2 weeks</v>
       </c>
       <c r="Q37" t="str">
         <v>email</v>
@@ -3148,7 +3257,7 @@
         <v/>
       </c>
       <c r="S37" t="str">
-        <v>alex.ramirez@example.com</v>
+        <v>reese.miller@example.com</v>
       </c>
       <c r="T37" t="str">
         <v>simple</v>
@@ -3165,40 +3274,43 @@
       <c r="X37" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y37" t="str">
+        <v>PRO</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Sloan</v>
+        <v>Skylar</v>
       </c>
       <c r="B38" t="str">
-        <v>Garcia</v>
+        <v>Hernandez</v>
       </c>
       <c r="C38" t="str">
-        <v>sloan.garcia@example.com</v>
+        <v>skylar.hernandez@gmail.com</v>
       </c>
       <c r="D38" t="str">
-        <v>https://linkedin.com/in/sloangarcia</v>
+        <v>https://linkedin.com/in/skylarhernandez</v>
       </c>
       <c r="E38" t="str">
-        <v>https://twitter.com/sloan_garcia</v>
+        <v/>
       </c>
       <c r="F38" t="str">
-        <v/>
+        <v>https://skylarhernandez.io</v>
       </c>
       <c r="G38" t="str">
-        <v>Austin, TX</v>
+        <v>San Francisco, CA</v>
       </c>
       <c r="H38" t="str">
-        <v>Experienced investor and former founder with expertise in B2B SaaS</v>
+        <v>Experienced investor and former founder with expertise in Fintech</v>
       </c>
       <c r="I38" t="str">
-        <v>50K-100K</v>
+        <v>25K-50K</v>
       </c>
       <c r="J38" t="str">
-        <v>Series A,Series B</v>
+        <v>Pre-seed,Seed</v>
       </c>
       <c r="K38" t="str">
-        <v>Healthtech,B2B SaaS</v>
+        <v>AI/ML,Gaming</v>
       </c>
       <c r="L38" t="str">
         <v>Europe</v>
@@ -3210,10 +3322,10 @@
         <v>ExampleCorp 37,StartupCo 38</v>
       </c>
       <c r="O38" t="str">
-        <v>Product,Engineering</v>
+        <v>Engineering,Sales</v>
       </c>
       <c r="P38" t="str">
-        <v>2 weeks</v>
+        <v>1 week</v>
       </c>
       <c r="Q38" t="str">
         <v>email</v>
@@ -3222,7 +3334,7 @@
         <v/>
       </c>
       <c r="S38" t="str">
-        <v>sloan.garcia@example.com</v>
+        <v>skylar.hernandez@gmail.com</v>
       </c>
       <c r="T38" t="str">
         <v>simple</v>
@@ -3239,55 +3351,58 @@
       <c r="X38" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y38" t="str">
+        <v>PRO</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Sawyer</v>
+        <v>Wren</v>
       </c>
       <c r="B39" t="str">
-        <v>Martin</v>
+        <v>Robinson</v>
       </c>
       <c r="C39" t="str">
-        <v>sawyer.martin@test.com</v>
+        <v>wren.robinson@example.com</v>
       </c>
       <c r="D39" t="str">
-        <v>https://linkedin.com/in/sawyermartin</v>
+        <v>https://linkedin.com/in/wrenrobinson</v>
       </c>
       <c r="E39" t="str">
-        <v/>
+        <v>https://twitter.com/wren_robinson</v>
       </c>
       <c r="F39" t="str">
-        <v>https://sawyermartin.co</v>
+        <v>https://wrenrobinson.vc</v>
       </c>
       <c r="G39" t="str">
-        <v>Singapore</v>
+        <v>San Francisco, CA</v>
       </c>
       <c r="H39" t="str">
-        <v>Experienced investor and former founder with expertise in Developer tools</v>
+        <v>Experienced investor and former founder with expertise in Web3</v>
       </c>
       <c r="I39" t="str">
-        <v>1K-10K</v>
+        <v>25K-50K</v>
       </c>
       <c r="J39" t="str">
-        <v>Pre-seed,Series B</v>
+        <v>Series C,Series A</v>
       </c>
       <c r="K39" t="str">
-        <v>Web3,B2B SaaS</v>
+        <v>AI/ML,Developer tools</v>
       </c>
       <c r="L39" t="str">
-        <v>North America</v>
+        <v>Asia</v>
       </c>
       <c r="M39" t="str">
-        <v>advisory</v>
+        <v>hands-on</v>
       </c>
       <c r="N39" t="str">
         <v>ExampleCorp 38,StartupCo 39</v>
       </c>
       <c r="O39" t="str">
-        <v>Product,Operations</v>
+        <v>Product,Engineering</v>
       </c>
       <c r="P39" t="str">
-        <v>1 week</v>
+        <v>1-3 days</v>
       </c>
       <c r="Q39" t="str">
         <v>email</v>
@@ -3296,7 +3411,7 @@
         <v/>
       </c>
       <c r="S39" t="str">
-        <v>sawyer.martin@test.com</v>
+        <v>wren.robinson@example.com</v>
       </c>
       <c r="T39" t="str">
         <v>simple</v>
@@ -3312,6 +3427,9 @@
       </c>
       <c r="X39" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="Y39" t="str">
+        <v>PRO</v>
       </c>
     </row>
     <row r="40">
@@ -3319,49 +3437,49 @@
         <v>Riley</v>
       </c>
       <c r="B40" t="str">
-        <v>Robinson</v>
+        <v>Clark</v>
       </c>
       <c r="C40" t="str">
-        <v>riley.robinson@gmail.com</v>
+        <v>riley.clark@email.com</v>
       </c>
       <c r="D40" t="str">
-        <v>https://linkedin.com/in/rileyrobinson</v>
+        <v>https://linkedin.com/in/rileyclark</v>
       </c>
       <c r="E40" t="str">
         <v/>
       </c>
       <c r="F40" t="str">
-        <v>https://rileyrobinson.vc</v>
+        <v>https://rileyclark.vc</v>
       </c>
       <c r="G40" t="str">
-        <v>Singapore</v>
+        <v>New York, NY</v>
       </c>
       <c r="H40" t="str">
-        <v>Experienced investor and former founder with expertise in Consumer</v>
+        <v>Experienced investor and former founder with expertise in Developer tools</v>
       </c>
       <c r="I40" t="str">
-        <v>25K-50K</v>
+        <v>10K-25K</v>
       </c>
       <c r="J40" t="str">
-        <v>Seed,Series B</v>
+        <v>Seed,Pre-seed</v>
       </c>
       <c r="K40" t="str">
-        <v>Deep tech,Developer tools</v>
+        <v>Healthtech,Web3</v>
       </c>
       <c r="L40" t="str">
         <v>Asia</v>
       </c>
       <c r="M40" t="str">
-        <v>hands-on</v>
+        <v>advisory</v>
       </c>
       <c r="N40" t="str">
         <v>ExampleCorp 39,StartupCo 40</v>
       </c>
       <c r="O40" t="str">
-        <v>Sales,Product</v>
+        <v>Sales,Marketing</v>
       </c>
       <c r="P40" t="str">
-        <v>1-3 days</v>
+        <v>2 weeks</v>
       </c>
       <c r="Q40" t="str">
         <v>email</v>
@@ -3370,7 +3488,7 @@
         <v/>
       </c>
       <c r="S40" t="str">
-        <v>riley.robinson@gmail.com</v>
+        <v>riley.clark@email.com</v>
       </c>
       <c r="T40" t="str">
         <v>simple</v>
@@ -3387,55 +3505,58 @@
       <c r="X40" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y40" t="str">
+        <v>PRO</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Morgan</v>
+        <v>Winter</v>
       </c>
       <c r="B41" t="str">
-        <v>Brown</v>
+        <v>Williams</v>
       </c>
       <c r="C41" t="str">
-        <v>morgan.brown@email.com</v>
+        <v>winter.williams@gmail.com</v>
       </c>
       <c r="D41" t="str">
-        <v>https://linkedin.com/in/morganbrown</v>
+        <v>https://linkedin.com/in/winterwilliams</v>
       </c>
       <c r="E41" t="str">
-        <v/>
+        <v>https://twitter.com/winter_williams</v>
       </c>
       <c r="F41" t="str">
-        <v>https://morganbrown.io</v>
+        <v>https://winterwilliams.io</v>
       </c>
       <c r="G41" t="str">
-        <v>Singapore</v>
+        <v>London, UK</v>
       </c>
       <c r="H41" t="str">
-        <v>Experienced investor and former founder with expertise in Gaming</v>
+        <v>Experienced investor and former founder with expertise in Marketplace</v>
       </c>
       <c r="I41" t="str">
-        <v>25K-50K</v>
+        <v>10K-25K</v>
       </c>
       <c r="J41" t="str">
-        <v>Series C,Pre-seed</v>
+        <v>Series C,Seed</v>
       </c>
       <c r="K41" t="str">
-        <v>Climate tech,AI/ML</v>
+        <v>AI/ML,B2B SaaS</v>
       </c>
       <c r="L41" t="str">
-        <v>North America</v>
+        <v>Global</v>
       </c>
       <c r="M41" t="str">
-        <v>advisory</v>
+        <v>network-focused</v>
       </c>
       <c r="N41" t="str">
         <v>ExampleCorp 40,StartupCo 41</v>
       </c>
       <c r="O41" t="str">
-        <v>Product,Sales</v>
+        <v>Sales,Operations</v>
       </c>
       <c r="P41" t="str">
-        <v>1 month</v>
+        <v>1 week</v>
       </c>
       <c r="Q41" t="str">
         <v>email</v>
@@ -3444,7 +3565,7 @@
         <v/>
       </c>
       <c r="S41" t="str">
-        <v>morgan.brown@email.com</v>
+        <v>winter.williams@gmail.com</v>
       </c>
       <c r="T41" t="str">
         <v>simple</v>
@@ -3461,55 +3582,58 @@
       <c r="X41" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y41" t="str">
+        <v>PRO</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Alex</v>
+        <v>Riley</v>
       </c>
       <c r="B42" t="str">
-        <v>Wilson</v>
+        <v>Harris</v>
       </c>
       <c r="C42" t="str">
-        <v>alex.wilson@demo.com</v>
+        <v>riley.harris@email.com</v>
       </c>
       <c r="D42" t="str">
-        <v>https://linkedin.com/in/alexwilson</v>
+        <v>https://linkedin.com/in/rileyharris</v>
       </c>
       <c r="E42" t="str">
-        <v/>
+        <v>https://twitter.com/riley_harris</v>
       </c>
       <c r="F42" t="str">
-        <v>https://alexwilson.io</v>
+        <v>https://rileyharris.com</v>
       </c>
       <c r="G42" t="str">
-        <v>San Francisco, CA</v>
+        <v>London, UK</v>
       </c>
       <c r="H42" t="str">
-        <v>Experienced investor and former founder with expertise in Marketplace</v>
+        <v>Experienced investor and former founder with expertise in Healthtech</v>
       </c>
       <c r="I42" t="str">
-        <v>10K-25K</v>
+        <v>100K-250K</v>
       </c>
       <c r="J42" t="str">
-        <v>Pre-seed,Series B</v>
+        <v>Series C,Series B</v>
       </c>
       <c r="K42" t="str">
-        <v>E-commerce,B2B SaaS</v>
+        <v>Climate tech,B2B SaaS</v>
       </c>
       <c r="L42" t="str">
-        <v>Asia</v>
+        <v>Europe</v>
       </c>
       <c r="M42" t="str">
-        <v>advisory</v>
+        <v>network-focused</v>
       </c>
       <c r="N42" t="str">
         <v>ExampleCorp 41,StartupCo 42</v>
       </c>
       <c r="O42" t="str">
-        <v>Product,Marketing</v>
+        <v>Sales,Product</v>
       </c>
       <c r="P42" t="str">
-        <v>1-3 days</v>
+        <v>1 month</v>
       </c>
       <c r="Q42" t="str">
         <v>email</v>
@@ -3518,7 +3642,7 @@
         <v/>
       </c>
       <c r="S42" t="str">
-        <v>alex.wilson@demo.com</v>
+        <v>riley.harris@email.com</v>
       </c>
       <c r="T42" t="str">
         <v>simple</v>
@@ -3535,19 +3659,22 @@
       <c r="X42" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y42" t="str">
+        <v>PRO</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Taylor</v>
+        <v>Riley</v>
       </c>
       <c r="B43" t="str">
-        <v>Sanchez</v>
+        <v>Anderson</v>
       </c>
       <c r="C43" t="str">
-        <v>taylor.sanchez@demo.com</v>
+        <v>riley.anderson@example.com</v>
       </c>
       <c r="D43" t="str">
-        <v>https://linkedin.com/in/taylorsanchez</v>
+        <v>https://linkedin.com/in/rileyanderson</v>
       </c>
       <c r="E43" t="str">
         <v/>
@@ -3556,31 +3683,31 @@
         <v/>
       </c>
       <c r="G43" t="str">
-        <v>Berlin, Germany</v>
+        <v>Austin, TX</v>
       </c>
       <c r="H43" t="str">
-        <v>Experienced investor and former founder with expertise in Consumer</v>
+        <v>Experienced investor and former founder with expertise in Developer tools</v>
       </c>
       <c r="I43" t="str">
-        <v>1K-10K</v>
+        <v>25K-50K</v>
       </c>
       <c r="J43" t="str">
-        <v>Series B,Series A</v>
+        <v>Series B,Seed</v>
       </c>
       <c r="K43" t="str">
-        <v>Developer tools,Deep tech</v>
+        <v>Gaming,B2B SaaS</v>
       </c>
       <c r="L43" t="str">
-        <v>Asia</v>
+        <v>Global</v>
       </c>
       <c r="M43" t="str">
-        <v>hands-on</v>
+        <v>advisory</v>
       </c>
       <c r="N43" t="str">
         <v>ExampleCorp 42,StartupCo 43</v>
       </c>
       <c r="O43" t="str">
-        <v>Operations,Sales</v>
+        <v>Sales,Product</v>
       </c>
       <c r="P43" t="str">
         <v>1-3 days</v>
@@ -3592,7 +3719,7 @@
         <v/>
       </c>
       <c r="S43" t="str">
-        <v>taylor.sanchez@demo.com</v>
+        <v>riley.anderson@example.com</v>
       </c>
       <c r="T43" t="str">
         <v>simple</v>
@@ -3609,43 +3736,46 @@
       <c r="X43" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y43" t="str">
+        <v>PRO</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Emery</v>
+        <v>Blake</v>
       </c>
       <c r="B44" t="str">
-        <v>Hernandez</v>
+        <v>Harris</v>
       </c>
       <c r="C44" t="str">
-        <v>emery.hernandez@demo.com</v>
+        <v>blake.harris@test.com</v>
       </c>
       <c r="D44" t="str">
-        <v>https://linkedin.com/in/emeryhernandez</v>
+        <v>https://linkedin.com/in/blakeharris</v>
       </c>
       <c r="E44" t="str">
-        <v>https://twitter.com/emery_hernandez</v>
+        <v/>
       </c>
       <c r="F44" t="str">
-        <v/>
+        <v>https://blakeharris.co</v>
       </c>
       <c r="G44" t="str">
-        <v>Boston, MA</v>
+        <v>Austin, TX</v>
       </c>
       <c r="H44" t="str">
-        <v>Experienced investor and former founder with expertise in Consumer</v>
+        <v>Experienced investor and former founder with expertise in Fintech</v>
       </c>
       <c r="I44" t="str">
-        <v>100K-250K</v>
+        <v>50K-100K</v>
       </c>
       <c r="J44" t="str">
-        <v>Series C,Series A</v>
+        <v>Pre-seed,Series B</v>
       </c>
       <c r="K44" t="str">
-        <v>Fintech,Healthtech</v>
+        <v>B2B SaaS,Web3</v>
       </c>
       <c r="L44" t="str">
-        <v>Asia</v>
+        <v>Europe</v>
       </c>
       <c r="M44" t="str">
         <v>passive</v>
@@ -3654,10 +3784,10 @@
         <v>ExampleCorp 43,StartupCo 44</v>
       </c>
       <c r="O44" t="str">
-        <v>Product,Engineering</v>
+        <v>Product,Sales</v>
       </c>
       <c r="P44" t="str">
-        <v>2 weeks</v>
+        <v>1-3 days</v>
       </c>
       <c r="Q44" t="str">
         <v>email</v>
@@ -3666,7 +3796,7 @@
         <v/>
       </c>
       <c r="S44" t="str">
-        <v>emery.hernandez@demo.com</v>
+        <v>blake.harris@test.com</v>
       </c>
       <c r="T44" t="str">
         <v>simple</v>
@@ -3682,6 +3812,9 @@
       </c>
       <c r="X44" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="Y44" t="str">
+        <v>PRO</v>
       </c>
     </row>
     <row r="45">
@@ -3689,34 +3822,34 @@
         <v>Emery</v>
       </c>
       <c r="B45" t="str">
-        <v>Jones</v>
+        <v>White</v>
       </c>
       <c r="C45" t="str">
-        <v>emery.jones@email.com</v>
+        <v>emery.white@email.com</v>
       </c>
       <c r="D45" t="str">
-        <v>https://linkedin.com/in/emeryjones</v>
+        <v>https://linkedin.com/in/emerywhite</v>
       </c>
       <c r="E45" t="str">
-        <v>https://twitter.com/emery_jones</v>
+        <v>https://twitter.com/emery_white</v>
       </c>
       <c r="F45" t="str">
-        <v/>
+        <v>https://emerywhite.capital</v>
       </c>
       <c r="G45" t="str">
-        <v>San Francisco, CA</v>
+        <v>Boston, MA</v>
       </c>
       <c r="H45" t="str">
         <v>Experienced investor and former founder with expertise in Gaming</v>
       </c>
       <c r="I45" t="str">
-        <v>100K-250K</v>
+        <v>10K-25K</v>
       </c>
       <c r="J45" t="str">
-        <v>Series B,Seed</v>
+        <v>Series C,Seed</v>
       </c>
       <c r="K45" t="str">
-        <v>B2B SaaS,E-commerce</v>
+        <v>Consumer,AI/ML</v>
       </c>
       <c r="L45" t="str">
         <v>EMEA</v>
@@ -3728,10 +3861,10 @@
         <v>ExampleCorp 44,StartupCo 45</v>
       </c>
       <c r="O45" t="str">
-        <v>Product,Engineering</v>
+        <v>Sales,Marketing</v>
       </c>
       <c r="P45" t="str">
-        <v>1 month</v>
+        <v>2 weeks</v>
       </c>
       <c r="Q45" t="str">
         <v>email</v>
@@ -3740,7 +3873,7 @@
         <v/>
       </c>
       <c r="S45" t="str">
-        <v>emery.jones@email.com</v>
+        <v>emery.white@email.com</v>
       </c>
       <c r="T45" t="str">
         <v>simple</v>
@@ -3757,55 +3890,58 @@
       <c r="X45" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y45" t="str">
+        <v>PRO</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Sloan</v>
+        <v>Reagan</v>
       </c>
       <c r="B46" t="str">
-        <v>Jackson</v>
+        <v>Lewis</v>
       </c>
       <c r="C46" t="str">
-        <v>sloan.jackson@email.com</v>
+        <v>reagan.lewis@example.com</v>
       </c>
       <c r="D46" t="str">
-        <v>https://linkedin.com/in/sloanjackson</v>
+        <v>https://linkedin.com/in/reaganlewis</v>
       </c>
       <c r="E46" t="str">
-        <v>https://twitter.com/sloan_jackson</v>
+        <v>https://twitter.com/reagan_lewis</v>
       </c>
       <c r="F46" t="str">
-        <v/>
+        <v>https://reaganlewis.io</v>
       </c>
       <c r="G46" t="str">
-        <v>San Francisco, CA</v>
+        <v>Boston, MA</v>
       </c>
       <c r="H46" t="str">
-        <v>Experienced investor and former founder with expertise in Consumer</v>
+        <v>Experienced investor and former founder with expertise in Gaming</v>
       </c>
       <c r="I46" t="str">
         <v>50K-100K</v>
       </c>
       <c r="J46" t="str">
-        <v>Series B,Seed</v>
+        <v>Seed,Pre-seed</v>
       </c>
       <c r="K46" t="str">
-        <v>Healthtech,Web3</v>
+        <v>Developer tools,B2B SaaS</v>
       </c>
       <c r="L46" t="str">
-        <v>North America</v>
+        <v>Global</v>
       </c>
       <c r="M46" t="str">
-        <v>hands-on</v>
+        <v>advisory</v>
       </c>
       <c r="N46" t="str">
         <v>ExampleCorp 45,StartupCo 46</v>
       </c>
       <c r="O46" t="str">
-        <v>Engineering,Sales</v>
+        <v>Engineering,Marketing</v>
       </c>
       <c r="P46" t="str">
-        <v>2 weeks</v>
+        <v>1 month</v>
       </c>
       <c r="Q46" t="str">
         <v>email</v>
@@ -3814,7 +3950,7 @@
         <v/>
       </c>
       <c r="S46" t="str">
-        <v>sloan.jackson@email.com</v>
+        <v>reagan.lewis@example.com</v>
       </c>
       <c r="T46" t="str">
         <v>simple</v>
@@ -3831,40 +3967,43 @@
       <c r="X46" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y46" t="str">
+        <v>PRO</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Winter</v>
+        <v>Logan</v>
       </c>
       <c r="B47" t="str">
-        <v>Rodriguez</v>
+        <v>Martin</v>
       </c>
       <c r="C47" t="str">
-        <v>winter.rodriguez@demo.com</v>
+        <v>logan.martin@test.com</v>
       </c>
       <c r="D47" t="str">
-        <v>https://linkedin.com/in/winterrodriguez</v>
+        <v>https://linkedin.com/in/loganmartin</v>
       </c>
       <c r="E47" t="str">
         <v/>
       </c>
       <c r="F47" t="str">
-        <v>https://winterrodriguez.capital</v>
+        <v/>
       </c>
       <c r="G47" t="str">
-        <v>Singapore</v>
+        <v>Austin, TX</v>
       </c>
       <c r="H47" t="str">
-        <v>Experienced investor and former founder with expertise in E-commerce</v>
+        <v>Experienced investor and former founder with expertise in Consumer</v>
       </c>
       <c r="I47" t="str">
-        <v>100K-250K</v>
+        <v>1K-10K</v>
       </c>
       <c r="J47" t="str">
-        <v>Series B,Series C</v>
+        <v>Pre-seed,Seed</v>
       </c>
       <c r="K47" t="str">
-        <v>Developer tools,Healthtech</v>
+        <v>B2B SaaS,Fintech</v>
       </c>
       <c r="L47" t="str">
         <v>North America</v>
@@ -3876,7 +4015,7 @@
         <v>ExampleCorp 46,StartupCo 47</v>
       </c>
       <c r="O47" t="str">
-        <v>Sales,Marketing</v>
+        <v>Product,Sales</v>
       </c>
       <c r="P47" t="str">
         <v>1-3 days</v>
@@ -3888,7 +4027,7 @@
         <v/>
       </c>
       <c r="S47" t="str">
-        <v>winter.rodriguez@demo.com</v>
+        <v>logan.martin@test.com</v>
       </c>
       <c r="T47" t="str">
         <v>simple</v>
@@ -3905,43 +4044,46 @@
       <c r="X47" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y47" t="str">
+        <v>PRO</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Wren</v>
+        <v>Alex</v>
       </c>
       <c r="B48" t="str">
-        <v>Thomas</v>
+        <v>Smith</v>
       </c>
       <c r="C48" t="str">
-        <v>wren.thomas@test.com</v>
+        <v>alex.smith@test.com</v>
       </c>
       <c r="D48" t="str">
-        <v>https://linkedin.com/in/wrenthomas</v>
+        <v>https://linkedin.com/in/alexsmith</v>
       </c>
       <c r="E48" t="str">
         <v/>
       </c>
       <c r="F48" t="str">
-        <v>https://wrenthomas.io</v>
+        <v>https://alexsmith.vc</v>
       </c>
       <c r="G48" t="str">
-        <v>Boston, MA</v>
+        <v>Seattle, WA</v>
       </c>
       <c r="H48" t="str">
-        <v>Experienced investor and former founder with expertise in Consumer</v>
+        <v>Experienced investor and former founder with expertise in Web3</v>
       </c>
       <c r="I48" t="str">
-        <v>1K-10K</v>
+        <v>50K-100K</v>
       </c>
       <c r="J48" t="str">
-        <v>Series C,Series A</v>
+        <v>Pre-seed,Series B</v>
       </c>
       <c r="K48" t="str">
-        <v>Consumer,AI/ML</v>
+        <v>Healthtech,AI/ML</v>
       </c>
       <c r="L48" t="str">
-        <v>North America</v>
+        <v>Global</v>
       </c>
       <c r="M48" t="str">
         <v>hands-on</v>
@@ -3950,10 +4092,10 @@
         <v>ExampleCorp 47,StartupCo 48</v>
       </c>
       <c r="O48" t="str">
-        <v>Marketing,Product</v>
+        <v>Sales,Engineering</v>
       </c>
       <c r="P48" t="str">
-        <v>1 week</v>
+        <v>1-3 days</v>
       </c>
       <c r="Q48" t="str">
         <v>email</v>
@@ -3962,7 +4104,7 @@
         <v/>
       </c>
       <c r="S48" t="str">
-        <v>wren.thomas@test.com</v>
+        <v>alex.smith@test.com</v>
       </c>
       <c r="T48" t="str">
         <v>simple</v>
@@ -3979,37 +4121,40 @@
       <c r="X48" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y48" t="str">
+        <v>PRO</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Reagan</v>
+        <v>Parker</v>
       </c>
       <c r="B49" t="str">
-        <v>Clark</v>
+        <v>Thomas</v>
       </c>
       <c r="C49" t="str">
-        <v>reagan.clark@email.com</v>
+        <v>parker.thomas@gmail.com</v>
       </c>
       <c r="D49" t="str">
-        <v>https://linkedin.com/in/reaganclark</v>
+        <v>https://linkedin.com/in/parkerthomas</v>
       </c>
       <c r="E49" t="str">
-        <v/>
+        <v>https://twitter.com/parker_thomas</v>
       </c>
       <c r="F49" t="str">
-        <v/>
+        <v>https://parkerthomas.vc</v>
       </c>
       <c r="G49" t="str">
-        <v>London, UK</v>
+        <v>Singapore</v>
       </c>
       <c r="H49" t="str">
-        <v>Experienced investor and former founder with expertise in Fintech</v>
+        <v>Experienced investor and former founder with expertise in Consumer</v>
       </c>
       <c r="I49" t="str">
-        <v>25K-50K</v>
+        <v>1K-10K</v>
       </c>
       <c r="J49" t="str">
-        <v>Series A,Seed</v>
+        <v>Series A,Pre-seed</v>
       </c>
       <c r="K49" t="str">
         <v>Gaming,B2B SaaS</v>
@@ -4024,7 +4169,7 @@
         <v>ExampleCorp 48,StartupCo 49</v>
       </c>
       <c r="O49" t="str">
-        <v>Marketing,Sales</v>
+        <v>Sales,Engineering</v>
       </c>
       <c r="P49" t="str">
         <v>2 weeks</v>
@@ -4036,7 +4181,7 @@
         <v/>
       </c>
       <c r="S49" t="str">
-        <v>reagan.clark@email.com</v>
+        <v>parker.thomas@gmail.com</v>
       </c>
       <c r="T49" t="str">
         <v>simple</v>
@@ -4053,55 +4198,58 @@
       <c r="X49" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y49" t="str">
+        <v>PRO</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Casey</v>
+        <v>Sawyer</v>
       </c>
       <c r="B50" t="str">
-        <v>Miller</v>
+        <v>Thompson</v>
       </c>
       <c r="C50" t="str">
-        <v>casey.miller@email.com</v>
+        <v>sawyer.thompson@gmail.com</v>
       </c>
       <c r="D50" t="str">
-        <v>https://linkedin.com/in/caseymiller</v>
+        <v>https://linkedin.com/in/sawyerthompson</v>
       </c>
       <c r="E50" t="str">
-        <v>https://twitter.com/casey_miller</v>
+        <v/>
       </c>
       <c r="F50" t="str">
-        <v>https://caseymiller.com</v>
+        <v>https://sawyerthompson.co</v>
       </c>
       <c r="G50" t="str">
         <v>Berlin, Germany</v>
       </c>
       <c r="H50" t="str">
-        <v>Experienced investor and former founder with expertise in Healthtech</v>
+        <v>Experienced investor and former founder with expertise in Deep tech</v>
       </c>
       <c r="I50" t="str">
-        <v>1K-10K</v>
+        <v>10K-25K</v>
       </c>
       <c r="J50" t="str">
-        <v>Series A,Seed</v>
+        <v>Pre-seed,Series A</v>
       </c>
       <c r="K50" t="str">
-        <v>Climate tech,Healthtech</v>
+        <v>B2B SaaS,Fintech</v>
       </c>
       <c r="L50" t="str">
-        <v>Global</v>
+        <v>North America</v>
       </c>
       <c r="M50" t="str">
-        <v>hands-on</v>
+        <v>passive</v>
       </c>
       <c r="N50" t="str">
         <v>ExampleCorp 49,StartupCo 50</v>
       </c>
       <c r="O50" t="str">
-        <v>Product,Operations</v>
+        <v>Engineering,Marketing</v>
       </c>
       <c r="P50" t="str">
-        <v>1-3 days</v>
+        <v>1 month</v>
       </c>
       <c r="Q50" t="str">
         <v>email</v>
@@ -4110,7 +4258,7 @@
         <v/>
       </c>
       <c r="S50" t="str">
-        <v>casey.miller@email.com</v>
+        <v>sawyer.thompson@gmail.com</v>
       </c>
       <c r="T50" t="str">
         <v>simple</v>
@@ -4127,55 +4275,58 @@
       <c r="X50" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y50" t="str">
+        <v>PRO</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Emery</v>
+        <v>Finley</v>
       </c>
       <c r="B51" t="str">
-        <v>Brown</v>
+        <v>Ramirez</v>
       </c>
       <c r="C51" t="str">
-        <v>emery.brown@test.com</v>
+        <v>finley.ramirez@demo.com</v>
       </c>
       <c r="D51" t="str">
-        <v>https://linkedin.com/in/emerybrown</v>
+        <v>https://linkedin.com/in/finleyramirez</v>
       </c>
       <c r="E51" t="str">
-        <v>https://twitter.com/emery_brown</v>
+        <v>https://twitter.com/finley_ramirez</v>
       </c>
       <c r="F51" t="str">
-        <v>https://emerybrown.io</v>
+        <v>https://finleyramirez.capital</v>
       </c>
       <c r="G51" t="str">
-        <v>Berlin, Germany</v>
+        <v>San Francisco, CA</v>
       </c>
       <c r="H51" t="str">
-        <v>Experienced investor and former founder with expertise in E-commerce</v>
+        <v>Experienced investor and former founder with expertise in B2B SaaS</v>
       </c>
       <c r="I51" t="str">
-        <v>50K-100K</v>
+        <v>25K-50K</v>
       </c>
       <c r="J51" t="str">
-        <v>Seed,Series B</v>
+        <v>Series C,Seed</v>
       </c>
       <c r="K51" t="str">
-        <v>Developer tools,AI/ML</v>
+        <v>Gaming,E-commerce</v>
       </c>
       <c r="L51" t="str">
-        <v>EMEA</v>
+        <v>Europe</v>
       </c>
       <c r="M51" t="str">
-        <v>hands-on</v>
+        <v>passive</v>
       </c>
       <c r="N51" t="str">
         <v>ExampleCorp 50,StartupCo 51</v>
       </c>
       <c r="O51" t="str">
-        <v>Operations,Marketing</v>
+        <v>Engineering,Sales</v>
       </c>
       <c r="P51" t="str">
-        <v>1 week</v>
+        <v>1-3 days</v>
       </c>
       <c r="Q51" t="str">
         <v>email</v>
@@ -4184,7 +4335,7 @@
         <v/>
       </c>
       <c r="S51" t="str">
-        <v>emery.brown@test.com</v>
+        <v>finley.ramirez@demo.com</v>
       </c>
       <c r="T51" t="str">
         <v>simple</v>
@@ -4201,52 +4352,55 @@
       <c r="X51" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y51" t="str">
+        <v>PRO</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Blake</v>
+        <v>Casey</v>
       </c>
       <c r="B52" t="str">
-        <v>Anderson</v>
+        <v>Lopez</v>
       </c>
       <c r="C52" t="str">
-        <v>blake.anderson@email.com</v>
+        <v>casey.lopez@test.com</v>
       </c>
       <c r="D52" t="str">
-        <v>https://linkedin.com/in/blakeanderson</v>
+        <v>https://linkedin.com/in/caseylopez</v>
       </c>
       <c r="E52" t="str">
-        <v>https://twitter.com/blake_anderson</v>
+        <v/>
       </c>
       <c r="F52" t="str">
-        <v>https://blakeanderson.capital</v>
+        <v/>
       </c>
       <c r="G52" t="str">
-        <v>Seattle, WA</v>
+        <v>Berlin, Germany</v>
       </c>
       <c r="H52" t="str">
-        <v>Experienced investor and former founder with expertise in Web3</v>
+        <v>Experienced investor and former founder with expertise in Healthtech</v>
       </c>
       <c r="I52" t="str">
-        <v>10K-25K</v>
+        <v>100K-250K</v>
       </c>
       <c r="J52" t="str">
-        <v>Series C,Series B</v>
+        <v>Seed,Series C</v>
       </c>
       <c r="K52" t="str">
-        <v>B2B SaaS,Fintech</v>
+        <v>B2B SaaS,AI/ML</v>
       </c>
       <c r="L52" t="str">
-        <v>EMEA</v>
+        <v>Global</v>
       </c>
       <c r="M52" t="str">
-        <v>passive</v>
+        <v>network-focused</v>
       </c>
       <c r="N52" t="str">
         <v>ExampleCorp 51,StartupCo 52</v>
       </c>
       <c r="O52" t="str">
-        <v>Sales,Engineering</v>
+        <v>Product,Marketing</v>
       </c>
       <c r="P52" t="str">
         <v>1-3 days</v>
@@ -4258,7 +4412,7 @@
         <v/>
       </c>
       <c r="S52" t="str">
-        <v>blake.anderson@email.com</v>
+        <v>casey.lopez@test.com</v>
       </c>
       <c r="T52" t="str">
         <v>simple</v>
@@ -4275,55 +4429,58 @@
       <c r="X52" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y52" t="str">
+        <v>PRO</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Reagan</v>
+        <v>River</v>
       </c>
       <c r="B53" t="str">
-        <v>Thompson</v>
+        <v>Robinson</v>
       </c>
       <c r="C53" t="str">
-        <v>reagan.thompson@example.com</v>
+        <v>river.robinson@test.com</v>
       </c>
       <c r="D53" t="str">
-        <v>https://linkedin.com/in/reaganthompson</v>
+        <v>https://linkedin.com/in/riverrobinson</v>
       </c>
       <c r="E53" t="str">
-        <v/>
+        <v>https://twitter.com/river_robinson</v>
       </c>
       <c r="F53" t="str">
-        <v>https://reaganthompson.com</v>
+        <v>https://riverrobinson.io</v>
       </c>
       <c r="G53" t="str">
-        <v>San Francisco, CA</v>
+        <v>Austin, TX</v>
       </c>
       <c r="H53" t="str">
-        <v>Experienced investor and former founder with expertise in Marketplace</v>
+        <v>Experienced investor and former founder with expertise in Consumer</v>
       </c>
       <c r="I53" t="str">
         <v>100K-250K</v>
       </c>
       <c r="J53" t="str">
-        <v>Pre-seed,Series B</v>
+        <v>Series C,Series A</v>
       </c>
       <c r="K53" t="str">
-        <v>Gaming,Developer tools</v>
+        <v>B2B SaaS,AI/ML</v>
       </c>
       <c r="L53" t="str">
-        <v>EMEA</v>
+        <v>Global</v>
       </c>
       <c r="M53" t="str">
-        <v>advisory</v>
+        <v>network-focused</v>
       </c>
       <c r="N53" t="str">
         <v>ExampleCorp 52,StartupCo 53</v>
       </c>
       <c r="O53" t="str">
-        <v>Product,Marketing</v>
+        <v>Marketing,Engineering</v>
       </c>
       <c r="P53" t="str">
-        <v>1 week</v>
+        <v>1 month</v>
       </c>
       <c r="Q53" t="str">
         <v>email</v>
@@ -4332,7 +4489,7 @@
         <v/>
       </c>
       <c r="S53" t="str">
-        <v>reagan.thompson@example.com</v>
+        <v>river.robinson@test.com</v>
       </c>
       <c r="T53" t="str">
         <v>simple</v>
@@ -4349,55 +4506,58 @@
       <c r="X53" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y53" t="str">
+        <v>PRO</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Remy</v>
+        <v>Emery</v>
       </c>
       <c r="B54" t="str">
-        <v>Martinez</v>
+        <v>Clark</v>
       </c>
       <c r="C54" t="str">
-        <v>remy.martinez@demo.com</v>
+        <v>emery.clark@test.com</v>
       </c>
       <c r="D54" t="str">
-        <v>https://linkedin.com/in/remymartinez</v>
+        <v>https://linkedin.com/in/emeryclark</v>
       </c>
       <c r="E54" t="str">
-        <v/>
+        <v>https://twitter.com/emery_clark</v>
       </c>
       <c r="F54" t="str">
-        <v>https://remymartinez.vc</v>
+        <v>https://emeryclark.io</v>
       </c>
       <c r="G54" t="str">
-        <v>London, UK</v>
+        <v>Austin, TX</v>
       </c>
       <c r="H54" t="str">
-        <v>Experienced investor and former founder with expertise in E-commerce</v>
+        <v>Experienced investor and former founder with expertise in Fintech</v>
       </c>
       <c r="I54" t="str">
         <v>25K-50K</v>
       </c>
       <c r="J54" t="str">
-        <v>Series C,Pre-seed</v>
+        <v>Seed,Pre-seed</v>
       </c>
       <c r="K54" t="str">
-        <v>B2B SaaS,Deep tech</v>
+        <v>AI/ML,B2B SaaS</v>
       </c>
       <c r="L54" t="str">
-        <v>Asia</v>
+        <v>Europe</v>
       </c>
       <c r="M54" t="str">
-        <v>hands-on</v>
+        <v>advisory</v>
       </c>
       <c r="N54" t="str">
         <v>ExampleCorp 53,StartupCo 54</v>
       </c>
       <c r="O54" t="str">
-        <v>Engineering,Marketing</v>
+        <v>Marketing,Operations</v>
       </c>
       <c r="P54" t="str">
-        <v>1 month</v>
+        <v>1-3 days</v>
       </c>
       <c r="Q54" t="str">
         <v>email</v>
@@ -4406,7 +4566,7 @@
         <v/>
       </c>
       <c r="S54" t="str">
-        <v>remy.martinez@demo.com</v>
+        <v>emery.clark@test.com</v>
       </c>
       <c r="T54" t="str">
         <v>simple</v>
@@ -4423,46 +4583,49 @@
       <c r="X54" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y54" t="str">
+        <v>PRO</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Tatum</v>
+        <v>Jordan</v>
       </c>
       <c r="B55" t="str">
-        <v>Davis</v>
+        <v>Jackson</v>
       </c>
       <c r="C55" t="str">
-        <v>tatum.davis@example.com</v>
+        <v>jordan.jackson@test.com</v>
       </c>
       <c r="D55" t="str">
-        <v>https://linkedin.com/in/tatumdavis</v>
+        <v>https://linkedin.com/in/jordanjackson</v>
       </c>
       <c r="E55" t="str">
-        <v>https://twitter.com/tatum_davis</v>
+        <v>https://twitter.com/jordan_jackson</v>
       </c>
       <c r="F55" t="str">
-        <v/>
+        <v>https://jordanjackson.io</v>
       </c>
       <c r="G55" t="str">
-        <v>London, UK</v>
+        <v>Austin, TX</v>
       </c>
       <c r="H55" t="str">
-        <v>Experienced investor and former founder with expertise in AI/ML</v>
+        <v>Experienced investor and former founder with expertise in Healthtech</v>
       </c>
       <c r="I55" t="str">
-        <v>1K-10K</v>
+        <v>25K-50K</v>
       </c>
       <c r="J55" t="str">
-        <v>Series A,Pre-seed</v>
+        <v>Pre-seed,Seed</v>
       </c>
       <c r="K55" t="str">
-        <v>E-commerce,AI/ML</v>
+        <v>Fintech,B2B SaaS</v>
       </c>
       <c r="L55" t="str">
         <v>Asia</v>
       </c>
       <c r="M55" t="str">
-        <v>passive</v>
+        <v>hands-on</v>
       </c>
       <c r="N55" t="str">
         <v>ExampleCorp 54,StartupCo 55</v>
@@ -4471,7 +4634,7 @@
         <v>Engineering,Product</v>
       </c>
       <c r="P55" t="str">
-        <v>1-3 days</v>
+        <v>1 month</v>
       </c>
       <c r="Q55" t="str">
         <v>email</v>
@@ -4480,7 +4643,7 @@
         <v/>
       </c>
       <c r="S55" t="str">
-        <v>tatum.davis@example.com</v>
+        <v>jordan.jackson@test.com</v>
       </c>
       <c r="T55" t="str">
         <v>simple</v>
@@ -4497,55 +4660,58 @@
       <c r="X55" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y55" t="str">
+        <v>PRO</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Drew</v>
+        <v>Quinn</v>
       </c>
       <c r="B56" t="str">
-        <v>Wilson</v>
+        <v>Ramirez</v>
       </c>
       <c r="C56" t="str">
-        <v>drew.wilson@test.com</v>
+        <v>quinn.ramirez@test.com</v>
       </c>
       <c r="D56" t="str">
-        <v>https://linkedin.com/in/drewwilson</v>
+        <v>https://linkedin.com/in/quinnramirez</v>
       </c>
       <c r="E56" t="str">
-        <v/>
+        <v>https://twitter.com/quinn_ramirez</v>
       </c>
       <c r="F56" t="str">
-        <v/>
+        <v>https://quinnramirez.capital</v>
       </c>
       <c r="G56" t="str">
-        <v>San Francisco, CA</v>
+        <v>Singapore</v>
       </c>
       <c r="H56" t="str">
-        <v>Experienced investor and former founder with expertise in E-commerce</v>
+        <v>Experienced investor and former founder with expertise in Fintech</v>
       </c>
       <c r="I56" t="str">
-        <v>10K-25K</v>
+        <v>100K-250K</v>
       </c>
       <c r="J56" t="str">
-        <v>Series B,Series C</v>
+        <v>Series B,Pre-seed</v>
       </c>
       <c r="K56" t="str">
-        <v>E-commerce,Climate tech</v>
+        <v>Climate tech,Marketplace</v>
       </c>
       <c r="L56" t="str">
-        <v>North America</v>
+        <v>Global</v>
       </c>
       <c r="M56" t="str">
-        <v>passive</v>
+        <v>advisory</v>
       </c>
       <c r="N56" t="str">
         <v>ExampleCorp 55,StartupCo 56</v>
       </c>
       <c r="O56" t="str">
-        <v>Operations,Marketing</v>
+        <v>Engineering,Marketing</v>
       </c>
       <c r="P56" t="str">
-        <v>1 month</v>
+        <v>1 week</v>
       </c>
       <c r="Q56" t="str">
         <v>email</v>
@@ -4554,7 +4720,7 @@
         <v/>
       </c>
       <c r="S56" t="str">
-        <v>drew.wilson@test.com</v>
+        <v>quinn.ramirez@test.com</v>
       </c>
       <c r="T56" t="str">
         <v>simple</v>
@@ -4571,55 +4737,58 @@
       <c r="X56" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y56" t="str">
+        <v>PRO</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Logan</v>
+        <v>Morgan</v>
       </c>
       <c r="B57" t="str">
-        <v>Perez</v>
+        <v>Johnson</v>
       </c>
       <c r="C57" t="str">
-        <v>logan.perez@example.com</v>
+        <v>morgan.johnson@demo.com</v>
       </c>
       <c r="D57" t="str">
-        <v>https://linkedin.com/in/loganperez</v>
+        <v>https://linkedin.com/in/morganjohnson</v>
       </c>
       <c r="E57" t="str">
-        <v>https://twitter.com/logan_perez</v>
+        <v/>
       </c>
       <c r="F57" t="str">
         <v/>
       </c>
       <c r="G57" t="str">
-        <v>Singapore</v>
+        <v>Austin, TX</v>
       </c>
       <c r="H57" t="str">
-        <v>Experienced investor and former founder with expertise in Consumer</v>
+        <v>Experienced investor and former founder with expertise in Climate tech</v>
       </c>
       <c r="I57" t="str">
-        <v>100K-250K</v>
+        <v>10K-25K</v>
       </c>
       <c r="J57" t="str">
-        <v>Series A,Seed</v>
+        <v>Pre-seed,Seed</v>
       </c>
       <c r="K57" t="str">
-        <v>Marketplace,Climate tech</v>
+        <v>B2B SaaS,Deep tech</v>
       </c>
       <c r="L57" t="str">
-        <v>North America</v>
+        <v>Global</v>
       </c>
       <c r="M57" t="str">
-        <v>hands-on</v>
+        <v>passive</v>
       </c>
       <c r="N57" t="str">
         <v>ExampleCorp 56,StartupCo 57</v>
       </c>
       <c r="O57" t="str">
-        <v>Marketing,Engineering</v>
+        <v>Sales,Engineering</v>
       </c>
       <c r="P57" t="str">
-        <v>1 month</v>
+        <v>1 week</v>
       </c>
       <c r="Q57" t="str">
         <v>email</v>
@@ -4628,7 +4797,7 @@
         <v/>
       </c>
       <c r="S57" t="str">
-        <v>logan.perez@example.com</v>
+        <v>morgan.johnson@demo.com</v>
       </c>
       <c r="T57" t="str">
         <v>simple</v>
@@ -4645,43 +4814,46 @@
       <c r="X57" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y57" t="str">
+        <v>PRO</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Taylor</v>
+        <v>Finley</v>
       </c>
       <c r="B58" t="str">
-        <v>Williams</v>
+        <v>Harris</v>
       </c>
       <c r="C58" t="str">
-        <v>taylor.williams@test.com</v>
+        <v>finley.harris@test.com</v>
       </c>
       <c r="D58" t="str">
-        <v>https://linkedin.com/in/taylorwilliams</v>
+        <v>https://linkedin.com/in/finleyharris</v>
       </c>
       <c r="E58" t="str">
-        <v>https://twitter.com/taylor_williams</v>
+        <v/>
       </c>
       <c r="F58" t="str">
-        <v>https://taylorwilliams.com</v>
+        <v>https://finleyharris.capital</v>
       </c>
       <c r="G58" t="str">
-        <v>Berlin, Germany</v>
+        <v>San Francisco, CA</v>
       </c>
       <c r="H58" t="str">
-        <v>Experienced investor and former founder with expertise in Marketplace</v>
+        <v>Experienced investor and former founder with expertise in Developer tools</v>
       </c>
       <c r="I58" t="str">
-        <v>10K-25K</v>
+        <v>25K-50K</v>
       </c>
       <c r="J58" t="str">
-        <v>Seed,Series B</v>
+        <v>Series A,Seed</v>
       </c>
       <c r="K58" t="str">
-        <v>AI/ML,Developer tools</v>
+        <v>B2B SaaS,Fintech</v>
       </c>
       <c r="L58" t="str">
-        <v>EMEA</v>
+        <v>Asia</v>
       </c>
       <c r="M58" t="str">
         <v>network-focused</v>
@@ -4690,7 +4862,7 @@
         <v>ExampleCorp 57,StartupCo 58</v>
       </c>
       <c r="O58" t="str">
-        <v>Sales,Product</v>
+        <v>Engineering,Sales</v>
       </c>
       <c r="P58" t="str">
         <v>2 weeks</v>
@@ -4702,7 +4874,7 @@
         <v/>
       </c>
       <c r="S58" t="str">
-        <v>taylor.williams@test.com</v>
+        <v>finley.harris@test.com</v>
       </c>
       <c r="T58" t="str">
         <v>simple</v>
@@ -4719,55 +4891,58 @@
       <c r="X58" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y58" t="str">
+        <v>PRO</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Reese</v>
+        <v>Winter</v>
       </c>
       <c r="B59" t="str">
-        <v>Miller</v>
+        <v>Robinson</v>
       </c>
       <c r="C59" t="str">
-        <v>reese.miller@gmail.com</v>
+        <v>winter.robinson@example.com</v>
       </c>
       <c r="D59" t="str">
-        <v>https://linkedin.com/in/reesemiller</v>
+        <v>https://linkedin.com/in/winterrobinson</v>
       </c>
       <c r="E59" t="str">
         <v/>
       </c>
       <c r="F59" t="str">
-        <v>https://reesemiller.com</v>
+        <v>https://winterrobinson.co</v>
       </c>
       <c r="G59" t="str">
-        <v>Seattle, WA</v>
+        <v>Berlin, Germany</v>
       </c>
       <c r="H59" t="str">
-        <v>Experienced investor and former founder with expertise in Deep tech</v>
+        <v>Experienced investor and former founder with expertise in Web3</v>
       </c>
       <c r="I59" t="str">
-        <v>100K-250K</v>
+        <v>50K-100K</v>
       </c>
       <c r="J59" t="str">
-        <v>Pre-seed,Series A</v>
+        <v>Series C,Seed</v>
       </c>
       <c r="K59" t="str">
-        <v>Marketplace,AI/ML</v>
+        <v>Consumer,E-commerce</v>
       </c>
       <c r="L59" t="str">
-        <v>Global</v>
+        <v>Europe</v>
       </c>
       <c r="M59" t="str">
-        <v>passive</v>
+        <v>hands-on</v>
       </c>
       <c r="N59" t="str">
         <v>ExampleCorp 58,StartupCo 59</v>
       </c>
       <c r="O59" t="str">
-        <v>Operations,Engineering</v>
+        <v>Engineering,Product</v>
       </c>
       <c r="P59" t="str">
-        <v>1-3 days</v>
+        <v>1 week</v>
       </c>
       <c r="Q59" t="str">
         <v>email</v>
@@ -4776,7 +4951,7 @@
         <v/>
       </c>
       <c r="S59" t="str">
-        <v>reese.miller@gmail.com</v>
+        <v>winter.robinson@example.com</v>
       </c>
       <c r="T59" t="str">
         <v>simple</v>
@@ -4793,55 +4968,58 @@
       <c r="X59" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y59" t="str">
+        <v>PRO</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Taylor</v>
+        <v>Logan</v>
       </c>
       <c r="B60" t="str">
-        <v>Anderson</v>
+        <v>Clark</v>
       </c>
       <c r="C60" t="str">
-        <v>taylor.anderson@test.com</v>
+        <v>logan.clark@example.com</v>
       </c>
       <c r="D60" t="str">
-        <v>https://linkedin.com/in/tayloranderson</v>
+        <v>https://linkedin.com/in/loganclark</v>
       </c>
       <c r="E60" t="str">
-        <v/>
+        <v>https://twitter.com/logan_clark</v>
       </c>
       <c r="F60" t="str">
         <v/>
       </c>
       <c r="G60" t="str">
-        <v>Singapore</v>
+        <v>New York, NY</v>
       </c>
       <c r="H60" t="str">
-        <v>Experienced investor and former founder with expertise in B2B SaaS</v>
+        <v>Experienced investor and former founder with expertise in Web3</v>
       </c>
       <c r="I60" t="str">
         <v>50K-100K</v>
       </c>
       <c r="J60" t="str">
-        <v>Series C,Series B</v>
+        <v>Pre-seed,Series C</v>
       </c>
       <c r="K60" t="str">
-        <v>Deep tech,Fintech</v>
+        <v>B2B SaaS,Deep tech</v>
       </c>
       <c r="L60" t="str">
-        <v>Europe</v>
+        <v>Asia</v>
       </c>
       <c r="M60" t="str">
-        <v>network-focused</v>
+        <v>advisory</v>
       </c>
       <c r="N60" t="str">
         <v>ExampleCorp 59,StartupCo 60</v>
       </c>
       <c r="O60" t="str">
-        <v>Sales,Operations</v>
+        <v>Product,Engineering</v>
       </c>
       <c r="P60" t="str">
-        <v>1 week</v>
+        <v>1 month</v>
       </c>
       <c r="Q60" t="str">
         <v>email</v>
@@ -4850,7 +5028,7 @@
         <v/>
       </c>
       <c r="S60" t="str">
-        <v>taylor.anderson@test.com</v>
+        <v>logan.clark@example.com</v>
       </c>
       <c r="T60" t="str">
         <v>simple</v>
@@ -4867,52 +5045,55 @@
       <c r="X60" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y60" t="str">
+        <v>PRO</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Jordan</v>
+        <v>Cameron</v>
       </c>
       <c r="B61" t="str">
-        <v>Lee</v>
+        <v>Rodriguez</v>
       </c>
       <c r="C61" t="str">
-        <v>jordan.lee@demo.com</v>
+        <v>cameron.rodriguez@email.com</v>
       </c>
       <c r="D61" t="str">
-        <v>https://linkedin.com/in/jordanlee</v>
+        <v>https://linkedin.com/in/cameronrodriguez</v>
       </c>
       <c r="E61" t="str">
-        <v/>
+        <v>https://twitter.com/cameron_rodriguez</v>
       </c>
       <c r="F61" t="str">
-        <v>https://jordanlee.vc</v>
+        <v>https://cameronrodriguez.capital</v>
       </c>
       <c r="G61" t="str">
-        <v>Singapore</v>
+        <v>Austin, TX</v>
       </c>
       <c r="H61" t="str">
-        <v>Experienced investor and former founder with expertise in Consumer</v>
+        <v>Experienced investor and former founder with expertise in Web3</v>
       </c>
       <c r="I61" t="str">
-        <v>1K-10K</v>
+        <v>25K-50K</v>
       </c>
       <c r="J61" t="str">
-        <v>Series A,Pre-seed</v>
+        <v>Series A,Seed</v>
       </c>
       <c r="K61" t="str">
-        <v>Developer tools,B2B SaaS</v>
+        <v>B2B SaaS,Healthtech</v>
       </c>
       <c r="L61" t="str">
         <v>Europe</v>
       </c>
       <c r="M61" t="str">
-        <v>hands-on</v>
+        <v>network-focused</v>
       </c>
       <c r="N61" t="str">
         <v>ExampleCorp 60,StartupCo 61</v>
       </c>
       <c r="O61" t="str">
-        <v>Marketing,Engineering</v>
+        <v>Operations,Marketing</v>
       </c>
       <c r="P61" t="str">
         <v>1 month</v>
@@ -4924,7 +5105,7 @@
         <v/>
       </c>
       <c r="S61" t="str">
-        <v>jordan.lee@demo.com</v>
+        <v>cameron.rodriguez@email.com</v>
       </c>
       <c r="T61" t="str">
         <v>simple</v>
@@ -4941,52 +5122,55 @@
       <c r="X61" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y61" t="str">
+        <v>PRO</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Wren</v>
+        <v>Taylor</v>
       </c>
       <c r="B62" t="str">
-        <v>Ramirez</v>
+        <v>White</v>
       </c>
       <c r="C62" t="str">
-        <v>wren.ramirez@example.com</v>
+        <v>taylor.white@demo.com</v>
       </c>
       <c r="D62" t="str">
-        <v>https://linkedin.com/in/wrenramirez</v>
+        <v>https://linkedin.com/in/taylorwhite</v>
       </c>
       <c r="E62" t="str">
         <v/>
       </c>
       <c r="F62" t="str">
-        <v>https://wrenramirez.capital</v>
+        <v/>
       </c>
       <c r="G62" t="str">
-        <v>Austin, TX</v>
+        <v>London, UK</v>
       </c>
       <c r="H62" t="str">
-        <v>Experienced investor and former founder with expertise in Climate tech</v>
+        <v>Experienced investor and former founder with expertise in Deep tech</v>
       </c>
       <c r="I62" t="str">
-        <v>25K-50K</v>
+        <v>1K-10K</v>
       </c>
       <c r="J62" t="str">
-        <v>Series A,Series B</v>
+        <v>Pre-seed,Series B</v>
       </c>
       <c r="K62" t="str">
-        <v>Deep tech,E-commerce</v>
+        <v>E-commerce,B2B SaaS</v>
       </c>
       <c r="L62" t="str">
-        <v>Europe</v>
+        <v>Global</v>
       </c>
       <c r="M62" t="str">
-        <v>passive</v>
+        <v>advisory</v>
       </c>
       <c r="N62" t="str">
         <v>ExampleCorp 61,StartupCo 62</v>
       </c>
       <c r="O62" t="str">
-        <v>Marketing,Operations</v>
+        <v>Operations,Engineering</v>
       </c>
       <c r="P62" t="str">
         <v>1 month</v>
@@ -4998,7 +5182,7 @@
         <v/>
       </c>
       <c r="S62" t="str">
-        <v>wren.ramirez@example.com</v>
+        <v>taylor.white@demo.com</v>
       </c>
       <c r="T62" t="str">
         <v>simple</v>
@@ -5015,55 +5199,58 @@
       <c r="X62" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y62" t="str">
+        <v>PRO</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Sloan</v>
+        <v>Wren</v>
       </c>
       <c r="B63" t="str">
-        <v>Anderson</v>
+        <v>Martin</v>
       </c>
       <c r="C63" t="str">
-        <v>sloan.anderson@email.com</v>
+        <v>wren.martin@gmail.com</v>
       </c>
       <c r="D63" t="str">
-        <v>https://linkedin.com/in/sloananderson</v>
+        <v>https://linkedin.com/in/wrenmartin</v>
       </c>
       <c r="E63" t="str">
-        <v>https://twitter.com/sloan_anderson</v>
+        <v>https://twitter.com/wren_martin</v>
       </c>
       <c r="F63" t="str">
-        <v>https://sloananderson.co</v>
+        <v>https://wrenmartin.com</v>
       </c>
       <c r="G63" t="str">
-        <v>Austin, TX</v>
+        <v>New York, NY</v>
       </c>
       <c r="H63" t="str">
-        <v>Experienced investor and former founder with expertise in B2B SaaS</v>
+        <v>Experienced investor and former founder with expertise in AI/ML</v>
       </c>
       <c r="I63" t="str">
-        <v>1K-10K</v>
+        <v>25K-50K</v>
       </c>
       <c r="J63" t="str">
-        <v>Series A,Series B</v>
+        <v>Series C,Series B</v>
       </c>
       <c r="K63" t="str">
-        <v>AI/ML,B2B SaaS</v>
+        <v>Healthtech,Fintech</v>
       </c>
       <c r="L63" t="str">
-        <v>Global</v>
+        <v>North America</v>
       </c>
       <c r="M63" t="str">
-        <v>hands-on</v>
+        <v>advisory</v>
       </c>
       <c r="N63" t="str">
         <v>ExampleCorp 62,StartupCo 63</v>
       </c>
       <c r="O63" t="str">
-        <v>Sales,Operations</v>
+        <v>Operations,Engineering</v>
       </c>
       <c r="P63" t="str">
-        <v>1-3 days</v>
+        <v>1 week</v>
       </c>
       <c r="Q63" t="str">
         <v>email</v>
@@ -5072,7 +5259,7 @@
         <v/>
       </c>
       <c r="S63" t="str">
-        <v>sloan.anderson@email.com</v>
+        <v>wren.martin@gmail.com</v>
       </c>
       <c r="T63" t="str">
         <v>simple</v>
@@ -5089,19 +5276,22 @@
       <c r="X63" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y63" t="str">
+        <v>PRO</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Alex</v>
+        <v>Tatum</v>
       </c>
       <c r="B64" t="str">
-        <v>Miller</v>
+        <v>Anderson</v>
       </c>
       <c r="C64" t="str">
-        <v>alex.miller@example.com</v>
+        <v>tatum.anderson@test.com</v>
       </c>
       <c r="D64" t="str">
-        <v>https://linkedin.com/in/alexmiller</v>
+        <v>https://linkedin.com/in/tatumanderson</v>
       </c>
       <c r="E64" t="str">
         <v/>
@@ -5110,22 +5300,22 @@
         <v/>
       </c>
       <c r="G64" t="str">
-        <v>Boston, MA</v>
+        <v>San Francisco, CA</v>
       </c>
       <c r="H64" t="str">
-        <v>Experienced investor and former founder with expertise in B2B SaaS</v>
+        <v>Experienced investor and former founder with expertise in Web3</v>
       </c>
       <c r="I64" t="str">
-        <v>25K-50K</v>
+        <v>100K-250K</v>
       </c>
       <c r="J64" t="str">
-        <v>Series A,Series B</v>
+        <v>Series B,Series C</v>
       </c>
       <c r="K64" t="str">
-        <v>Gaming,Deep tech</v>
+        <v>Gaming,Consumer</v>
       </c>
       <c r="L64" t="str">
-        <v>North America</v>
+        <v>Global</v>
       </c>
       <c r="M64" t="str">
         <v>advisory</v>
@@ -5134,10 +5324,10 @@
         <v>ExampleCorp 63,StartupCo 64</v>
       </c>
       <c r="O64" t="str">
-        <v>Engineering,Product</v>
+        <v>Engineering,Operations</v>
       </c>
       <c r="P64" t="str">
-        <v>1-3 days</v>
+        <v>1 month</v>
       </c>
       <c r="Q64" t="str">
         <v>email</v>
@@ -5146,7 +5336,7 @@
         <v/>
       </c>
       <c r="S64" t="str">
-        <v>alex.miller@example.com</v>
+        <v>tatum.anderson@test.com</v>
       </c>
       <c r="T64" t="str">
         <v>simple</v>
@@ -5163,55 +5353,58 @@
       <c r="X64" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y64" t="str">
+        <v>PRO</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Drew</v>
+        <v>Casey</v>
       </c>
       <c r="B65" t="str">
-        <v>Thompson</v>
+        <v>Brown</v>
       </c>
       <c r="C65" t="str">
-        <v>drew.thompson@test.com</v>
+        <v>casey.brown@gmail.com</v>
       </c>
       <c r="D65" t="str">
-        <v>https://linkedin.com/in/drewthompson</v>
+        <v>https://linkedin.com/in/caseybrown</v>
       </c>
       <c r="E65" t="str">
         <v/>
       </c>
       <c r="F65" t="str">
-        <v>https://drewthompson.com</v>
+        <v/>
       </c>
       <c r="G65" t="str">
-        <v>Seattle, WA</v>
+        <v>San Francisco, CA</v>
       </c>
       <c r="H65" t="str">
-        <v>Experienced investor and former founder with expertise in AI/ML</v>
+        <v>Experienced investor and former founder with expertise in B2B SaaS</v>
       </c>
       <c r="I65" t="str">
-        <v>100K-250K</v>
+        <v>1K-10K</v>
       </c>
       <c r="J65" t="str">
-        <v>Series B,Series C</v>
+        <v>Seed,Pre-seed</v>
       </c>
       <c r="K65" t="str">
-        <v>B2B SaaS,Climate tech</v>
+        <v>Marketplace,E-commerce</v>
       </c>
       <c r="L65" t="str">
-        <v>North America</v>
+        <v>Global</v>
       </c>
       <c r="M65" t="str">
-        <v>advisory</v>
+        <v>passive</v>
       </c>
       <c r="N65" t="str">
         <v>ExampleCorp 64,StartupCo 65</v>
       </c>
       <c r="O65" t="str">
-        <v>Engineering,Marketing</v>
+        <v>Product,Engineering</v>
       </c>
       <c r="P65" t="str">
-        <v>1 week</v>
+        <v>1-3 days</v>
       </c>
       <c r="Q65" t="str">
         <v>email</v>
@@ -5220,7 +5413,7 @@
         <v/>
       </c>
       <c r="S65" t="str">
-        <v>drew.thompson@test.com</v>
+        <v>casey.brown@gmail.com</v>
       </c>
       <c r="T65" t="str">
         <v>simple</v>
@@ -5237,55 +5430,58 @@
       <c r="X65" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y65" t="str">
+        <v>PRO</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Sloan</v>
+        <v>Skylar</v>
       </c>
       <c r="B66" t="str">
         <v>Smith</v>
       </c>
       <c r="C66" t="str">
-        <v>sloan.smith@email.com</v>
+        <v>skylar.smith@demo.com</v>
       </c>
       <c r="D66" t="str">
-        <v>https://linkedin.com/in/sloansmith</v>
+        <v>https://linkedin.com/in/skylarsmith</v>
       </c>
       <c r="E66" t="str">
-        <v>https://twitter.com/sloan_smith</v>
+        <v/>
       </c>
       <c r="F66" t="str">
         <v/>
       </c>
       <c r="G66" t="str">
-        <v>New York, NY</v>
+        <v>London, UK</v>
       </c>
       <c r="H66" t="str">
-        <v>Experienced investor and former founder with expertise in Developer tools</v>
+        <v>Experienced investor and former founder with expertise in B2B SaaS</v>
       </c>
       <c r="I66" t="str">
-        <v>1K-10K</v>
+        <v>25K-50K</v>
       </c>
       <c r="J66" t="str">
-        <v>Seed,Series A</v>
+        <v>Pre-seed,Series C</v>
       </c>
       <c r="K66" t="str">
         <v>B2B SaaS,Consumer</v>
       </c>
       <c r="L66" t="str">
-        <v>Global</v>
+        <v>North America</v>
       </c>
       <c r="M66" t="str">
-        <v>network-focused</v>
+        <v>hands-on</v>
       </c>
       <c r="N66" t="str">
         <v>ExampleCorp 65,StartupCo 66</v>
       </c>
       <c r="O66" t="str">
-        <v>Marketing,Sales</v>
+        <v>Operations,Product</v>
       </c>
       <c r="P66" t="str">
-        <v>1 week</v>
+        <v>2 weeks</v>
       </c>
       <c r="Q66" t="str">
         <v>email</v>
@@ -5294,7 +5490,7 @@
         <v/>
       </c>
       <c r="S66" t="str">
-        <v>sloan.smith@email.com</v>
+        <v>skylar.smith@demo.com</v>
       </c>
       <c r="T66" t="str">
         <v>simple</v>
@@ -5311,55 +5507,58 @@
       <c r="X66" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y66" t="str">
+        <v>PRO</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Avery</v>
+        <v>Remy</v>
       </c>
       <c r="B67" t="str">
-        <v>White</v>
+        <v>Hernandez</v>
       </c>
       <c r="C67" t="str">
-        <v>avery.white@gmail.com</v>
+        <v>remy.hernandez@test.com</v>
       </c>
       <c r="D67" t="str">
-        <v>https://linkedin.com/in/averywhite</v>
+        <v>https://linkedin.com/in/remyhernandez</v>
       </c>
       <c r="E67" t="str">
         <v/>
       </c>
       <c r="F67" t="str">
-        <v/>
+        <v>https://remyhernandez.vc</v>
       </c>
       <c r="G67" t="str">
-        <v>Austin, TX</v>
+        <v>Singapore</v>
       </c>
       <c r="H67" t="str">
-        <v>Experienced investor and former founder with expertise in Gaming</v>
+        <v>Experienced investor and former founder with expertise in Deep tech</v>
       </c>
       <c r="I67" t="str">
-        <v>100K-250K</v>
+        <v>10K-25K</v>
       </c>
       <c r="J67" t="str">
-        <v>Seed,Series C</v>
+        <v>Seed,Pre-seed</v>
       </c>
       <c r="K67" t="str">
-        <v>Climate tech,Consumer</v>
+        <v>Deep tech,Consumer</v>
       </c>
       <c r="L67" t="str">
-        <v>EMEA</v>
+        <v>Asia</v>
       </c>
       <c r="M67" t="str">
-        <v>advisory</v>
+        <v>passive</v>
       </c>
       <c r="N67" t="str">
         <v>ExampleCorp 66,StartupCo 67</v>
       </c>
       <c r="O67" t="str">
-        <v>Product,Engineering</v>
+        <v>Marketing,Sales</v>
       </c>
       <c r="P67" t="str">
-        <v>1 month</v>
+        <v>1-3 days</v>
       </c>
       <c r="Q67" t="str">
         <v>email</v>
@@ -5368,7 +5567,7 @@
         <v/>
       </c>
       <c r="S67" t="str">
-        <v>avery.white@gmail.com</v>
+        <v>remy.hernandez@test.com</v>
       </c>
       <c r="T67" t="str">
         <v>simple</v>
@@ -5385,55 +5584,58 @@
       <c r="X67" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y67" t="str">
+        <v>PRO</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Casey</v>
+        <v>Emery</v>
       </c>
       <c r="B68" t="str">
-        <v>Ramirez</v>
+        <v>Wilson</v>
       </c>
       <c r="C68" t="str">
-        <v>casey.ramirez@email.com</v>
+        <v>emery.wilson@gmail.com</v>
       </c>
       <c r="D68" t="str">
-        <v>https://linkedin.com/in/caseyramirez</v>
+        <v>https://linkedin.com/in/emerywilson</v>
       </c>
       <c r="E68" t="str">
-        <v>https://twitter.com/casey_ramirez</v>
+        <v/>
       </c>
       <c r="F68" t="str">
-        <v>https://caseyramirez.co</v>
+        <v/>
       </c>
       <c r="G68" t="str">
-        <v>Berlin, Germany</v>
+        <v>Seattle, WA</v>
       </c>
       <c r="H68" t="str">
-        <v>Experienced investor and former founder with expertise in Marketplace</v>
+        <v>Experienced investor and former founder with expertise in Web3</v>
       </c>
       <c r="I68" t="str">
-        <v>1K-10K</v>
+        <v>10K-25K</v>
       </c>
       <c r="J68" t="str">
-        <v>Seed,Series A</v>
+        <v>Pre-seed,Seed</v>
       </c>
       <c r="K68" t="str">
-        <v>Consumer,E-commerce</v>
+        <v>B2B SaaS,Fintech</v>
       </c>
       <c r="L68" t="str">
-        <v>Global</v>
+        <v>Asia</v>
       </c>
       <c r="M68" t="str">
-        <v>network-focused</v>
+        <v>passive</v>
       </c>
       <c r="N68" t="str">
         <v>ExampleCorp 67,StartupCo 68</v>
       </c>
       <c r="O68" t="str">
-        <v>Engineering,Product</v>
+        <v>Product,Operations</v>
       </c>
       <c r="P68" t="str">
-        <v>1 month</v>
+        <v>2 weeks</v>
       </c>
       <c r="Q68" t="str">
         <v>email</v>
@@ -5442,7 +5644,7 @@
         <v/>
       </c>
       <c r="S68" t="str">
-        <v>casey.ramirez@email.com</v>
+        <v>emery.wilson@gmail.com</v>
       </c>
       <c r="T68" t="str">
         <v>simple</v>
@@ -5459,55 +5661,58 @@
       <c r="X68" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y68" t="str">
+        <v>PRO</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Alex</v>
+        <v>Jordan</v>
       </c>
       <c r="B69" t="str">
-        <v>Robinson</v>
+        <v>Jones</v>
       </c>
       <c r="C69" t="str">
-        <v>alex.robinson@email.com</v>
+        <v>jordan.jones@demo.com</v>
       </c>
       <c r="D69" t="str">
-        <v>https://linkedin.com/in/alexrobinson</v>
+        <v>https://linkedin.com/in/jordanjones</v>
       </c>
       <c r="E69" t="str">
-        <v>https://twitter.com/alex_robinson</v>
+        <v/>
       </c>
       <c r="F69" t="str">
-        <v>https://alexrobinson.vc</v>
+        <v>https://jordanjones.com</v>
       </c>
       <c r="G69" t="str">
-        <v>San Francisco, CA</v>
+        <v>Boston, MA</v>
       </c>
       <c r="H69" t="str">
-        <v>Experienced investor and former founder with expertise in Web3</v>
+        <v>Experienced investor and former founder with expertise in Developer tools</v>
       </c>
       <c r="I69" t="str">
-        <v>50K-100K</v>
+        <v>10K-25K</v>
       </c>
       <c r="J69" t="str">
         <v>Series A,Series B</v>
       </c>
       <c r="K69" t="str">
-        <v>Gaming,E-commerce</v>
+        <v>Healthtech,Web3</v>
       </c>
       <c r="L69" t="str">
         <v>Global</v>
       </c>
       <c r="M69" t="str">
-        <v>passive</v>
+        <v>hands-on</v>
       </c>
       <c r="N69" t="str">
         <v>ExampleCorp 68,StartupCo 69</v>
       </c>
       <c r="O69" t="str">
-        <v>Engineering,Product</v>
+        <v>Marketing,Engineering</v>
       </c>
       <c r="P69" t="str">
-        <v>1 month</v>
+        <v>2 weeks</v>
       </c>
       <c r="Q69" t="str">
         <v>email</v>
@@ -5516,7 +5721,7 @@
         <v/>
       </c>
       <c r="S69" t="str">
-        <v>alex.robinson@email.com</v>
+        <v>jordan.jones@demo.com</v>
       </c>
       <c r="T69" t="str">
         <v>simple</v>
@@ -5533,31 +5738,34 @@
       <c r="X69" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y69" t="str">
+        <v>PRO</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Hayden</v>
+        <v>Storm</v>
       </c>
       <c r="B70" t="str">
-        <v>Williams</v>
+        <v>Thomas</v>
       </c>
       <c r="C70" t="str">
-        <v>hayden.williams@test.com</v>
+        <v>storm.thomas@test.com</v>
       </c>
       <c r="D70" t="str">
-        <v>https://linkedin.com/in/haydenwilliams</v>
+        <v>https://linkedin.com/in/stormthomas</v>
       </c>
       <c r="E70" t="str">
-        <v>https://twitter.com/hayden_williams</v>
+        <v/>
       </c>
       <c r="F70" t="str">
-        <v>https://haydenwilliams.vc</v>
+        <v/>
       </c>
       <c r="G70" t="str">
-        <v>New York, NY</v>
+        <v>Austin, TX</v>
       </c>
       <c r="H70" t="str">
-        <v>Experienced investor and former founder with expertise in Healthtech</v>
+        <v>Experienced investor and former founder with expertise in Web3</v>
       </c>
       <c r="I70" t="str">
         <v>25K-50K</v>
@@ -5566,22 +5774,22 @@
         <v>Series A,Seed</v>
       </c>
       <c r="K70" t="str">
-        <v>Climate tech,B2B SaaS</v>
+        <v>Gaming,B2B SaaS</v>
       </c>
       <c r="L70" t="str">
-        <v>Europe</v>
+        <v>EMEA</v>
       </c>
       <c r="M70" t="str">
-        <v>passive</v>
+        <v>network-focused</v>
       </c>
       <c r="N70" t="str">
         <v>ExampleCorp 69,StartupCo 70</v>
       </c>
       <c r="O70" t="str">
-        <v>Engineering,Sales</v>
+        <v>Engineering,Marketing</v>
       </c>
       <c r="P70" t="str">
-        <v>1-3 days</v>
+        <v>1 week</v>
       </c>
       <c r="Q70" t="str">
         <v>email</v>
@@ -5590,7 +5798,7 @@
         <v/>
       </c>
       <c r="S70" t="str">
-        <v>hayden.williams@test.com</v>
+        <v>storm.thomas@test.com</v>
       </c>
       <c r="T70" t="str">
         <v>simple</v>
@@ -5607,55 +5815,58 @@
       <c r="X70" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y70" t="str">
+        <v>PRO</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Casey</v>
+        <v>Sloan</v>
       </c>
       <c r="B71" t="str">
-        <v>Williams</v>
+        <v>Martinez</v>
       </c>
       <c r="C71" t="str">
-        <v>casey.williams@gmail.com</v>
+        <v>sloan.martinez@email.com</v>
       </c>
       <c r="D71" t="str">
-        <v>https://linkedin.com/in/caseywilliams</v>
+        <v>https://linkedin.com/in/sloanmartinez</v>
       </c>
       <c r="E71" t="str">
-        <v>https://twitter.com/casey_williams</v>
+        <v/>
       </c>
       <c r="F71" t="str">
-        <v>https://caseywilliams.vc</v>
+        <v/>
       </c>
       <c r="G71" t="str">
         <v>Austin, TX</v>
       </c>
       <c r="H71" t="str">
-        <v>Experienced investor and former founder with expertise in AI/ML</v>
+        <v>Experienced investor and former founder with expertise in Healthtech</v>
       </c>
       <c r="I71" t="str">
-        <v>10K-25K</v>
+        <v>50K-100K</v>
       </c>
       <c r="J71" t="str">
-        <v>Pre-seed,Series B</v>
+        <v>Seed,Series B</v>
       </c>
       <c r="K71" t="str">
-        <v>Healthtech,E-commerce</v>
+        <v>AI/ML,B2B SaaS</v>
       </c>
       <c r="L71" t="str">
-        <v>Asia</v>
+        <v>North America</v>
       </c>
       <c r="M71" t="str">
-        <v>advisory</v>
+        <v>hands-on</v>
       </c>
       <c r="N71" t="str">
         <v>ExampleCorp 70,StartupCo 71</v>
       </c>
       <c r="O71" t="str">
-        <v>Product,Engineering</v>
+        <v>Operations,Engineering</v>
       </c>
       <c r="P71" t="str">
-        <v>1 week</v>
+        <v>2 weeks</v>
       </c>
       <c r="Q71" t="str">
         <v>email</v>
@@ -5664,7 +5875,7 @@
         <v/>
       </c>
       <c r="S71" t="str">
-        <v>casey.williams@gmail.com</v>
+        <v>sloan.martinez@email.com</v>
       </c>
       <c r="T71" t="str">
         <v>simple</v>
@@ -5680,6 +5891,9 @@
       </c>
       <c r="X71" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="Y71" t="str">
+        <v>PRO</v>
       </c>
     </row>
     <row r="72">
@@ -5687,46 +5901,46 @@
         <v>Morgan</v>
       </c>
       <c r="B72" t="str">
-        <v>Robinson</v>
+        <v>Lee</v>
       </c>
       <c r="C72" t="str">
-        <v>morgan.robinson@demo.com</v>
+        <v>morgan.lee@email.com</v>
       </c>
       <c r="D72" t="str">
-        <v>https://linkedin.com/in/morganrobinson</v>
+        <v>https://linkedin.com/in/morganlee</v>
       </c>
       <c r="E72" t="str">
-        <v>https://twitter.com/morgan_robinson</v>
+        <v/>
       </c>
       <c r="F72" t="str">
-        <v>https://morganrobinson.com</v>
+        <v>https://morganlee.com</v>
       </c>
       <c r="G72" t="str">
         <v>Austin, TX</v>
       </c>
       <c r="H72" t="str">
-        <v>Experienced investor and former founder with expertise in AI/ML</v>
+        <v>Experienced investor and former founder with expertise in Healthtech</v>
       </c>
       <c r="I72" t="str">
-        <v>10K-25K</v>
+        <v>50K-100K</v>
       </c>
       <c r="J72" t="str">
         <v>Seed,Pre-seed</v>
       </c>
       <c r="K72" t="str">
-        <v>Web3,Healthtech</v>
+        <v>E-commerce,Climate tech</v>
       </c>
       <c r="L72" t="str">
-        <v>Europe</v>
+        <v>North America</v>
       </c>
       <c r="M72" t="str">
-        <v>passive</v>
+        <v>advisory</v>
       </c>
       <c r="N72" t="str">
         <v>ExampleCorp 71,StartupCo 72</v>
       </c>
       <c r="O72" t="str">
-        <v>Engineering,Product</v>
+        <v>Operations,Product</v>
       </c>
       <c r="P72" t="str">
         <v>1 week</v>
@@ -5738,7 +5952,7 @@
         <v/>
       </c>
       <c r="S72" t="str">
-        <v>morgan.robinson@demo.com</v>
+        <v>morgan.lee@email.com</v>
       </c>
       <c r="T72" t="str">
         <v>simple</v>
@@ -5755,55 +5969,58 @@
       <c r="X72" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y72" t="str">
+        <v>MAX</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Finley</v>
+        <v>Drew</v>
       </c>
       <c r="B73" t="str">
-        <v>Taylor</v>
+        <v>Brown</v>
       </c>
       <c r="C73" t="str">
-        <v>finley.taylor@email.com</v>
+        <v>drew.brown@demo.com</v>
       </c>
       <c r="D73" t="str">
-        <v>https://linkedin.com/in/finleytaylor</v>
+        <v>https://linkedin.com/in/drewbrown</v>
       </c>
       <c r="E73" t="str">
         <v/>
       </c>
       <c r="F73" t="str">
-        <v>https://finleytaylor.com</v>
+        <v/>
       </c>
       <c r="G73" t="str">
-        <v>Seattle, WA</v>
+        <v>New York, NY</v>
       </c>
       <c r="H73" t="str">
-        <v>Experienced investor and former founder with expertise in Climate tech</v>
+        <v>Experienced investor and former founder with expertise in E-commerce</v>
       </c>
       <c r="I73" t="str">
-        <v>25K-50K</v>
+        <v>10K-25K</v>
       </c>
       <c r="J73" t="str">
-        <v>Seed,Series B</v>
+        <v>Seed,Pre-seed</v>
       </c>
       <c r="K73" t="str">
-        <v>Web3,E-commerce</v>
+        <v>Developer tools,Healthtech</v>
       </c>
       <c r="L73" t="str">
-        <v>North America</v>
+        <v>Global</v>
       </c>
       <c r="M73" t="str">
-        <v>hands-on</v>
+        <v>passive</v>
       </c>
       <c r="N73" t="str">
         <v>ExampleCorp 72,StartupCo 73</v>
       </c>
       <c r="O73" t="str">
-        <v>Sales,Marketing</v>
+        <v>Engineering,Product</v>
       </c>
       <c r="P73" t="str">
-        <v>1 week</v>
+        <v>1-3 days</v>
       </c>
       <c r="Q73" t="str">
         <v>email</v>
@@ -5812,7 +6029,7 @@
         <v/>
       </c>
       <c r="S73" t="str">
-        <v>finley.taylor@email.com</v>
+        <v>drew.brown@demo.com</v>
       </c>
       <c r="T73" t="str">
         <v>simple</v>
@@ -5829,40 +6046,43 @@
       <c r="X73" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y73" t="str">
+        <v>MAX</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Kendall</v>
+        <v>Alex</v>
       </c>
       <c r="B74" t="str">
-        <v>Jackson</v>
+        <v>Robinson</v>
       </c>
       <c r="C74" t="str">
-        <v>kendall.jackson@demo.com</v>
+        <v>alex.robinson@test.com</v>
       </c>
       <c r="D74" t="str">
-        <v>https://linkedin.com/in/kendalljackson</v>
+        <v>https://linkedin.com/in/alexrobinson</v>
       </c>
       <c r="E74" t="str">
-        <v/>
+        <v>https://twitter.com/alex_robinson</v>
       </c>
       <c r="F74" t="str">
         <v/>
       </c>
       <c r="G74" t="str">
-        <v>Berlin, Germany</v>
+        <v>Boston, MA</v>
       </c>
       <c r="H74" t="str">
-        <v>Experienced investor and former founder with expertise in E-commerce</v>
+        <v>Experienced investor and former founder with expertise in Climate tech</v>
       </c>
       <c r="I74" t="str">
-        <v>25K-50K</v>
+        <v>100K-250K</v>
       </c>
       <c r="J74" t="str">
-        <v>Series C,Series B</v>
+        <v>Seed,Pre-seed</v>
       </c>
       <c r="K74" t="str">
-        <v>E-commerce,B2B SaaS</v>
+        <v>AI/ML,E-commerce</v>
       </c>
       <c r="L74" t="str">
         <v>Europe</v>
@@ -5874,10 +6094,10 @@
         <v>ExampleCorp 73,StartupCo 74</v>
       </c>
       <c r="O74" t="str">
-        <v>Engineering,Sales</v>
+        <v>Engineering,Marketing</v>
       </c>
       <c r="P74" t="str">
-        <v>2 weeks</v>
+        <v>1 month</v>
       </c>
       <c r="Q74" t="str">
         <v>email</v>
@@ -5886,7 +6106,7 @@
         <v/>
       </c>
       <c r="S74" t="str">
-        <v>kendall.jackson@demo.com</v>
+        <v>alex.robinson@test.com</v>
       </c>
       <c r="T74" t="str">
         <v>simple</v>
@@ -5903,55 +6123,58 @@
       <c r="X74" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y74" t="str">
+        <v>MAX</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Sawyer</v>
+        <v>Taylor</v>
       </c>
       <c r="B75" t="str">
-        <v>Hernandez</v>
+        <v>Clark</v>
       </c>
       <c r="C75" t="str">
-        <v>sawyer.hernandez@test.com</v>
+        <v>taylor.clark@demo.com</v>
       </c>
       <c r="D75" t="str">
-        <v>https://linkedin.com/in/sawyerhernandez</v>
+        <v>https://linkedin.com/in/taylorclark</v>
       </c>
       <c r="E75" t="str">
-        <v/>
+        <v>https://twitter.com/taylor_clark</v>
       </c>
       <c r="F75" t="str">
-        <v>https://sawyerhernandez.co</v>
+        <v/>
       </c>
       <c r="G75" t="str">
-        <v>Austin, TX</v>
+        <v>London, UK</v>
       </c>
       <c r="H75" t="str">
         <v>Experienced investor and former founder with expertise in Healthtech</v>
       </c>
       <c r="I75" t="str">
-        <v>100K-250K</v>
+        <v>50K-100K</v>
       </c>
       <c r="J75" t="str">
-        <v>Series A,Series B</v>
+        <v>Seed,Series B</v>
       </c>
       <c r="K75" t="str">
-        <v>Web3,AI/ML</v>
+        <v>E-commerce,B2B SaaS</v>
       </c>
       <c r="L75" t="str">
-        <v>Global</v>
+        <v>North America</v>
       </c>
       <c r="M75" t="str">
-        <v>advisory</v>
+        <v>passive</v>
       </c>
       <c r="N75" t="str">
         <v>ExampleCorp 74,StartupCo 75</v>
       </c>
       <c r="O75" t="str">
-        <v>Product,Engineering</v>
+        <v>Operations,Sales</v>
       </c>
       <c r="P75" t="str">
-        <v>1 week</v>
+        <v>1-3 days</v>
       </c>
       <c r="Q75" t="str">
         <v>email</v>
@@ -5960,7 +6183,7 @@
         <v/>
       </c>
       <c r="S75" t="str">
-        <v>sawyer.hernandez@test.com</v>
+        <v>taylor.clark@demo.com</v>
       </c>
       <c r="T75" t="str">
         <v>simple</v>
@@ -5977,40 +6200,43 @@
       <c r="X75" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y75" t="str">
+        <v>MAX</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Winter</v>
+        <v>Kendall</v>
       </c>
       <c r="B76" t="str">
-        <v>Jackson</v>
+        <v>Rodriguez</v>
       </c>
       <c r="C76" t="str">
-        <v>winter.jackson@email.com</v>
+        <v>kendall.rodriguez@demo.com</v>
       </c>
       <c r="D76" t="str">
-        <v>https://linkedin.com/in/winterjackson</v>
+        <v>https://linkedin.com/in/kendallrodriguez</v>
       </c>
       <c r="E76" t="str">
         <v/>
       </c>
       <c r="F76" t="str">
-        <v>https://winterjackson.com</v>
+        <v/>
       </c>
       <c r="G76" t="str">
         <v>Seattle, WA</v>
       </c>
       <c r="H76" t="str">
-        <v>Experienced investor and former founder with expertise in Web3</v>
+        <v>Experienced investor and former founder with expertise in Marketplace</v>
       </c>
       <c r="I76" t="str">
-        <v>10K-25K</v>
+        <v>100K-250K</v>
       </c>
       <c r="J76" t="str">
-        <v>Pre-seed,Seed</v>
+        <v>Pre-seed,Series B</v>
       </c>
       <c r="K76" t="str">
-        <v>B2B SaaS,Climate tech</v>
+        <v>Healthtech,Marketplace</v>
       </c>
       <c r="L76" t="str">
         <v>Asia</v>
@@ -6022,10 +6248,10 @@
         <v>ExampleCorp 75,StartupCo 76</v>
       </c>
       <c r="O76" t="str">
-        <v>Product,Engineering</v>
+        <v>Marketing,Product</v>
       </c>
       <c r="P76" t="str">
-        <v>1-3 days</v>
+        <v>1 week</v>
       </c>
       <c r="Q76" t="str">
         <v>email</v>
@@ -6034,7 +6260,7 @@
         <v/>
       </c>
       <c r="S76" t="str">
-        <v>winter.jackson@email.com</v>
+        <v>kendall.rodriguez@demo.com</v>
       </c>
       <c r="T76" t="str">
         <v>simple</v>
@@ -6051,55 +6277,58 @@
       <c r="X76" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y76" t="str">
+        <v>MAX</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Morgan</v>
+        <v>Storm</v>
       </c>
       <c r="B77" t="str">
-        <v>Lewis</v>
+        <v>Wilson</v>
       </c>
       <c r="C77" t="str">
-        <v>morgan.lewis@demo.com</v>
+        <v>storm.wilson@demo.com</v>
       </c>
       <c r="D77" t="str">
-        <v>https://linkedin.com/in/morganlewis</v>
+        <v>https://linkedin.com/in/stormwilson</v>
       </c>
       <c r="E77" t="str">
         <v/>
       </c>
       <c r="F77" t="str">
-        <v/>
+        <v>https://stormwilson.com</v>
       </c>
       <c r="G77" t="str">
-        <v>London, UK</v>
+        <v>Seattle, WA</v>
       </c>
       <c r="H77" t="str">
-        <v>Experienced investor and former founder with expertise in Climate tech</v>
+        <v>Experienced investor and former founder with expertise in Web3</v>
       </c>
       <c r="I77" t="str">
-        <v>50K-100K</v>
+        <v>1K-10K</v>
       </c>
       <c r="J77" t="str">
-        <v>Series B,Pre-seed</v>
+        <v>Pre-seed,Seed</v>
       </c>
       <c r="K77" t="str">
-        <v>B2B SaaS,AI/ML</v>
+        <v>Web3,Developer tools</v>
       </c>
       <c r="L77" t="str">
-        <v>Global</v>
+        <v>Asia</v>
       </c>
       <c r="M77" t="str">
-        <v>advisory</v>
+        <v>network-focused</v>
       </c>
       <c r="N77" t="str">
         <v>ExampleCorp 76,StartupCo 77</v>
       </c>
       <c r="O77" t="str">
-        <v>Marketing,Engineering</v>
+        <v>Sales,Engineering</v>
       </c>
       <c r="P77" t="str">
-        <v>1-3 days</v>
+        <v>1 month</v>
       </c>
       <c r="Q77" t="str">
         <v>email</v>
@@ -6108,7 +6337,7 @@
         <v/>
       </c>
       <c r="S77" t="str">
-        <v>morgan.lewis@demo.com</v>
+        <v>storm.wilson@demo.com</v>
       </c>
       <c r="T77" t="str">
         <v>simple</v>
@@ -6125,43 +6354,46 @@
       <c r="X77" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y77" t="str">
+        <v>MAX</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Reagan</v>
+        <v>Skylar</v>
       </c>
       <c r="B78" t="str">
-        <v>Harris</v>
+        <v>Lewis</v>
       </c>
       <c r="C78" t="str">
-        <v>reagan.harris@gmail.com</v>
+        <v>skylar.lewis@demo.com</v>
       </c>
       <c r="D78" t="str">
-        <v>https://linkedin.com/in/reaganharris</v>
+        <v>https://linkedin.com/in/skylarlewis</v>
       </c>
       <c r="E78" t="str">
-        <v>https://twitter.com/reagan_harris</v>
+        <v>https://twitter.com/skylar_lewis</v>
       </c>
       <c r="F78" t="str">
         <v/>
       </c>
       <c r="G78" t="str">
-        <v>London, UK</v>
+        <v>Singapore</v>
       </c>
       <c r="H78" t="str">
-        <v>Experienced investor and former founder with expertise in Gaming</v>
+        <v>Experienced investor and former founder with expertise in Fintech</v>
       </c>
       <c r="I78" t="str">
-        <v>1K-10K</v>
+        <v>100K-250K</v>
       </c>
       <c r="J78" t="str">
-        <v>Pre-seed,Series C</v>
+        <v>Seed,Series B</v>
       </c>
       <c r="K78" t="str">
-        <v>Climate tech,B2B SaaS</v>
+        <v>Web3,Fintech</v>
       </c>
       <c r="L78" t="str">
-        <v>Asia</v>
+        <v>Europe</v>
       </c>
       <c r="M78" t="str">
         <v>network-focused</v>
@@ -6170,10 +6402,10 @@
         <v>ExampleCorp 77,StartupCo 78</v>
       </c>
       <c r="O78" t="str">
-        <v>Operations,Engineering</v>
+        <v>Marketing,Product</v>
       </c>
       <c r="P78" t="str">
-        <v>1 week</v>
+        <v>2 weeks</v>
       </c>
       <c r="Q78" t="str">
         <v>email</v>
@@ -6182,7 +6414,7 @@
         <v/>
       </c>
       <c r="S78" t="str">
-        <v>reagan.harris@gmail.com</v>
+        <v>skylar.lewis@demo.com</v>
       </c>
       <c r="T78" t="str">
         <v>simple</v>
@@ -6198,6 +6430,9 @@
       </c>
       <c r="X78" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="Y78" t="str">
+        <v>MAX</v>
       </c>
     </row>
     <row r="79">
@@ -6205,49 +6440,49 @@
         <v>Morgan</v>
       </c>
       <c r="B79" t="str">
-        <v>Moore</v>
+        <v>Hernandez</v>
       </c>
       <c r="C79" t="str">
-        <v>morgan.moore@gmail.com</v>
+        <v>morgan.hernandez@gmail.com</v>
       </c>
       <c r="D79" t="str">
-        <v>https://linkedin.com/in/morganmoore</v>
+        <v>https://linkedin.com/in/morganhernandez</v>
       </c>
       <c r="E79" t="str">
-        <v>https://twitter.com/morgan_moore</v>
+        <v>https://twitter.com/morgan_hernandez</v>
       </c>
       <c r="F79" t="str">
         <v/>
       </c>
       <c r="G79" t="str">
-        <v>Austin, TX</v>
+        <v>San Francisco, CA</v>
       </c>
       <c r="H79" t="str">
-        <v>Experienced investor and former founder with expertise in Fintech</v>
+        <v>Experienced investor and former founder with expertise in E-commerce</v>
       </c>
       <c r="I79" t="str">
-        <v>100K-250K</v>
+        <v>25K-50K</v>
       </c>
       <c r="J79" t="str">
-        <v>Seed,Series B</v>
+        <v>Pre-seed,Series C</v>
       </c>
       <c r="K79" t="str">
-        <v>E-commerce,AI/ML</v>
+        <v>Healthtech,B2B SaaS</v>
       </c>
       <c r="L79" t="str">
-        <v>Asia</v>
+        <v>North America</v>
       </c>
       <c r="M79" t="str">
-        <v>hands-on</v>
+        <v>passive</v>
       </c>
       <c r="N79" t="str">
         <v>ExampleCorp 78,StartupCo 79</v>
       </c>
       <c r="O79" t="str">
-        <v>Engineering,Product</v>
+        <v>Product,Marketing</v>
       </c>
       <c r="P79" t="str">
-        <v>1 week</v>
+        <v>2 weeks</v>
       </c>
       <c r="Q79" t="str">
         <v>email</v>
@@ -6256,7 +6491,7 @@
         <v/>
       </c>
       <c r="S79" t="str">
-        <v>morgan.moore@gmail.com</v>
+        <v>morgan.hernandez@gmail.com</v>
       </c>
       <c r="T79" t="str">
         <v>simple</v>
@@ -6273,55 +6508,58 @@
       <c r="X79" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y79" t="str">
+        <v>MAX</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Casey</v>
+        <v>Parker</v>
       </c>
       <c r="B80" t="str">
-        <v>Lopez</v>
+        <v>Perez</v>
       </c>
       <c r="C80" t="str">
-        <v>casey.lopez@test.com</v>
+        <v>parker.perez@example.com</v>
       </c>
       <c r="D80" t="str">
-        <v>https://linkedin.com/in/caseylopez</v>
+        <v>https://linkedin.com/in/parkerperez</v>
       </c>
       <c r="E80" t="str">
-        <v>https://twitter.com/casey_lopez</v>
+        <v>https://twitter.com/parker_perez</v>
       </c>
       <c r="F80" t="str">
-        <v>https://caseylopez.co</v>
+        <v>https://parkerperez.capital</v>
       </c>
       <c r="G80" t="str">
-        <v>London, UK</v>
+        <v>Seattle, WA</v>
       </c>
       <c r="H80" t="str">
-        <v>Experienced investor and former founder with expertise in Healthtech</v>
+        <v>Experienced investor and former founder with expertise in AI/ML</v>
       </c>
       <c r="I80" t="str">
-        <v>25K-50K</v>
+        <v>100K-250K</v>
       </c>
       <c r="J80" t="str">
-        <v>Series B,Pre-seed</v>
+        <v>Series C,Series B</v>
       </c>
       <c r="K80" t="str">
-        <v>B2B SaaS,Fintech</v>
+        <v>B2B SaaS,Climate tech</v>
       </c>
       <c r="L80" t="str">
-        <v>EMEA</v>
+        <v>North America</v>
       </c>
       <c r="M80" t="str">
-        <v>hands-on</v>
+        <v>network-focused</v>
       </c>
       <c r="N80" t="str">
         <v>ExampleCorp 79,StartupCo 80</v>
       </c>
       <c r="O80" t="str">
-        <v>Sales,Product</v>
+        <v>Product,Sales</v>
       </c>
       <c r="P80" t="str">
-        <v>1-3 days</v>
+        <v>1 week</v>
       </c>
       <c r="Q80" t="str">
         <v>email</v>
@@ -6330,7 +6568,7 @@
         <v/>
       </c>
       <c r="S80" t="str">
-        <v>casey.lopez@test.com</v>
+        <v>parker.perez@example.com</v>
       </c>
       <c r="T80" t="str">
         <v>simple</v>
@@ -6347,52 +6585,55 @@
       <c r="X80" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y80" t="str">
+        <v>MAX</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Jordan</v>
+        <v>Riley</v>
       </c>
       <c r="B81" t="str">
-        <v>Martinez</v>
+        <v>Miller</v>
       </c>
       <c r="C81" t="str">
-        <v>jordan.martinez@email.com</v>
+        <v>riley.miller@demo.com</v>
       </c>
       <c r="D81" t="str">
-        <v>https://linkedin.com/in/jordanmartinez</v>
+        <v>https://linkedin.com/in/rileymiller</v>
       </c>
       <c r="E81" t="str">
-        <v>https://twitter.com/jordan_martinez</v>
+        <v/>
       </c>
       <c r="F81" t="str">
         <v/>
       </c>
       <c r="G81" t="str">
-        <v>Austin, TX</v>
+        <v>San Francisco, CA</v>
       </c>
       <c r="H81" t="str">
-        <v>Experienced investor and former founder with expertise in Marketplace</v>
+        <v>Experienced investor and former founder with expertise in E-commerce</v>
       </c>
       <c r="I81" t="str">
-        <v>1K-10K</v>
+        <v>25K-50K</v>
       </c>
       <c r="J81" t="str">
-        <v>Seed,Series A</v>
+        <v>Pre-seed,Series A</v>
       </c>
       <c r="K81" t="str">
-        <v>Consumer,Healthtech</v>
+        <v>E-commerce,Marketplace</v>
       </c>
       <c r="L81" t="str">
-        <v>Asia</v>
+        <v>Europe</v>
       </c>
       <c r="M81" t="str">
-        <v>passive</v>
+        <v>advisory</v>
       </c>
       <c r="N81" t="str">
         <v>ExampleCorp 80,StartupCo 81</v>
       </c>
       <c r="O81" t="str">
-        <v>Operations,Product</v>
+        <v>Operations,Sales</v>
       </c>
       <c r="P81" t="str">
         <v>1-3 days</v>
@@ -6404,7 +6645,7 @@
         <v/>
       </c>
       <c r="S81" t="str">
-        <v>jordan.martinez@email.com</v>
+        <v>riley.miller@demo.com</v>
       </c>
       <c r="T81" t="str">
         <v>simple</v>
@@ -6421,55 +6662,58 @@
       <c r="X81" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y81" t="str">
+        <v>MAX</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Alex</v>
+        <v>River</v>
       </c>
       <c r="B82" t="str">
-        <v>White</v>
+        <v>Gonzalez</v>
       </c>
       <c r="C82" t="str">
-        <v>alex.white@gmail.com</v>
+        <v>river.gonzalez@test.com</v>
       </c>
       <c r="D82" t="str">
-        <v>https://linkedin.com/in/alexwhite</v>
+        <v>https://linkedin.com/in/rivergonzalez</v>
       </c>
       <c r="E82" t="str">
-        <v/>
+        <v>https://twitter.com/river_gonzalez</v>
       </c>
       <c r="F82" t="str">
-        <v/>
+        <v>https://rivergonzalez.io</v>
       </c>
       <c r="G82" t="str">
-        <v>Seattle, WA</v>
+        <v>London, UK</v>
       </c>
       <c r="H82" t="str">
-        <v>Experienced investor and former founder with expertise in Gaming</v>
+        <v>Experienced investor and former founder with expertise in Consumer</v>
       </c>
       <c r="I82" t="str">
         <v>10K-25K</v>
       </c>
       <c r="J82" t="str">
-        <v>Series B,Series C</v>
+        <v>Pre-seed,Series C</v>
       </c>
       <c r="K82" t="str">
-        <v>Marketplace,Web3</v>
+        <v>Deep tech,Marketplace</v>
       </c>
       <c r="L82" t="str">
-        <v>Asia</v>
+        <v>North America</v>
       </c>
       <c r="M82" t="str">
-        <v>hands-on</v>
+        <v>passive</v>
       </c>
       <c r="N82" t="str">
         <v>ExampleCorp 81,StartupCo 82</v>
       </c>
       <c r="O82" t="str">
-        <v>Product,Engineering</v>
+        <v>Engineering,Sales</v>
       </c>
       <c r="P82" t="str">
-        <v>1 week</v>
+        <v>1-3 days</v>
       </c>
       <c r="Q82" t="str">
         <v>email</v>
@@ -6478,7 +6722,7 @@
         <v/>
       </c>
       <c r="S82" t="str">
-        <v>alex.white@gmail.com</v>
+        <v>river.gonzalez@test.com</v>
       </c>
       <c r="T82" t="str">
         <v>simple</v>
@@ -6494,6 +6738,9 @@
       </c>
       <c r="X82" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="Y82" t="str">
+        <v>MAX</v>
       </c>
     </row>
     <row r="83">
@@ -6501,49 +6748,49 @@
         <v>Drew</v>
       </c>
       <c r="B83" t="str">
-        <v>Thomas</v>
+        <v>Jones</v>
       </c>
       <c r="C83" t="str">
-        <v>drew.thomas@gmail.com</v>
+        <v>drew.jones@demo.com</v>
       </c>
       <c r="D83" t="str">
-        <v>https://linkedin.com/in/drewthomas</v>
+        <v>https://linkedin.com/in/drewjones</v>
       </c>
       <c r="E83" t="str">
         <v/>
       </c>
       <c r="F83" t="str">
-        <v>https://drewthomas.co</v>
+        <v>https://drewjones.io</v>
       </c>
       <c r="G83" t="str">
-        <v>London, UK</v>
+        <v>Boston, MA</v>
       </c>
       <c r="H83" t="str">
-        <v>Experienced investor and former founder with expertise in Developer tools</v>
+        <v>Experienced investor and former founder with expertise in Healthtech</v>
       </c>
       <c r="I83" t="str">
-        <v>25K-50K</v>
+        <v>50K-100K</v>
       </c>
       <c r="J83" t="str">
-        <v>Seed,Series A</v>
+        <v>Series B,Series A</v>
       </c>
       <c r="K83" t="str">
-        <v>Consumer,AI/ML</v>
+        <v>Web3,Deep tech</v>
       </c>
       <c r="L83" t="str">
-        <v>EMEA</v>
+        <v>North America</v>
       </c>
       <c r="M83" t="str">
-        <v>network-focused</v>
+        <v>passive</v>
       </c>
       <c r="N83" t="str">
         <v>ExampleCorp 82,StartupCo 83</v>
       </c>
       <c r="O83" t="str">
-        <v>Engineering,Product</v>
+        <v>Product,Marketing</v>
       </c>
       <c r="P83" t="str">
-        <v>1 month</v>
+        <v>2 weeks</v>
       </c>
       <c r="Q83" t="str">
         <v>email</v>
@@ -6552,7 +6799,7 @@
         <v/>
       </c>
       <c r="S83" t="str">
-        <v>drew.thomas@gmail.com</v>
+        <v>drew.jones@demo.com</v>
       </c>
       <c r="T83" t="str">
         <v>simple</v>
@@ -6569,55 +6816,58 @@
       <c r="X83" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y83" t="str">
+        <v>MAX</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Winter</v>
+        <v>Sage</v>
       </c>
       <c r="B84" t="str">
-        <v>Hernandez</v>
+        <v>Martinez</v>
       </c>
       <c r="C84" t="str">
-        <v>winter.hernandez@test.com</v>
+        <v>sage.martinez@email.com</v>
       </c>
       <c r="D84" t="str">
-        <v>https://linkedin.com/in/winterhernandez</v>
+        <v>https://linkedin.com/in/sagemartinez</v>
       </c>
       <c r="E84" t="str">
         <v/>
       </c>
       <c r="F84" t="str">
-        <v/>
+        <v>https://sagemartinez.com</v>
       </c>
       <c r="G84" t="str">
-        <v>Berlin, Germany</v>
+        <v>Seattle, WA</v>
       </c>
       <c r="H84" t="str">
-        <v>Experienced investor and former founder with expertise in AI/ML</v>
+        <v>Experienced investor and former founder with expertise in Gaming</v>
       </c>
       <c r="I84" t="str">
-        <v>10K-25K</v>
+        <v>100K-250K</v>
       </c>
       <c r="J84" t="str">
-        <v>Series C,Seed</v>
+        <v>Pre-seed,Seed</v>
       </c>
       <c r="K84" t="str">
-        <v>Climate tech,Healthtech</v>
+        <v>Healthtech,Web3</v>
       </c>
       <c r="L84" t="str">
-        <v>Global</v>
+        <v>EMEA</v>
       </c>
       <c r="M84" t="str">
-        <v>hands-on</v>
+        <v>advisory</v>
       </c>
       <c r="N84" t="str">
         <v>ExampleCorp 83,StartupCo 84</v>
       </c>
       <c r="O84" t="str">
-        <v>Sales,Product</v>
+        <v>Product,Engineering</v>
       </c>
       <c r="P84" t="str">
-        <v>1 week</v>
+        <v>1-3 days</v>
       </c>
       <c r="Q84" t="str">
         <v>email</v>
@@ -6626,7 +6876,7 @@
         <v/>
       </c>
       <c r="S84" t="str">
-        <v>winter.hernandez@test.com</v>
+        <v>sage.martinez@email.com</v>
       </c>
       <c r="T84" t="str">
         <v>simple</v>
@@ -6643,52 +6893,55 @@
       <c r="X84" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y84" t="str">
+        <v>MAX</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Quinn</v>
+        <v>Hayden</v>
       </c>
       <c r="B85" t="str">
-        <v>Moore</v>
+        <v>Robinson</v>
       </c>
       <c r="C85" t="str">
-        <v>quinn.moore@demo.com</v>
+        <v>hayden.robinson@test.com</v>
       </c>
       <c r="D85" t="str">
-        <v>https://linkedin.com/in/quinnmoore</v>
+        <v>https://linkedin.com/in/haydenrobinson</v>
       </c>
       <c r="E85" t="str">
-        <v/>
+        <v>https://twitter.com/hayden_robinson</v>
       </c>
       <c r="F85" t="str">
-        <v/>
+        <v>https://haydenrobinson.io</v>
       </c>
       <c r="G85" t="str">
-        <v>Seattle, WA</v>
+        <v>Berlin, Germany</v>
       </c>
       <c r="H85" t="str">
-        <v>Experienced investor and former founder with expertise in Climate tech</v>
+        <v>Experienced investor and former founder with expertise in Gaming</v>
       </c>
       <c r="I85" t="str">
-        <v>25K-50K</v>
+        <v>10K-25K</v>
       </c>
       <c r="J85" t="str">
-        <v>Series C,Series B</v>
+        <v>Series A,Series B</v>
       </c>
       <c r="K85" t="str">
-        <v>Web3,Climate tech</v>
+        <v>Consumer,B2B SaaS</v>
       </c>
       <c r="L85" t="str">
-        <v>Europe</v>
+        <v>Asia</v>
       </c>
       <c r="M85" t="str">
-        <v>network-focused</v>
+        <v>hands-on</v>
       </c>
       <c r="N85" t="str">
         <v>ExampleCorp 84,StartupCo 85</v>
       </c>
       <c r="O85" t="str">
-        <v>Marketing,Product</v>
+        <v>Engineering,Sales</v>
       </c>
       <c r="P85" t="str">
         <v>1 week</v>
@@ -6700,7 +6953,7 @@
         <v/>
       </c>
       <c r="S85" t="str">
-        <v>quinn.moore@demo.com</v>
+        <v>hayden.robinson@test.com</v>
       </c>
       <c r="T85" t="str">
         <v>simple</v>
@@ -6717,19 +6970,22 @@
       <c r="X85" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y85" t="str">
+        <v>MAX</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Reese</v>
+        <v>Taylor</v>
       </c>
       <c r="B86" t="str">
-        <v>Jones</v>
+        <v>Garcia</v>
       </c>
       <c r="C86" t="str">
-        <v>reese.jones@demo.com</v>
+        <v>taylor.garcia@demo.com</v>
       </c>
       <c r="D86" t="str">
-        <v>https://linkedin.com/in/reesejones</v>
+        <v>https://linkedin.com/in/taylorgarcia</v>
       </c>
       <c r="E86" t="str">
         <v/>
@@ -6741,16 +6997,16 @@
         <v>London, UK</v>
       </c>
       <c r="H86" t="str">
-        <v>Experienced investor and former founder with expertise in Marketplace</v>
+        <v>Experienced investor and former founder with expertise in Consumer</v>
       </c>
       <c r="I86" t="str">
-        <v>50K-100K</v>
+        <v>1K-10K</v>
       </c>
       <c r="J86" t="str">
-        <v>Pre-seed,Seed</v>
+        <v>Seed,Pre-seed</v>
       </c>
       <c r="K86" t="str">
-        <v>E-commerce,B2B SaaS</v>
+        <v>Deep tech,Marketplace</v>
       </c>
       <c r="L86" t="str">
         <v>Europe</v>
@@ -6762,10 +7018,10 @@
         <v>ExampleCorp 85,StartupCo 86</v>
       </c>
       <c r="O86" t="str">
-        <v>Sales,Engineering</v>
+        <v>Marketing,Engineering</v>
       </c>
       <c r="P86" t="str">
-        <v>1 week</v>
+        <v>1-3 days</v>
       </c>
       <c r="Q86" t="str">
         <v>email</v>
@@ -6774,7 +7030,7 @@
         <v/>
       </c>
       <c r="S86" t="str">
-        <v>reese.jones@demo.com</v>
+        <v>taylor.garcia@demo.com</v>
       </c>
       <c r="T86" t="str">
         <v>simple</v>
@@ -6791,55 +7047,58 @@
       <c r="X86" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y86" t="str">
+        <v>MAX</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Morgan</v>
+        <v>Jordan</v>
       </c>
       <c r="B87" t="str">
-        <v>Perez</v>
+        <v>Harris</v>
       </c>
       <c r="C87" t="str">
-        <v>morgan.perez@test.com</v>
+        <v>jordan.harris@test.com</v>
       </c>
       <c r="D87" t="str">
-        <v>https://linkedin.com/in/morganperez</v>
+        <v>https://linkedin.com/in/jordanharris</v>
       </c>
       <c r="E87" t="str">
-        <v>https://twitter.com/morgan_perez</v>
+        <v>https://twitter.com/jordan_harris</v>
       </c>
       <c r="F87" t="str">
-        <v>https://morganperez.co</v>
+        <v>https://jordanharris.capital</v>
       </c>
       <c r="G87" t="str">
         <v>San Francisco, CA</v>
       </c>
       <c r="H87" t="str">
-        <v>Experienced investor and former founder with expertise in Fintech</v>
+        <v>Experienced investor and former founder with expertise in AI/ML</v>
       </c>
       <c r="I87" t="str">
-        <v>100K-250K</v>
+        <v>50K-100K</v>
       </c>
       <c r="J87" t="str">
-        <v>Series A,Seed</v>
+        <v>Pre-seed,Series B</v>
       </c>
       <c r="K87" t="str">
-        <v>Consumer,AI/ML</v>
+        <v>Healthtech,E-commerce</v>
       </c>
       <c r="L87" t="str">
-        <v>North America</v>
+        <v>Europe</v>
       </c>
       <c r="M87" t="str">
-        <v>hands-on</v>
+        <v>network-focused</v>
       </c>
       <c r="N87" t="str">
         <v>ExampleCorp 86,StartupCo 87</v>
       </c>
       <c r="O87" t="str">
-        <v>Product,Sales</v>
+        <v>Engineering,Product</v>
       </c>
       <c r="P87" t="str">
-        <v>2 weeks</v>
+        <v>1 month</v>
       </c>
       <c r="Q87" t="str">
         <v>email</v>
@@ -6848,7 +7107,7 @@
         <v/>
       </c>
       <c r="S87" t="str">
-        <v>morgan.perez@test.com</v>
+        <v>jordan.harris@test.com</v>
       </c>
       <c r="T87" t="str">
         <v>simple</v>
@@ -6865,55 +7124,58 @@
       <c r="X87" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y87" t="str">
+        <v>MAX</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Jordan</v>
+        <v>Cameron</v>
       </c>
       <c r="B88" t="str">
-        <v>Lewis</v>
+        <v>Smith</v>
       </c>
       <c r="C88" t="str">
-        <v>jordan.lewis@email.com</v>
+        <v>cameron.smith@test.com</v>
       </c>
       <c r="D88" t="str">
-        <v>https://linkedin.com/in/jordanlewis</v>
+        <v>https://linkedin.com/in/cameronsmith</v>
       </c>
       <c r="E88" t="str">
-        <v/>
+        <v>https://twitter.com/cameron_smith</v>
       </c>
       <c r="F88" t="str">
-        <v/>
+        <v>https://cameronsmith.io</v>
       </c>
       <c r="G88" t="str">
-        <v>Berlin, Germany</v>
+        <v>Singapore</v>
       </c>
       <c r="H88" t="str">
-        <v>Experienced investor and former founder with expertise in Fintech</v>
+        <v>Experienced investor and former founder with expertise in Deep tech</v>
       </c>
       <c r="I88" t="str">
         <v>1K-10K</v>
       </c>
       <c r="J88" t="str">
-        <v>Series B,Series C</v>
+        <v>Series A,Series C</v>
       </c>
       <c r="K88" t="str">
-        <v>E-commerce,Gaming</v>
+        <v>B2B SaaS,Fintech</v>
       </c>
       <c r="L88" t="str">
-        <v>North America</v>
+        <v>Europe</v>
       </c>
       <c r="M88" t="str">
-        <v>passive</v>
+        <v>hands-on</v>
       </c>
       <c r="N88" t="str">
         <v>ExampleCorp 87,StartupCo 88</v>
       </c>
       <c r="O88" t="str">
-        <v>Sales,Engineering</v>
+        <v>Product,Operations</v>
       </c>
       <c r="P88" t="str">
-        <v>1 week</v>
+        <v>1 month</v>
       </c>
       <c r="Q88" t="str">
         <v>email</v>
@@ -6922,7 +7184,7 @@
         <v/>
       </c>
       <c r="S88" t="str">
-        <v>jordan.lewis@email.com</v>
+        <v>cameron.smith@test.com</v>
       </c>
       <c r="T88" t="str">
         <v>simple</v>
@@ -6939,55 +7201,58 @@
       <c r="X88" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y88" t="str">
+        <v>MAX</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Finley</v>
+        <v>Wren</v>
       </c>
       <c r="B89" t="str">
-        <v>Jones</v>
+        <v>Lee</v>
       </c>
       <c r="C89" t="str">
-        <v>finley.jones@email.com</v>
+        <v>wren.lee@test.com</v>
       </c>
       <c r="D89" t="str">
-        <v>https://linkedin.com/in/finleyjones</v>
+        <v>https://linkedin.com/in/wrenlee</v>
       </c>
       <c r="E89" t="str">
-        <v>https://twitter.com/finley_jones</v>
+        <v>https://twitter.com/wren_lee</v>
       </c>
       <c r="F89" t="str">
         <v/>
       </c>
       <c r="G89" t="str">
-        <v>Boston, MA</v>
+        <v>New York, NY</v>
       </c>
       <c r="H89" t="str">
-        <v>Experienced investor and former founder with expertise in Marketplace</v>
+        <v>Experienced investor and former founder with expertise in E-commerce</v>
       </c>
       <c r="I89" t="str">
-        <v>25K-50K</v>
+        <v>100K-250K</v>
       </c>
       <c r="J89" t="str">
-        <v>Seed,Pre-seed</v>
+        <v>Pre-seed,Seed</v>
       </c>
       <c r="K89" t="str">
-        <v>B2B SaaS,Consumer</v>
+        <v>Healthtech,Climate tech</v>
       </c>
       <c r="L89" t="str">
-        <v>Global</v>
+        <v>North America</v>
       </c>
       <c r="M89" t="str">
-        <v>passive</v>
+        <v>network-focused</v>
       </c>
       <c r="N89" t="str">
         <v>ExampleCorp 88,StartupCo 89</v>
       </c>
       <c r="O89" t="str">
-        <v>Product,Engineering</v>
+        <v>Sales,Engineering</v>
       </c>
       <c r="P89" t="str">
-        <v>2 weeks</v>
+        <v>1-3 days</v>
       </c>
       <c r="Q89" t="str">
         <v>email</v>
@@ -6996,7 +7261,7 @@
         <v/>
       </c>
       <c r="S89" t="str">
-        <v>finley.jones@email.com</v>
+        <v>wren.lee@test.com</v>
       </c>
       <c r="T89" t="str">
         <v>simple</v>
@@ -7013,43 +7278,46 @@
       <c r="X89" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y89" t="str">
+        <v>MAX</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Blake</v>
+        <v>Casey</v>
       </c>
       <c r="B90" t="str">
-        <v>Thompson</v>
+        <v>Johnson</v>
       </c>
       <c r="C90" t="str">
-        <v>blake.thompson@demo.com</v>
+        <v>casey.johnson@email.com</v>
       </c>
       <c r="D90" t="str">
-        <v>https://linkedin.com/in/blakethompson</v>
+        <v>https://linkedin.com/in/caseyjohnson</v>
       </c>
       <c r="E90" t="str">
-        <v>https://twitter.com/blake_thompson</v>
+        <v/>
       </c>
       <c r="F90" t="str">
-        <v>https://blakethompson.co</v>
+        <v>https://caseyjohnson.com</v>
       </c>
       <c r="G90" t="str">
-        <v>London, UK</v>
+        <v>Seattle, WA</v>
       </c>
       <c r="H90" t="str">
-        <v>Experienced investor and former founder with expertise in Deep tech</v>
+        <v>Experienced investor and former founder with expertise in Marketplace</v>
       </c>
       <c r="I90" t="str">
-        <v>100K-250K</v>
+        <v>10K-25K</v>
       </c>
       <c r="J90" t="str">
-        <v>Series B,Series A</v>
+        <v>Pre-seed,Seed</v>
       </c>
       <c r="K90" t="str">
-        <v>Climate tech,Fintech</v>
+        <v>Consumer,Gaming</v>
       </c>
       <c r="L90" t="str">
-        <v>Europe</v>
+        <v>North America</v>
       </c>
       <c r="M90" t="str">
         <v>advisory</v>
@@ -7061,7 +7329,7 @@
         <v>Sales,Engineering</v>
       </c>
       <c r="P90" t="str">
-        <v>1 week</v>
+        <v>2 weeks</v>
       </c>
       <c r="Q90" t="str">
         <v>email</v>
@@ -7070,7 +7338,7 @@
         <v/>
       </c>
       <c r="S90" t="str">
-        <v>blake.thompson@demo.com</v>
+        <v>casey.johnson@email.com</v>
       </c>
       <c r="T90" t="str">
         <v>simple</v>
@@ -7087,19 +7355,22 @@
       <c r="X90" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y90" t="str">
+        <v>MAX</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Avery</v>
+        <v>Morgan</v>
       </c>
       <c r="B91" t="str">
-        <v>Taylor</v>
+        <v>Harris</v>
       </c>
       <c r="C91" t="str">
-        <v>avery.taylor@email.com</v>
+        <v>morgan.harris@test.com</v>
       </c>
       <c r="D91" t="str">
-        <v>https://linkedin.com/in/averytaylor</v>
+        <v>https://linkedin.com/in/morganharris</v>
       </c>
       <c r="E91" t="str">
         <v/>
@@ -7108,34 +7379,34 @@
         <v/>
       </c>
       <c r="G91" t="str">
-        <v>Berlin, Germany</v>
+        <v>New York, NY</v>
       </c>
       <c r="H91" t="str">
-        <v>Experienced investor and former founder with expertise in Healthtech</v>
+        <v>Experienced investor and former founder with expertise in Marketplace</v>
       </c>
       <c r="I91" t="str">
         <v>50K-100K</v>
       </c>
       <c r="J91" t="str">
-        <v>Seed,Series C</v>
+        <v>Series C,Series B</v>
       </c>
       <c r="K91" t="str">
-        <v>B2B SaaS,Gaming</v>
+        <v>B2B SaaS,Climate tech</v>
       </c>
       <c r="L91" t="str">
-        <v>Europe</v>
+        <v>Asia</v>
       </c>
       <c r="M91" t="str">
-        <v>passive</v>
+        <v>network-focused</v>
       </c>
       <c r="N91" t="str">
         <v>ExampleCorp 90,StartupCo 91</v>
       </c>
       <c r="O91" t="str">
-        <v>Product,Sales</v>
+        <v>Operations,Marketing</v>
       </c>
       <c r="P91" t="str">
-        <v>2 weeks</v>
+        <v>1-3 days</v>
       </c>
       <c r="Q91" t="str">
         <v>email</v>
@@ -7144,7 +7415,7 @@
         <v/>
       </c>
       <c r="S91" t="str">
-        <v>avery.taylor@email.com</v>
+        <v>morgan.harris@test.com</v>
       </c>
       <c r="T91" t="str">
         <v>simple</v>
@@ -7161,52 +7432,55 @@
       <c r="X91" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y91" t="str">
+        <v>MAX</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Jordan</v>
+        <v>Logan</v>
       </c>
       <c r="B92" t="str">
-        <v>Davis</v>
+        <v>Thompson</v>
       </c>
       <c r="C92" t="str">
-        <v>jordan.davis@email.com</v>
+        <v>logan.thompson@example.com</v>
       </c>
       <c r="D92" t="str">
-        <v>https://linkedin.com/in/jordandavis</v>
+        <v>https://linkedin.com/in/loganthompson</v>
       </c>
       <c r="E92" t="str">
-        <v/>
+        <v>https://twitter.com/logan_thompson</v>
       </c>
       <c r="F92" t="str">
-        <v/>
+        <v>https://loganthompson.com</v>
       </c>
       <c r="G92" t="str">
-        <v>Seattle, WA</v>
+        <v>Austin, TX</v>
       </c>
       <c r="H92" t="str">
-        <v>Experienced investor and former founder with expertise in Marketplace</v>
+        <v>Experienced investor and former founder with expertise in Climate tech</v>
       </c>
       <c r="I92" t="str">
         <v>50K-100K</v>
       </c>
       <c r="J92" t="str">
-        <v>Series B,Seed</v>
+        <v>Pre-seed,Series B</v>
       </c>
       <c r="K92" t="str">
-        <v>Healthtech,Marketplace</v>
+        <v>Developer tools,Web3</v>
       </c>
       <c r="L92" t="str">
-        <v>North America</v>
+        <v>Asia</v>
       </c>
       <c r="M92" t="str">
-        <v>passive</v>
+        <v>network-focused</v>
       </c>
       <c r="N92" t="str">
         <v>ExampleCorp 91,StartupCo 92</v>
       </c>
       <c r="O92" t="str">
-        <v>Product,Marketing</v>
+        <v>Operations,Sales</v>
       </c>
       <c r="P92" t="str">
         <v>1-3 days</v>
@@ -7218,7 +7492,7 @@
         <v/>
       </c>
       <c r="S92" t="str">
-        <v>jordan.davis@email.com</v>
+        <v>logan.thompson@example.com</v>
       </c>
       <c r="T92" t="str">
         <v>simple</v>
@@ -7235,52 +7509,55 @@
       <c r="X92" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y92" t="str">
+        <v>MAX</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Sawyer</v>
+        <v>Finley</v>
       </c>
       <c r="B93" t="str">
-        <v>Taylor</v>
+        <v>Thomas</v>
       </c>
       <c r="C93" t="str">
-        <v>sawyer.taylor@email.com</v>
+        <v>finley.thomas@email.com</v>
       </c>
       <c r="D93" t="str">
-        <v>https://linkedin.com/in/sawyertaylor</v>
+        <v>https://linkedin.com/in/finleythomas</v>
       </c>
       <c r="E93" t="str">
-        <v>https://twitter.com/sawyer_taylor</v>
+        <v>https://twitter.com/finley_thomas</v>
       </c>
       <c r="F93" t="str">
         <v/>
       </c>
       <c r="G93" t="str">
-        <v>Singapore</v>
+        <v>New York, NY</v>
       </c>
       <c r="H93" t="str">
-        <v>Experienced investor and former founder with expertise in Deep tech</v>
+        <v>Experienced investor and former founder with expertise in Climate tech</v>
       </c>
       <c r="I93" t="str">
-        <v>25K-50K</v>
+        <v>100K-250K</v>
       </c>
       <c r="J93" t="str">
-        <v>Seed,Series A</v>
+        <v>Series A,Pre-seed</v>
       </c>
       <c r="K93" t="str">
-        <v>Healthtech,E-commerce</v>
+        <v>Marketplace,B2B SaaS</v>
       </c>
       <c r="L93" t="str">
-        <v>Asia</v>
+        <v>Europe</v>
       </c>
       <c r="M93" t="str">
-        <v>advisory</v>
+        <v>passive</v>
       </c>
       <c r="N93" t="str">
         <v>ExampleCorp 92,StartupCo 93</v>
       </c>
       <c r="O93" t="str">
-        <v>Marketing,Product</v>
+        <v>Engineering,Marketing</v>
       </c>
       <c r="P93" t="str">
         <v>1 month</v>
@@ -7292,7 +7569,7 @@
         <v/>
       </c>
       <c r="S93" t="str">
-        <v>sawyer.taylor@email.com</v>
+        <v>finley.thomas@email.com</v>
       </c>
       <c r="T93" t="str">
         <v>simple</v>
@@ -7309,55 +7586,58 @@
       <c r="X93" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y93" t="str">
+        <v>MAX</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Sage</v>
+        <v>Skylar</v>
       </c>
       <c r="B94" t="str">
-        <v>Davis</v>
+        <v>Brown</v>
       </c>
       <c r="C94" t="str">
-        <v>sage.davis@email.com</v>
+        <v>skylar.brown@test.com</v>
       </c>
       <c r="D94" t="str">
-        <v>https://linkedin.com/in/sagedavis</v>
+        <v>https://linkedin.com/in/skylarbrown</v>
       </c>
       <c r="E94" t="str">
-        <v>https://twitter.com/sage_davis</v>
+        <v/>
       </c>
       <c r="F94" t="str">
-        <v>https://sagedavis.com</v>
+        <v>https://skylarbrown.co</v>
       </c>
       <c r="G94" t="str">
-        <v>San Francisco, CA</v>
+        <v>Seattle, WA</v>
       </c>
       <c r="H94" t="str">
-        <v>Experienced investor and former founder with expertise in B2B SaaS</v>
+        <v>Experienced investor and former founder with expertise in Deep tech</v>
       </c>
       <c r="I94" t="str">
         <v>1K-10K</v>
       </c>
       <c r="J94" t="str">
-        <v>Pre-seed,Series C</v>
+        <v>Series A,Seed</v>
       </c>
       <c r="K94" t="str">
-        <v>Fintech,Web3</v>
+        <v>B2B SaaS,Deep tech</v>
       </c>
       <c r="L94" t="str">
-        <v>Asia</v>
+        <v>EMEA</v>
       </c>
       <c r="M94" t="str">
-        <v>hands-on</v>
+        <v>advisory</v>
       </c>
       <c r="N94" t="str">
         <v>ExampleCorp 93,StartupCo 94</v>
       </c>
       <c r="O94" t="str">
-        <v>Sales,Engineering</v>
+        <v>Product,Sales</v>
       </c>
       <c r="P94" t="str">
-        <v>1 month</v>
+        <v>1 week</v>
       </c>
       <c r="Q94" t="str">
         <v>email</v>
@@ -7366,7 +7646,7 @@
         <v/>
       </c>
       <c r="S94" t="str">
-        <v>sage.davis@email.com</v>
+        <v>skylar.brown@test.com</v>
       </c>
       <c r="T94" t="str">
         <v>simple</v>
@@ -7383,43 +7663,46 @@
       <c r="X94" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y94" t="str">
+        <v>MAX</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Quinn</v>
+        <v>Finley</v>
       </c>
       <c r="B95" t="str">
-        <v>Miller</v>
+        <v>Smith</v>
       </c>
       <c r="C95" t="str">
-        <v>quinn.miller@email.com</v>
+        <v>finley.smith@gmail.com</v>
       </c>
       <c r="D95" t="str">
-        <v>https://linkedin.com/in/quinnmiller</v>
+        <v>https://linkedin.com/in/finleysmith</v>
       </c>
       <c r="E95" t="str">
         <v/>
       </c>
       <c r="F95" t="str">
-        <v>https://quinnmiller.io</v>
+        <v>https://finleysmith.vc</v>
       </c>
       <c r="G95" t="str">
         <v>Seattle, WA</v>
       </c>
       <c r="H95" t="str">
-        <v>Experienced investor and former founder with expertise in Developer tools</v>
+        <v>Experienced investor and former founder with expertise in Marketplace</v>
       </c>
       <c r="I95" t="str">
-        <v>50K-100K</v>
+        <v>25K-50K</v>
       </c>
       <c r="J95" t="str">
-        <v>Series A,Pre-seed</v>
+        <v>Series B,Pre-seed</v>
       </c>
       <c r="K95" t="str">
-        <v>E-commerce,Climate tech</v>
+        <v>Fintech,AI/ML</v>
       </c>
       <c r="L95" t="str">
-        <v>Europe</v>
+        <v>Asia</v>
       </c>
       <c r="M95" t="str">
         <v>network-focused</v>
@@ -7428,7 +7711,7 @@
         <v>ExampleCorp 94,StartupCo 95</v>
       </c>
       <c r="O95" t="str">
-        <v>Operations,Product</v>
+        <v>Product,Engineering</v>
       </c>
       <c r="P95" t="str">
         <v>1 week</v>
@@ -7440,7 +7723,7 @@
         <v/>
       </c>
       <c r="S95" t="str">
-        <v>quinn.miller@email.com</v>
+        <v>finley.smith@gmail.com</v>
       </c>
       <c r="T95" t="str">
         <v>simple</v>
@@ -7457,19 +7740,22 @@
       <c r="X95" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y95" t="str">
+        <v>MAX</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Finley</v>
+        <v>Hayden</v>
       </c>
       <c r="B96" t="str">
-        <v>Ramirez</v>
+        <v>Sanchez</v>
       </c>
       <c r="C96" t="str">
-        <v>finley.ramirez@gmail.com</v>
+        <v>hayden.sanchez@demo.com</v>
       </c>
       <c r="D96" t="str">
-        <v>https://linkedin.com/in/finleyramirez</v>
+        <v>https://linkedin.com/in/haydensanchez</v>
       </c>
       <c r="E96" t="str">
         <v/>
@@ -7478,34 +7764,34 @@
         <v/>
       </c>
       <c r="G96" t="str">
-        <v>Boston, MA</v>
+        <v>Singapore</v>
       </c>
       <c r="H96" t="str">
-        <v>Experienced investor and former founder with expertise in Web3</v>
+        <v>Experienced investor and former founder with expertise in AI/ML</v>
       </c>
       <c r="I96" t="str">
-        <v>50K-100K</v>
+        <v>25K-50K</v>
       </c>
       <c r="J96" t="str">
-        <v>Seed,Pre-seed</v>
+        <v>Series B,Series A</v>
       </c>
       <c r="K96" t="str">
-        <v>Gaming,Deep tech</v>
+        <v>Climate tech,Consumer</v>
       </c>
       <c r="L96" t="str">
-        <v>Asia</v>
+        <v>Europe</v>
       </c>
       <c r="M96" t="str">
-        <v>advisory</v>
+        <v>passive</v>
       </c>
       <c r="N96" t="str">
         <v>ExampleCorp 95,StartupCo 96</v>
       </c>
       <c r="O96" t="str">
-        <v>Engineering,Product</v>
+        <v>Marketing,Operations</v>
       </c>
       <c r="P96" t="str">
-        <v>1 week</v>
+        <v>1-3 days</v>
       </c>
       <c r="Q96" t="str">
         <v>email</v>
@@ -7514,7 +7800,7 @@
         <v/>
       </c>
       <c r="S96" t="str">
-        <v>finley.ramirez@gmail.com</v>
+        <v>hayden.sanchez@demo.com</v>
       </c>
       <c r="T96" t="str">
         <v>simple</v>
@@ -7531,43 +7817,46 @@
       <c r="X96" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y96" t="str">
+        <v>MAX</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Rowan</v>
+        <v>Kendall</v>
       </c>
       <c r="B97" t="str">
-        <v>Moore</v>
+        <v>Garcia</v>
       </c>
       <c r="C97" t="str">
-        <v>rowan.moore@example.com</v>
+        <v>kendall.garcia@test.com</v>
       </c>
       <c r="D97" t="str">
-        <v>https://linkedin.com/in/rowanmoore</v>
+        <v>https://linkedin.com/in/kendallgarcia</v>
       </c>
       <c r="E97" t="str">
-        <v>https://twitter.com/rowan_moore</v>
+        <v/>
       </c>
       <c r="F97" t="str">
         <v/>
       </c>
       <c r="G97" t="str">
-        <v>Seattle, WA</v>
+        <v>Berlin, Germany</v>
       </c>
       <c r="H97" t="str">
-        <v>Experienced investor and former founder with expertise in Fintech</v>
+        <v>Experienced investor and former founder with expertise in Consumer</v>
       </c>
       <c r="I97" t="str">
-        <v>25K-50K</v>
+        <v>10K-25K</v>
       </c>
       <c r="J97" t="str">
-        <v>Series B,Series C</v>
+        <v>Series B,Pre-seed</v>
       </c>
       <c r="K97" t="str">
-        <v>Deep tech,Gaming</v>
+        <v>B2B SaaS,E-commerce</v>
       </c>
       <c r="L97" t="str">
-        <v>Europe</v>
+        <v>Asia</v>
       </c>
       <c r="M97" t="str">
         <v>advisory</v>
@@ -7576,10 +7865,10 @@
         <v>ExampleCorp 96,StartupCo 97</v>
       </c>
       <c r="O97" t="str">
-        <v>Sales,Operations</v>
+        <v>Product,Operations</v>
       </c>
       <c r="P97" t="str">
-        <v>1-3 days</v>
+        <v>1 month</v>
       </c>
       <c r="Q97" t="str">
         <v>email</v>
@@ -7588,7 +7877,7 @@
         <v/>
       </c>
       <c r="S97" t="str">
-        <v>rowan.moore@example.com</v>
+        <v>kendall.garcia@test.com</v>
       </c>
       <c r="T97" t="str">
         <v>simple</v>
@@ -7605,55 +7894,58 @@
       <c r="X97" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y97" t="str">
+        <v>MAX</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Hayden</v>
+        <v>Tatum</v>
       </c>
       <c r="B98" t="str">
-        <v>Lewis</v>
+        <v>White</v>
       </c>
       <c r="C98" t="str">
-        <v>hayden.lewis@email.com</v>
+        <v>tatum.white@test.com</v>
       </c>
       <c r="D98" t="str">
-        <v>https://linkedin.com/in/haydenlewis</v>
+        <v>https://linkedin.com/in/tatumwhite</v>
       </c>
       <c r="E98" t="str">
-        <v>https://twitter.com/hayden_lewis</v>
+        <v>https://twitter.com/tatum_white</v>
       </c>
       <c r="F98" t="str">
-        <v>https://haydenlewis.co</v>
+        <v/>
       </c>
       <c r="G98" t="str">
-        <v>New York, NY</v>
+        <v>San Francisco, CA</v>
       </c>
       <c r="H98" t="str">
-        <v>Experienced investor and former founder with expertise in Gaming</v>
+        <v>Experienced investor and former founder with expertise in Developer tools</v>
       </c>
       <c r="I98" t="str">
-        <v>10K-25K</v>
+        <v>1K-10K</v>
       </c>
       <c r="J98" t="str">
         <v>Seed,Pre-seed</v>
       </c>
       <c r="K98" t="str">
-        <v>Climate tech,Healthtech</v>
+        <v>AI/ML,Consumer</v>
       </c>
       <c r="L98" t="str">
-        <v>Global</v>
+        <v>EMEA</v>
       </c>
       <c r="M98" t="str">
-        <v>advisory</v>
+        <v>passive</v>
       </c>
       <c r="N98" t="str">
         <v>ExampleCorp 97,StartupCo 98</v>
       </c>
       <c r="O98" t="str">
-        <v>Engineering,Product</v>
+        <v>Product,Engineering</v>
       </c>
       <c r="P98" t="str">
-        <v>1 month</v>
+        <v>1 week</v>
       </c>
       <c r="Q98" t="str">
         <v>email</v>
@@ -7662,7 +7954,7 @@
         <v/>
       </c>
       <c r="S98" t="str">
-        <v>hayden.lewis@email.com</v>
+        <v>tatum.white@test.com</v>
       </c>
       <c r="T98" t="str">
         <v>simple</v>
@@ -7679,52 +7971,55 @@
       <c r="X98" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y98" t="str">
+        <v>MAX</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Winter</v>
+        <v>Avery</v>
       </c>
       <c r="B99" t="str">
-        <v>Garcia</v>
+        <v>Martin</v>
       </c>
       <c r="C99" t="str">
-        <v>winter.garcia@test.com</v>
+        <v>avery.martin@test.com</v>
       </c>
       <c r="D99" t="str">
-        <v>https://linkedin.com/in/wintergarcia</v>
+        <v>https://linkedin.com/in/averymartin</v>
       </c>
       <c r="E99" t="str">
-        <v>https://twitter.com/winter_garcia</v>
+        <v/>
       </c>
       <c r="F99" t="str">
-        <v/>
+        <v>https://averymartin.io</v>
       </c>
       <c r="G99" t="str">
-        <v>Berlin, Germany</v>
+        <v>New York, NY</v>
       </c>
       <c r="H99" t="str">
-        <v>Experienced investor and former founder with expertise in Consumer</v>
+        <v>Experienced investor and former founder with expertise in Gaming</v>
       </c>
       <c r="I99" t="str">
-        <v>25K-50K</v>
+        <v>100K-250K</v>
       </c>
       <c r="J99" t="str">
-        <v>Series B,Series A</v>
+        <v>Seed,Pre-seed</v>
       </c>
       <c r="K99" t="str">
-        <v>Consumer,Deep tech</v>
+        <v>B2B SaaS,Web3</v>
       </c>
       <c r="L99" t="str">
-        <v>EMEA</v>
+        <v>Europe</v>
       </c>
       <c r="M99" t="str">
-        <v>network-focused</v>
+        <v>passive</v>
       </c>
       <c r="N99" t="str">
         <v>ExampleCorp 98,StartupCo 99</v>
       </c>
       <c r="O99" t="str">
-        <v>Product,Engineering</v>
+        <v>Engineering,Sales</v>
       </c>
       <c r="P99" t="str">
         <v>1-3 days</v>
@@ -7736,7 +8031,7 @@
         <v/>
       </c>
       <c r="S99" t="str">
-        <v>winter.garcia@test.com</v>
+        <v>avery.martin@test.com</v>
       </c>
       <c r="T99" t="str">
         <v>simple</v>
@@ -7753,52 +8048,55 @@
       <c r="X99" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y99" t="str">
+        <v>MAX</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Alex</v>
+        <v>Avery</v>
       </c>
       <c r="B100" t="str">
-        <v>Lewis</v>
+        <v>Robinson</v>
       </c>
       <c r="C100" t="str">
-        <v>alex.lewis@demo.com</v>
+        <v>avery.robinson@demo.com</v>
       </c>
       <c r="D100" t="str">
-        <v>https://linkedin.com/in/alexlewis</v>
+        <v>https://linkedin.com/in/averyrobinson</v>
       </c>
       <c r="E100" t="str">
         <v/>
       </c>
       <c r="F100" t="str">
-        <v/>
+        <v>https://averyrobinson.io</v>
       </c>
       <c r="G100" t="str">
-        <v>Singapore</v>
+        <v>Berlin, Germany</v>
       </c>
       <c r="H100" t="str">
-        <v>Experienced investor and former founder with expertise in Fintech</v>
+        <v>Experienced investor and former founder with expertise in AI/ML</v>
       </c>
       <c r="I100" t="str">
-        <v>25K-50K</v>
+        <v>10K-25K</v>
       </c>
       <c r="J100" t="str">
-        <v>Series B,Series A</v>
+        <v>Series B,Seed</v>
       </c>
       <c r="K100" t="str">
-        <v>Developer tools,Marketplace</v>
+        <v>B2B SaaS,E-commerce</v>
       </c>
       <c r="L100" t="str">
-        <v>Asia</v>
+        <v>Europe</v>
       </c>
       <c r="M100" t="str">
-        <v>network-focused</v>
+        <v>advisory</v>
       </c>
       <c r="N100" t="str">
         <v>ExampleCorp 99,StartupCo 100</v>
       </c>
       <c r="O100" t="str">
-        <v>Product,Sales</v>
+        <v>Operations,Engineering</v>
       </c>
       <c r="P100" t="str">
         <v>2 weeks</v>
@@ -7810,7 +8108,7 @@
         <v/>
       </c>
       <c r="S100" t="str">
-        <v>alex.lewis@demo.com</v>
+        <v>avery.robinson@demo.com</v>
       </c>
       <c r="T100" t="str">
         <v>simple</v>
@@ -7827,55 +8125,58 @@
       <c r="X100" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y100" t="str">
+        <v>MAX</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Casey</v>
+        <v>Cameron</v>
       </c>
       <c r="B101" t="str">
-        <v>Jackson</v>
+        <v>Ramirez</v>
       </c>
       <c r="C101" t="str">
-        <v>casey.jackson@example.com</v>
+        <v>cameron.ramirez@test.com</v>
       </c>
       <c r="D101" t="str">
-        <v>https://linkedin.com/in/caseyjackson</v>
+        <v>https://linkedin.com/in/cameronramirez</v>
       </c>
       <c r="E101" t="str">
-        <v/>
+        <v>https://twitter.com/cameron_ramirez</v>
       </c>
       <c r="F101" t="str">
-        <v>https://caseyjackson.co</v>
+        <v/>
       </c>
       <c r="G101" t="str">
-        <v>Boston, MA</v>
+        <v>San Francisco, CA</v>
       </c>
       <c r="H101" t="str">
-        <v>Experienced investor and former founder with expertise in Gaming</v>
+        <v>Experienced investor and former founder with expertise in AI/ML</v>
       </c>
       <c r="I101" t="str">
-        <v>10K-25K</v>
+        <v>100K-250K</v>
       </c>
       <c r="J101" t="str">
-        <v>Series B,Series A</v>
+        <v>Series B,Pre-seed</v>
       </c>
       <c r="K101" t="str">
-        <v>B2B SaaS,E-commerce</v>
+        <v>Deep tech,B2B SaaS</v>
       </c>
       <c r="L101" t="str">
-        <v>Europe</v>
+        <v>North America</v>
       </c>
       <c r="M101" t="str">
-        <v>hands-on</v>
+        <v>advisory</v>
       </c>
       <c r="N101" t="str">
         <v>ExampleCorp 100,StartupCo 101</v>
       </c>
       <c r="O101" t="str">
-        <v>Product,Engineering</v>
+        <v>Sales,Engineering</v>
       </c>
       <c r="P101" t="str">
-        <v>1 week</v>
+        <v>1-3 days</v>
       </c>
       <c r="Q101" t="str">
         <v>email</v>
@@ -7884,7 +8185,7 @@
         <v/>
       </c>
       <c r="S101" t="str">
-        <v>casey.jackson@example.com</v>
+        <v>cameron.ramirez@test.com</v>
       </c>
       <c r="T101" t="str">
         <v>simple</v>
@@ -7901,10 +8202,13 @@
       <c r="X101" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="Y101" t="str">
+        <v>MAX</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:X101"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:Y101"/>
   </ignoredErrors>
 </worksheet>
 </file>